--- a/output/chips_analysis_tables.xlsx
+++ b/output/chips_analysis_tables.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10605" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10605"/>
   </bookViews>
   <sheets>
-    <sheet name="Respondent Characteristics" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Respondent Charact Gender" sheetId="1" r:id="rId1"/>
+    <sheet name="Respondent Characteristics" sheetId="6" r:id="rId2"/>
+    <sheet name="Pretest Posttest" sheetId="5" r:id="rId3"/>
+    <sheet name="Increase in learning" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
   <si>
     <t>%</t>
   </si>
@@ -91,6 +93,72 @@
   </si>
   <si>
     <t>Pre service student</t>
+  </si>
+  <si>
+    <t>Characteristic</t>
+  </si>
+  <si>
+    <t>Module 1</t>
+  </si>
+  <si>
+    <t>Post Test</t>
+  </si>
+  <si>
+    <t>Pre Test</t>
+  </si>
+  <si>
+    <t>Improvement</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>Module 3</t>
+  </si>
+  <si>
+    <t>Module 4</t>
+  </si>
+  <si>
+    <t>Module 17</t>
+  </si>
+  <si>
+    <t>Module Means and Standard Deviations (N=112)</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>Pretest</t>
+  </si>
+  <si>
+    <t>Posttest</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>1, 3, 4, 17</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>Pretest-Posttest Means, standard Deviations, and Differences</t>
+  </si>
+  <si>
+    <t>Respondent Characteristics (N=112)</t>
+  </si>
+  <si>
+    <t>Respondent Characteristics by Gender (N=112)</t>
   </si>
 </sst>
 </file>
@@ -131,7 +199,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -289,11 +357,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="double">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -353,57 +445,158 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -685,508 +878,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="37.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="29"/>
+    <col min="10" max="10" width="9.140625" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="27"/>
-      <c r="B1" s="21"/>
-      <c r="C1" s="25" t="s">
+      <c r="A1" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="24" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="24" t="s">
+      <c r="F3" s="30"/>
+      <c r="G3" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="23"/>
-      <c r="I1" s="22" t="s">
+      <c r="H3" s="30"/>
+      <c r="I3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="28"/>
-    </row>
-    <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3" t="s">
+      <c r="J3" s="30"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="18"/>
+    </row>
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5" t="s">
+      <c r="F5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="I3" s="4" t="s">
+      <c r="H5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="J5" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="35"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="35"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="34">
-        <f>C4+E4+G4</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="38">
-        <f>D4+F4+H4</f>
-        <v>0</v>
-      </c>
-      <c r="L4" s="10"/>
-    </row>
-    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="32"/>
-      <c r="B5" s="7" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="23">
+        <f>C6+E6+G6</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="27">
+        <f>D6+F6+H6</f>
+        <v>0</v>
+      </c>
+      <c r="L6" s="10"/>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="34">
-        <f t="shared" ref="I5:I10" si="0">C5+E5+G5</f>
-        <v>0</v>
-      </c>
-      <c r="J5" s="38">
-        <f t="shared" ref="J5:J10" si="1">D5+F5+H5</f>
-        <v>0</v>
-      </c>
-      <c r="L5" s="10"/>
-    </row>
-    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32"/>
-      <c r="B6" s="7" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="23">
+        <f t="shared" ref="I7:I12" si="0">C7+E7+G7</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="27">
+        <f t="shared" ref="J7:J12" si="1">D7+F7+H7</f>
+        <v>0</v>
+      </c>
+      <c r="L7" s="10"/>
+    </row>
+    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="34">
+      <c r="C8" s="22"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J6" s="38">
+      <c r="J8" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
-      <c r="B7" s="7" t="s">
+    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="34">
+      <c r="C9" s="22"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J7" s="38">
+      <c r="J9" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L7" s="10"/>
-    </row>
-    <row r="8" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="32"/>
-      <c r="B8" s="7" t="s">
+      <c r="L9" s="10"/>
+    </row>
+    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="34">
+      <c r="C10" s="22"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J8" s="38">
+      <c r="J10" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L8" s="10"/>
-    </row>
-    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
-      <c r="B9" s="7" t="s">
+      <c r="L10" s="10"/>
+    </row>
+    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="34">
+      <c r="C11" s="22"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J9" s="38">
+      <c r="J11" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L9" s="10"/>
-    </row>
-    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32"/>
-      <c r="B10" s="8" t="s">
+      <c r="L11" s="10"/>
+    </row>
+    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="34">
+      <c r="C12" s="22"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="23">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J10" s="38">
+      <c r="J12" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L10" s="10"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="13"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="L12" s="10"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C14" s="22">
         <v>1</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D14" s="25">
         <v>1</v>
       </c>
-      <c r="E12" s="35">
-        <v>0</v>
-      </c>
-      <c r="F12" s="37">
-        <v>0</v>
-      </c>
-      <c r="G12" s="35">
-        <v>0</v>
-      </c>
-      <c r="H12" s="37">
-        <v>0</v>
-      </c>
-      <c r="I12" s="34">
-        <f>C12+E12+G12</f>
+      <c r="E14" s="24">
+        <v>0</v>
+      </c>
+      <c r="F14" s="26">
+        <v>0</v>
+      </c>
+      <c r="G14" s="24">
+        <v>0</v>
+      </c>
+      <c r="H14" s="26">
+        <v>0</v>
+      </c>
+      <c r="I14" s="23">
+        <f>C14+E14+G14</f>
         <v>1</v>
       </c>
-      <c r="J12" s="38">
-        <f>D12+F12</f>
+      <c r="J14" s="27">
+        <f>D14+F14</f>
         <v>1</v>
       </c>
-      <c r="L12" s="10"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="30"/>
-      <c r="B13" s="7" t="s">
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="34"/>
+      <c r="B15" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C15" s="22">
         <v>57</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D15" s="25">
         <v>0.51349999999999996</v>
       </c>
-      <c r="E13" s="35">
+      <c r="E15" s="24">
         <v>41</v>
       </c>
-      <c r="F13" s="37">
+      <c r="F15" s="26">
         <v>0.36940000000000001</v>
       </c>
-      <c r="G13" s="35">
+      <c r="G15" s="24">
         <v>13</v>
       </c>
-      <c r="H13" s="37">
+      <c r="H15" s="26">
         <v>0.1171</v>
       </c>
-      <c r="I13" s="34">
-        <f>C13+E13+G13</f>
+      <c r="I15" s="23">
+        <f>C15+E15+G15</f>
         <v>111</v>
       </c>
-      <c r="J13" s="38">
-        <f>D13+F13+H13</f>
-        <v>1</v>
-      </c>
-      <c r="L13" s="10"/>
-    </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="13"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="31" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="33">
-        <v>3</v>
-      </c>
-      <c r="D15" s="36">
-        <v>0.5</v>
-      </c>
-      <c r="E15" s="35">
-        <v>3</v>
-      </c>
-      <c r="F15" s="37">
-        <v>0.5</v>
-      </c>
-      <c r="G15" s="35">
-        <v>0</v>
-      </c>
-      <c r="H15" s="37">
-        <v>0</v>
-      </c>
-      <c r="I15" s="34">
-        <f>C15+E15+G15</f>
-        <v>6</v>
-      </c>
-      <c r="J15" s="38">
+      <c r="J15" s="27">
         <f>D15+F15+H15</f>
         <v>1</v>
       </c>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30"/>
-      <c r="B16" s="7" t="s">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="12"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="13"/>
+      <c r="L16" s="10"/>
+    </row>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="22">
+        <v>3</v>
+      </c>
+      <c r="D17" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E17" s="24">
+        <v>3</v>
+      </c>
+      <c r="F17" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="G17" s="24">
+        <v>0</v>
+      </c>
+      <c r="H17" s="26">
+        <v>0</v>
+      </c>
+      <c r="I17" s="23">
+        <f>C17+E17+G17</f>
+        <v>6</v>
+      </c>
+      <c r="J17" s="27">
+        <f>D17+F17+H17</f>
+        <v>1</v>
+      </c>
+      <c r="L17" s="10"/>
+    </row>
+    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="33">
+      <c r="C18" s="22">
         <v>12</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D18" s="25">
         <v>0.29270000000000002</v>
       </c>
-      <c r="E16" s="35">
+      <c r="E18" s="24">
         <v>21</v>
       </c>
-      <c r="F16" s="37">
+      <c r="F18" s="26">
         <v>0.51219999999999999</v>
       </c>
-      <c r="G16" s="35">
+      <c r="G18" s="24">
         <v>8</v>
       </c>
-      <c r="H16" s="37">
+      <c r="H18" s="26">
         <v>0.1951</v>
       </c>
-      <c r="I16" s="34">
-        <f t="shared" ref="I16:I19" si="2">C16+E16+G16</f>
+      <c r="I18" s="23">
+        <f t="shared" ref="I18:I21" si="2">C18+E18+G18</f>
         <v>41</v>
       </c>
-      <c r="J16" s="38">
-        <f t="shared" ref="J16:J19" si="3">D16+F16+H16</f>
+      <c r="J18" s="27">
+        <f t="shared" ref="J18:J21" si="3">D18+F18+H18</f>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="7" t="s">
+    <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C17" s="33">
+      <c r="C19" s="22">
         <v>38</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D19" s="25">
         <v>0.70369999999999999</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E19" s="24">
         <v>11</v>
       </c>
-      <c r="F17" s="37">
+      <c r="F19" s="26">
         <v>0.20369999999999999</v>
       </c>
-      <c r="G17" s="35">
+      <c r="G19" s="24">
         <v>5</v>
       </c>
-      <c r="H17" s="37">
+      <c r="H19" s="26">
         <v>9.2600000000000002E-2</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I19" s="23">
         <f t="shared" si="2"/>
         <v>54</v>
       </c>
-      <c r="J17" s="38">
+      <c r="J19" s="27">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30"/>
-      <c r="B18" s="7" t="s">
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="33">
+      <c r="C20" s="22">
         <v>2</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D20" s="25">
         <v>0.66669999999999996</v>
       </c>
-      <c r="E18" s="35">
+      <c r="E20" s="24">
         <v>1</v>
       </c>
-      <c r="F18" s="37">
+      <c r="F20" s="26">
         <v>0.33329999999999999</v>
       </c>
-      <c r="G18" s="35">
-        <v>0</v>
-      </c>
-      <c r="H18" s="37">
-        <v>0</v>
-      </c>
-      <c r="I18" s="34">
+      <c r="G20" s="24">
+        <v>0</v>
+      </c>
+      <c r="H20" s="26">
+        <v>0</v>
+      </c>
+      <c r="I20" s="23">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J18" s="38">
+      <c r="J20" s="27">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
-      <c r="L18" s="10"/>
-    </row>
-    <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30"/>
-      <c r="B19" s="7" t="s">
+      <c r="L20" s="10"/>
+    </row>
+    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="33">
+      <c r="C21" s="22">
         <v>3</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D21" s="25">
         <v>0.375</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E21" s="24">
         <v>5</v>
       </c>
-      <c r="F19" s="37">
+      <c r="F21" s="26">
         <v>0.625</v>
       </c>
-      <c r="G19" s="35">
-        <v>0</v>
-      </c>
-      <c r="H19" s="37">
-        <v>0</v>
-      </c>
-      <c r="I19" s="34">
+      <c r="G21" s="24">
+        <v>0</v>
+      </c>
+      <c r="H21" s="26">
+        <v>0</v>
+      </c>
+      <c r="I21" s="23">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="J19" s="38">
+      <c r="J21" s="27">
         <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="15"/>
-      <c r="L20" s="10"/>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="15"/>
+      <c r="L22" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A4:A10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A15:A19"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="I1:J1"/>
+  <mergeCells count="10">
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A6:A12"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1195,14 +1403,629 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="2" width="37.85546875" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" style="60"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="70"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="73"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="30"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="22"/>
+      <c r="D6" s="26"/>
+      <c r="F6" s="10"/>
+    </row>
+    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="22"/>
+      <c r="D7" s="26"/>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="22"/>
+      <c r="D8" s="26"/>
+    </row>
+    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="26"/>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33"/>
+      <c r="B10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="26"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="26"/>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="42"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="22">
+        <v>1</v>
+      </c>
+      <c r="D13" s="26">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="F13" s="10"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="34"/>
+      <c r="B14" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="22">
+        <v>111</v>
+      </c>
+      <c r="D14" s="26">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="42"/>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="22">
+        <v>6</v>
+      </c>
+      <c r="D16" s="26">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="34"/>
+      <c r="B17" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="22">
+        <v>41</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0.36609999999999998</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="34"/>
+      <c r="B18" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="22">
+        <v>54</v>
+      </c>
+      <c r="D18" s="26">
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="34"/>
+      <c r="B19" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="22">
+        <v>3</v>
+      </c>
+      <c r="D19" s="26">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34"/>
+      <c r="B20" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="22">
+        <v>8</v>
+      </c>
+      <c r="D20" s="26">
+        <v>7.1400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="43"/>
+      <c r="F21" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A16:A20"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:J11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="59" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="59"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="63" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="63" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7">
+        <v>1</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="51"/>
+      <c r="J6" s="10"/>
+    </row>
+    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7">
+        <v>3</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="51"/>
+      <c r="J7" s="10"/>
+    </row>
+    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7">
+        <v>4</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="51"/>
+    </row>
+    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7">
+        <v>17</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="51"/>
+      <c r="J9" s="10"/>
+    </row>
+    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="51"/>
+      <c r="J10" s="10"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="55"/>
+      <c r="J11" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="37.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="41"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="44">
+        <v>91.74</v>
+      </c>
+      <c r="D3" s="45">
+        <v>13.99</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="44">
+        <v>96.87</v>
+      </c>
+      <c r="D4" s="45">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="33"/>
+      <c r="B5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="44">
+        <v>5.13</v>
+      </c>
+      <c r="D5" s="45">
+        <v>14.68</v>
+      </c>
+      <c r="F5" s="10"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="44">
+        <v>59.21</v>
+      </c>
+      <c r="D7" s="45">
+        <v>23.89</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="44">
+        <v>77.92</v>
+      </c>
+      <c r="D8" s="45">
+        <v>17.66</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="44">
+        <v>18.7</v>
+      </c>
+      <c r="D9" s="45">
+        <v>14.39</v>
+      </c>
+      <c r="F9" s="10"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="F10" s="10"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="44">
+        <v>79.91</v>
+      </c>
+      <c r="D11" s="45">
+        <v>15.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="44">
+        <v>87.5</v>
+      </c>
+      <c r="D12" s="45">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="44">
+        <v>7.58</v>
+      </c>
+      <c r="D13" s="45">
+        <v>16.72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="44">
+        <v>39.28</v>
+      </c>
+      <c r="D15" s="45">
+        <v>22.93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="44">
+        <v>65.84</v>
+      </c>
+      <c r="D16" s="45">
+        <v>23.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="44">
+        <v>26.56</v>
+      </c>
+      <c r="D17" s="45">
+        <v>25.17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="49"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A1:D1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/output/chips_analysis_tables.xlsx
+++ b/output/chips_analysis_tables.xlsx
@@ -9,13 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10605"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10605" firstSheet="1" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Respondent Charact Gender" sheetId="1" r:id="rId1"/>
     <sheet name="Respondent Characteristics" sheetId="6" r:id="rId2"/>
-    <sheet name="Pretest Posttest" sheetId="5" r:id="rId3"/>
-    <sheet name="Increase in learning" sheetId="4" r:id="rId4"/>
+    <sheet name="Wilcox Ranked Test - Module" sheetId="8" r:id="rId3"/>
+    <sheet name="Wilcox Ranked Test Competency" sheetId="9" r:id="rId4"/>
+    <sheet name="Wilcox Ranked Test" sheetId="7" r:id="rId5"/>
+    <sheet name="Pretest Posttest" sheetId="5" r:id="rId6"/>
+    <sheet name="Increase in learning" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
   <si>
     <t>%</t>
   </si>
@@ -62,9 +65,6 @@
     <t>Parirenyatwa Hospital</t>
   </si>
   <si>
-    <t>Medicine</t>
-  </si>
-  <si>
     <t>Unknown</t>
   </si>
   <si>
@@ -152,21 +152,135 @@
     <t>df</t>
   </si>
   <si>
-    <t>Pretest-Posttest Means, standard Deviations, and Differences</t>
-  </si>
-  <si>
     <t>Respondent Characteristics (N=112)</t>
   </si>
   <si>
     <t>Respondent Characteristics by Gender (N=112)</t>
+  </si>
+  <si>
+    <t>Unkwown</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Key Content</t>
+  </si>
+  <si>
+    <t>Number of Survey Respondents Reporting</t>
+  </si>
+  <si>
+    <t>Positive Change</t>
+  </si>
+  <si>
+    <t>Negative Change</t>
+  </si>
+  <si>
+    <t>No Change</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Summary Pre/Post Change in CHIPS (N=112)</t>
+  </si>
+  <si>
+    <t>Pretest-Posttest Means, standard Deviations, and Differences (N=112)</t>
+  </si>
+  <si>
+    <t>Module 2</t>
+  </si>
+  <si>
+    <t>Module 1 - Multiple Choice</t>
+  </si>
+  <si>
+    <t>Module 3 - Multiple Choice</t>
+  </si>
+  <si>
+    <t>Module 4 - Multiple Choice</t>
+  </si>
+  <si>
+    <t>Module 17 - Multiple Choice</t>
+  </si>
+  <si>
+    <t>Disclosing a positive HIV result to a patient</t>
+  </si>
+  <si>
+    <t>Providing contra-ception options for women with HIV</t>
+  </si>
+  <si>
+    <t>Providing care for a patient newly diagnosed with HIV as part of a team</t>
+  </si>
+  <si>
+    <t>Recognizing the psychosocial implications of a new diagnosis of HIV</t>
+  </si>
+  <si>
+    <t>Initiating ART for a patient newly diagnosed with HIV, appropriate to my training level</t>
+  </si>
+  <si>
+    <t>Developing trusting relationships with women of child bearing age who are starting treatment for HIV</t>
+  </si>
+  <si>
+    <t>Starting a patient with HIV-TB co-infection on ART</t>
+  </si>
+  <si>
+    <t>Anticipating the toxicities of TB therapy on a patient with
+HIV-TB co-infection</t>
+  </si>
+  <si>
+    <t>Recognizing indications to prescribe TPT (TB preventive therapy)</t>
+  </si>
+  <si>
+    <t>Caring for a patient with HIV-TB co- infection as part of an interprofessional team</t>
+  </si>
+  <si>
+    <t>Developing an interprofessional patient care plan for individuals with HIV that are also suffering from TB</t>
+  </si>
+  <si>
+    <t>Identifying appropri-ate ART regimens during pregnancy to prevent moth-er-to-children trans-mission of HIV</t>
+  </si>
+  <si>
+    <t>Identifying periods during and after pregnancy that are high risk for HIV acquisition</t>
+  </si>
+  <si>
+    <t>Identifying strate-gies for prevention of mother-to-child transmission of HIV in a mother present-ing late in pregnan-cy with a high viral load</t>
+  </si>
+  <si>
+    <t>Recognizing the importance of early infant diagnosis</t>
+  </si>
+  <si>
+    <t>Using a Fishbone diagram to identify contributors to a systems-based problem</t>
+  </si>
+  <si>
+    <t>Recognizing the roles of different health care provid-ers in caring for the unique needs of mothers and new-borns related to HIV</t>
+  </si>
+  <si>
+    <t>Diagnosing HIV in children less than 18 months of age</t>
+  </si>
+  <si>
+    <t>Disclosing HIV status to a child</t>
+  </si>
+  <si>
+    <t>Recommending ART for children</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caring for a child with HIV as part of an interprofessional team </t>
+  </si>
+  <si>
+    <t>Summary Pre/Post Change in self reported competency (N=112)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -185,7 +299,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,8 +312,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -381,11 +501,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -469,49 +619,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -554,12 +674,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -578,25 +692,172 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -604,6 +865,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFF2CC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -878,55 +1144,55 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="37.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="60"/>
+    <col min="10" max="10" width="9.140625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="A1" s="74" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
+      <c r="I1" s="74"/>
+      <c r="J1" s="74"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="35" t="s">
+      <c r="D3" s="71"/>
+      <c r="E3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="29" t="s">
+      <c r="F3" s="73"/>
+      <c r="G3" s="72" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="73"/>
+      <c r="I3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="30"/>
+      <c r="J3" s="73"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="21"/>
       <c r="D4" s="1"/>
       <c r="E4" s="17"/>
@@ -965,435 +1231,486 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="67" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="26"/>
+      <c r="C6" s="22">
+        <v>14</v>
+      </c>
+      <c r="D6" s="25">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="E6" s="24">
+        <v>7</v>
+      </c>
+      <c r="F6" s="26">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="G6" s="24">
+        <v>0</v>
+      </c>
+      <c r="H6" s="26">
+        <v>0</v>
+      </c>
       <c r="I6" s="23">
         <f>C6+E6+G6</f>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="J6" s="27">
         <f>D6+F6+H6</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+      <c r="A7" s="76"/>
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="26"/>
+      <c r="C7" s="22">
+        <v>7</v>
+      </c>
+      <c r="D7" s="25">
+        <v>0.63639999999999997</v>
+      </c>
+      <c r="E7" s="24">
+        <v>4</v>
+      </c>
+      <c r="F7" s="26">
+        <v>0.36659999999999998</v>
+      </c>
+      <c r="G7" s="24">
+        <v>0</v>
+      </c>
+      <c r="H7" s="26">
+        <v>0</v>
+      </c>
       <c r="I7" s="23">
-        <f t="shared" ref="I7:I12" si="0">C7+E7+G7</f>
-        <v>0</v>
+        <f t="shared" ref="I7:I11" si="0">C7+E7+G7</f>
+        <v>11</v>
       </c>
       <c r="J7" s="27">
-        <f t="shared" ref="J7:J12" si="1">D7+F7+H7</f>
-        <v>0</v>
+        <f t="shared" ref="J7:J11" si="1">D7+F7+H7</f>
+        <v>1.0029999999999999</v>
       </c>
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="76"/>
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="26"/>
+      <c r="C8" s="22">
+        <v>5</v>
+      </c>
+      <c r="D8" s="25">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="E8" s="24">
+        <v>4</v>
+      </c>
+      <c r="F8" s="26">
+        <v>0.44440000000000002</v>
+      </c>
+      <c r="G8" s="24">
+        <v>0</v>
+      </c>
+      <c r="H8" s="26">
+        <v>0</v>
+      </c>
       <c r="I8" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J8" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="76"/>
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="26"/>
+      <c r="C9" s="22">
+        <v>3</v>
+      </c>
+      <c r="D9" s="25">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="E9" s="24">
+        <v>4</v>
+      </c>
+      <c r="F9" s="26">
+        <v>0.57140000000000002</v>
+      </c>
+      <c r="G9" s="24">
+        <v>0</v>
+      </c>
+      <c r="H9" s="26">
+        <v>0</v>
+      </c>
       <c r="I9" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J9" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="76"/>
       <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="26"/>
+      <c r="C10" s="22">
+        <v>27</v>
+      </c>
+      <c r="D10" s="25">
+        <v>0.4355</v>
+      </c>
+      <c r="E10" s="24">
+        <v>22</v>
+      </c>
+      <c r="F10" s="26">
+        <v>0.3548</v>
+      </c>
+      <c r="G10" s="24">
+        <v>13</v>
+      </c>
+      <c r="H10" s="26">
+        <v>0.2097</v>
+      </c>
       <c r="I10" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" ref="I10" si="2">C10+E10+G10</f>
+        <v>62</v>
       </c>
       <c r="J10" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" ref="J10" si="3">D10+F10+H10</f>
+        <v>1</v>
       </c>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="76"/>
       <c r="B11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="26"/>
+        <v>42</v>
+      </c>
+      <c r="C11" s="22">
+        <v>2</v>
+      </c>
+      <c r="D11" s="25">
+        <v>1</v>
+      </c>
+      <c r="E11" s="24">
+        <v>0</v>
+      </c>
+      <c r="F11" s="26">
+        <v>0</v>
+      </c>
+      <c r="G11" s="24">
+        <v>0</v>
+      </c>
+      <c r="H11" s="26">
+        <v>0</v>
+      </c>
       <c r="I11" s="23">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J11" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="L12" s="10"/>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="13"/>
+      <c r="A13" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="22">
+        <v>1</v>
+      </c>
+      <c r="D13" s="25">
+        <v>1</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="26">
+        <v>0</v>
+      </c>
+      <c r="G13" s="24">
+        <v>0</v>
+      </c>
+      <c r="H13" s="26">
+        <v>0</v>
+      </c>
+      <c r="I13" s="23">
+        <f>C13+E13+G13</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="27">
+        <f>D13+F13</f>
+        <v>1</v>
+      </c>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>19</v>
-      </c>
+      <c r="A14" s="68"/>
       <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
       <c r="C14" s="22">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D14" s="25">
-        <v>1</v>
+        <v>0.51349999999999996</v>
       </c>
       <c r="E14" s="24">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="F14" s="26">
-        <v>0</v>
+        <v>0.36940000000000001</v>
       </c>
       <c r="G14" s="24">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="H14" s="26">
-        <v>0</v>
+        <v>0.1171</v>
       </c>
       <c r="I14" s="23">
         <f>C14+E14+G14</f>
+        <v>111</v>
+      </c>
+      <c r="J14" s="27">
+        <f>D14+F14+H14</f>
         <v>1</v>
       </c>
-      <c r="J14" s="27">
-        <f>D14+F14</f>
+      <c r="L14" s="10"/>
+    </row>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="13"/>
+      <c r="L15" s="10"/>
+    </row>
+    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="22">
+        <v>3</v>
+      </c>
+      <c r="D16" s="25">
+        <v>0.5</v>
+      </c>
+      <c r="E16" s="24">
+        <v>3</v>
+      </c>
+      <c r="F16" s="26">
+        <v>0.5</v>
+      </c>
+      <c r="G16" s="24">
+        <v>0</v>
+      </c>
+      <c r="H16" s="26">
+        <v>0</v>
+      </c>
+      <c r="I16" s="23">
+        <f>C16+E16+G16</f>
+        <v>6</v>
+      </c>
+      <c r="J16" s="27">
+        <f>D16+F16+H16</f>
         <v>1</v>
       </c>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="22">
-        <v>57</v>
-      </c>
-      <c r="D15" s="25">
-        <v>0.51349999999999996</v>
-      </c>
-      <c r="E15" s="24">
-        <v>41</v>
-      </c>
-      <c r="F15" s="26">
-        <v>0.36940000000000001</v>
-      </c>
-      <c r="G15" s="24">
-        <v>13</v>
-      </c>
-      <c r="H15" s="26">
-        <v>0.1171</v>
-      </c>
-      <c r="I15" s="23">
-        <f>C15+E15+G15</f>
-        <v>111</v>
-      </c>
-      <c r="J15" s="27">
-        <f>D15+F15+H15</f>
-        <v>1</v>
-      </c>
-      <c r="L15" s="10"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="13"/>
       <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
-        <v>18</v>
-      </c>
+      <c r="A17" s="68"/>
       <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="22">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D17" s="25">
-        <v>0.5</v>
+        <v>0.29270000000000002</v>
       </c>
       <c r="E17" s="24">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="F17" s="26">
-        <v>0.5</v>
+        <v>0.51219999999999999</v>
       </c>
       <c r="G17" s="24">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="H17" s="26">
-        <v>0</v>
+        <v>0.1951</v>
       </c>
       <c r="I17" s="23">
-        <f>C17+E17+G17</f>
-        <v>6</v>
+        <f t="shared" ref="I17:I20" si="4">C17+E17+G17</f>
+        <v>41</v>
       </c>
       <c r="J17" s="27">
-        <f>D17+F17+H17</f>
+        <f t="shared" ref="J17:J20" si="5">D17+F17+H17</f>
         <v>1</v>
       </c>
-      <c r="L17" s="10"/>
-    </row>
-    <row r="18" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
+    </row>
+    <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="68"/>
       <c r="B18" s="7" t="s">
         <v>14</v>
       </c>
       <c r="C18" s="22">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="D18" s="25">
-        <v>0.29270000000000002</v>
+        <v>0.70369999999999999</v>
       </c>
       <c r="E18" s="24">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="F18" s="26">
-        <v>0.51219999999999999</v>
+        <v>0.20369999999999999</v>
       </c>
       <c r="G18" s="24">
+        <v>5</v>
+      </c>
+      <c r="H18" s="26">
+        <v>9.2600000000000002E-2</v>
+      </c>
+      <c r="I18" s="23">
+        <f t="shared" si="4"/>
+        <v>54</v>
+      </c>
+      <c r="J18" s="27">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L18" s="10"/>
+    </row>
+    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="68"/>
+      <c r="B19" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="22">
+        <v>2</v>
+      </c>
+      <c r="D19" s="25">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="E19" s="24">
+        <v>1</v>
+      </c>
+      <c r="F19" s="26">
+        <v>0.33329999999999999</v>
+      </c>
+      <c r="G19" s="24">
+        <v>0</v>
+      </c>
+      <c r="H19" s="26">
+        <v>0</v>
+      </c>
+      <c r="I19" s="23">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="J19" s="27">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="L19" s="10"/>
+    </row>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="68"/>
+      <c r="B20" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="22">
+        <v>3</v>
+      </c>
+      <c r="D20" s="25">
+        <v>0.375</v>
+      </c>
+      <c r="E20" s="24">
+        <v>5</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0.625</v>
+      </c>
+      <c r="G20" s="24">
+        <v>0</v>
+      </c>
+      <c r="H20" s="26">
+        <v>0</v>
+      </c>
+      <c r="I20" s="23">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H18" s="26">
-        <v>0.1951</v>
-      </c>
-      <c r="I18" s="23">
-        <f t="shared" ref="I18:I21" si="2">C18+E18+G18</f>
-        <v>41</v>
-      </c>
-      <c r="J18" s="27">
-        <f t="shared" ref="J18:J21" si="3">D18+F18+H18</f>
+      <c r="J20" s="27">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="22">
-        <v>38</v>
-      </c>
-      <c r="D19" s="25">
-        <v>0.70369999999999999</v>
-      </c>
-      <c r="E19" s="24">
-        <v>11</v>
-      </c>
-      <c r="F19" s="26">
-        <v>0.20369999999999999</v>
-      </c>
-      <c r="G19" s="24">
-        <v>5</v>
-      </c>
-      <c r="H19" s="26">
-        <v>9.2600000000000002E-2</v>
-      </c>
-      <c r="I19" s="23">
-        <f t="shared" si="2"/>
-        <v>54</v>
-      </c>
-      <c r="J19" s="27">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L19" s="10"/>
-    </row>
-    <row r="20" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="22">
-        <v>2</v>
-      </c>
-      <c r="D20" s="25">
-        <v>0.66669999999999996</v>
-      </c>
-      <c r="E20" s="24">
-        <v>1</v>
-      </c>
-      <c r="F20" s="26">
-        <v>0.33329999999999999</v>
-      </c>
-      <c r="G20" s="24">
-        <v>0</v>
-      </c>
-      <c r="H20" s="26">
-        <v>0</v>
-      </c>
-      <c r="I20" s="23">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="J20" s="27">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L20" s="10"/>
-    </row>
-    <row r="21" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="22">
-        <v>3</v>
-      </c>
-      <c r="D21" s="25">
-        <v>0.375</v>
-      </c>
-      <c r="E21" s="24">
-        <v>5</v>
-      </c>
-      <c r="F21" s="26">
-        <v>0.625</v>
-      </c>
-      <c r="G21" s="24">
-        <v>0</v>
-      </c>
-      <c r="H21" s="26">
-        <v>0</v>
-      </c>
-      <c r="I21" s="23">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="J21" s="27">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="9"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="20"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="15"/>
-      <c r="L22" s="10"/>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="20"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="15"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="15"/>
+      <c r="L21" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="A16:A20"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="A3:A4"/>
-    <mergeCell ref="A6:A12"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="G3:H3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1403,234 +1720,347 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="60"/>
+    <col min="4" max="4" width="9.140625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="70"/>
+      <c r="A1" s="74" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="78"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="73"/>
+      <c r="A2" s="54"/>
+      <c r="B2" s="55"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="56"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="29" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="30"/>
+      <c r="D3" s="73"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="36"/>
+      <c r="A4" s="75"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="1"/>
       <c r="D4" s="18"/>
     </row>
-    <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="42" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+      <c r="D5" s="33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="22">
+        <v>41</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0.36609999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="68"/>
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22">
+        <v>58</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0.51790000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="79"/>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="66">
+        <v>13</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0.11609999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="79"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="60">
+        <f>SUM(C6:C8)</f>
+        <v>112</v>
+      </c>
+      <c r="D9" s="62">
+        <f>SUM(D6:D8)</f>
+        <v>1.0001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="64"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B11" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="26"/>
-      <c r="F6" s="10"/>
-    </row>
-    <row r="7" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
-      <c r="B7" s="7" t="s">
+      <c r="C11" s="22">
+        <v>21</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0.1875</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="76"/>
+      <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="26"/>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="7" t="s">
+      <c r="C12" s="22">
+        <v>11</v>
+      </c>
+      <c r="D12" s="26">
+        <v>9.8199999999999996E-2</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="76"/>
+      <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="26"/>
-    </row>
-    <row r="9" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="7" t="s">
+      <c r="C13" s="22">
+        <v>9</v>
+      </c>
+      <c r="D13" s="26">
+        <v>8.0399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="76"/>
+      <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="26"/>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
-      <c r="B10" s="7" t="s">
+      <c r="C14" s="22">
+        <v>7</v>
+      </c>
+      <c r="D14" s="26">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="76"/>
+      <c r="B15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="26"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
-      <c r="B11" s="8" t="s">
+      <c r="C15" s="22">
+        <v>62</v>
+      </c>
+      <c r="D15" s="26">
+        <v>0.55359999999999998</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="76"/>
+      <c r="B16" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="22">
+        <v>2</v>
+      </c>
+      <c r="D16" s="26">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="30"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="60">
+        <f>SUM(C11:C16)</f>
+        <v>112</v>
+      </c>
+      <c r="D17" s="62">
+        <f>SUM(D11:D16)</f>
+        <v>1.0001</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="33"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="67" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="22">
+        <v>1</v>
+      </c>
+      <c r="D19" s="26">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="68"/>
+      <c r="B20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="22">
+        <v>111</v>
+      </c>
+      <c r="D20" s="26">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="31"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="60">
+        <f>SUM(C19:C20)</f>
+        <v>112</v>
+      </c>
+      <c r="D21" s="62">
+        <f>SUM(D19:D20)</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="33"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="26"/>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="42"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="22">
+      <c r="C23" s="22">
+        <v>6</v>
+      </c>
+      <c r="D23" s="26">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="68"/>
+      <c r="B24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="22">
+        <v>41</v>
+      </c>
+      <c r="D24" s="26">
+        <v>0.36609999999999998</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="68"/>
+      <c r="B25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="22">
+        <v>54</v>
+      </c>
+      <c r="D25" s="26">
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="68"/>
+      <c r="B26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="22">
+        <v>3</v>
+      </c>
+      <c r="D26" s="26">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="68"/>
+      <c r="B27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="22">
+        <v>8</v>
+      </c>
+      <c r="D27" s="26">
+        <v>7.1400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="61">
+        <f>SUM(C23:C27)</f>
+        <v>112</v>
+      </c>
+      <c r="D28" s="63">
+        <f>SUM(D23:D27)</f>
         <v>1</v>
       </c>
-      <c r="D13" s="26">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="F13" s="10"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="22">
-        <v>111</v>
-      </c>
-      <c r="D14" s="26">
-        <v>0.99109999999999998</v>
-      </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="42"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="22">
-        <v>6</v>
-      </c>
-      <c r="D16" s="26">
-        <v>5.3600000000000002E-2</v>
-      </c>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C17" s="22">
-        <v>41</v>
-      </c>
-      <c r="D17" s="26">
-        <v>0.36609999999999998</v>
-      </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C18" s="22">
-        <v>54</v>
-      </c>
-      <c r="D18" s="26">
-        <v>0.48209999999999997</v>
-      </c>
-      <c r="F18" s="10"/>
-    </row>
-    <row r="19" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="22">
-        <v>3</v>
-      </c>
-      <c r="D19" s="26">
-        <v>2.6800000000000001E-2</v>
-      </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="22">
-        <v>8</v>
-      </c>
-      <c r="D20" s="26">
-        <v>7.1400000000000005E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="43"/>
-      <c r="F21" s="10"/>
+      <c r="F28" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A6:A11"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A16:A20"/>
+  <mergeCells count="8">
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A23:A27"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A6:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1639,10 +2069,948 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+    </row>
+    <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="93"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="97"/>
+      <c r="F4" s="97"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="99">
+        <v>27</v>
+      </c>
+      <c r="C5" s="87">
+        <v>7</v>
+      </c>
+      <c r="D5" s="87">
+        <v>79</v>
+      </c>
+      <c r="E5" s="105">
+        <v>3.4630000000000001</v>
+      </c>
+      <c r="F5" s="102">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="B6" s="100"/>
+      <c r="C6" s="89"/>
+      <c r="D6" s="88"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="103"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="99">
+        <v>74</v>
+      </c>
+      <c r="C7" s="87">
+        <v>13</v>
+      </c>
+      <c r="D7" s="87">
+        <v>25</v>
+      </c>
+      <c r="E7" s="105">
+        <v>6.9089999999999998</v>
+      </c>
+      <c r="F7" s="102">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="89"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="103"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="99">
+        <v>41</v>
+      </c>
+      <c r="C9" s="87">
+        <v>10</v>
+      </c>
+      <c r="D9" s="87">
+        <v>61</v>
+      </c>
+      <c r="E9" s="105">
+        <v>4.3789999999999996</v>
+      </c>
+      <c r="F9" s="102">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="89"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="103"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="B11" s="99">
+        <v>79</v>
+      </c>
+      <c r="C11" s="87">
+        <v>6</v>
+      </c>
+      <c r="D11" s="87">
+        <v>27</v>
+      </c>
+      <c r="E11" s="105">
+        <v>7.8230000000000004</v>
+      </c>
+      <c r="F11" s="102">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="101"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="107"/>
+      <c r="F12" s="104"/>
+      <c r="H12" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="2" max="2" width="73.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+    </row>
+    <row r="3" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="99">
+        <v>60</v>
+      </c>
+      <c r="D5" s="87">
+        <v>16</v>
+      </c>
+      <c r="E5" s="87">
+        <v>36</v>
+      </c>
+      <c r="F5" s="105">
+        <v>5.2750000000000004</v>
+      </c>
+      <c r="G5" s="102">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="76"/>
+      <c r="B6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="99">
+        <v>72</v>
+      </c>
+      <c r="D6" s="87">
+        <v>9</v>
+      </c>
+      <c r="E6" s="87">
+        <v>31</v>
+      </c>
+      <c r="F6" s="105">
+        <v>7.1660000000000004</v>
+      </c>
+      <c r="G6" s="102">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="76"/>
+      <c r="B7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="99">
+        <v>52</v>
+      </c>
+      <c r="D7" s="87">
+        <v>12</v>
+      </c>
+      <c r="E7" s="87">
+        <v>48</v>
+      </c>
+      <c r="F7" s="105">
+        <v>5.0090000000000003</v>
+      </c>
+      <c r="G7" s="102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="76"/>
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="99">
+        <v>60</v>
+      </c>
+      <c r="D8" s="87">
+        <v>10</v>
+      </c>
+      <c r="E8" s="87">
+        <v>42</v>
+      </c>
+      <c r="F8" s="105">
+        <v>5.7110000000000003</v>
+      </c>
+      <c r="G8" s="102">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="76"/>
+      <c r="B9" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="99">
+        <v>58</v>
+      </c>
+      <c r="D9" s="87">
+        <v>14</v>
+      </c>
+      <c r="E9" s="87">
+        <v>40</v>
+      </c>
+      <c r="F9" s="105">
+        <v>5.2430000000000003</v>
+      </c>
+      <c r="G9" s="102">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="76"/>
+      <c r="B10" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" s="99">
+        <v>39</v>
+      </c>
+      <c r="D10" s="87">
+        <v>13</v>
+      </c>
+      <c r="E10" s="87">
+        <v>60</v>
+      </c>
+      <c r="F10" s="105">
+        <v>3.3239999999999998</v>
+      </c>
+      <c r="G10" s="102">
+        <v>8.9999999999999998E-4</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="103"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="67" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="99">
+        <v>68</v>
+      </c>
+      <c r="D12" s="87">
+        <v>5</v>
+      </c>
+      <c r="E12" s="87">
+        <v>39</v>
+      </c>
+      <c r="F12" s="105">
+        <v>7.2619999999999996</v>
+      </c>
+      <c r="G12" s="102">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="67"/>
+      <c r="B13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="99">
+        <v>79</v>
+      </c>
+      <c r="D13" s="87">
+        <v>6</v>
+      </c>
+      <c r="E13" s="87">
+        <v>27</v>
+      </c>
+      <c r="F13" s="105">
+        <v>7.8490000000000002</v>
+      </c>
+      <c r="G13" s="102">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="67"/>
+      <c r="B14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="99">
+        <v>72</v>
+      </c>
+      <c r="D14" s="87">
+        <v>8</v>
+      </c>
+      <c r="E14" s="87">
+        <v>32</v>
+      </c>
+      <c r="F14" s="105">
+        <v>7.0839999999999996</v>
+      </c>
+      <c r="G14" s="102">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="67"/>
+      <c r="B15" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="99">
+        <v>61</v>
+      </c>
+      <c r="D15" s="87">
+        <v>6</v>
+      </c>
+      <c r="E15" s="87">
+        <v>45</v>
+      </c>
+      <c r="F15" s="105">
+        <v>6.5030000000000001</v>
+      </c>
+      <c r="G15" s="102">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="67"/>
+      <c r="B16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="99">
+        <v>34</v>
+      </c>
+      <c r="D16" s="87">
+        <v>11</v>
+      </c>
+      <c r="E16" s="87">
+        <v>66</v>
+      </c>
+      <c r="F16" s="105">
+        <v>3.234</v>
+      </c>
+      <c r="G16" s="102">
+        <v>1.1999999999999999E-3</v>
+      </c>
+      <c r="I16" s="10"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="89"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="103"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="67" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="99">
+        <v>63</v>
+      </c>
+      <c r="D18" s="87">
+        <v>9</v>
+      </c>
+      <c r="E18" s="87">
+        <v>40</v>
+      </c>
+      <c r="F18" s="105">
+        <v>6.407</v>
+      </c>
+      <c r="G18" s="102">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="67"/>
+      <c r="B19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="99">
+        <v>62</v>
+      </c>
+      <c r="D19" s="87">
+        <v>9</v>
+      </c>
+      <c r="E19" s="87">
+        <v>41</v>
+      </c>
+      <c r="F19" s="105">
+        <v>6.2409999999999997</v>
+      </c>
+      <c r="G19" s="102">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="67"/>
+      <c r="B20" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="99">
+        <v>66</v>
+      </c>
+      <c r="D20" s="87">
+        <v>10</v>
+      </c>
+      <c r="E20" s="87">
+        <v>36</v>
+      </c>
+      <c r="F20" s="105">
+        <v>6.4619999999999997</v>
+      </c>
+      <c r="G20" s="102">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="67"/>
+      <c r="B21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="99">
+        <v>54</v>
+      </c>
+      <c r="D21" s="87">
+        <v>11</v>
+      </c>
+      <c r="E21" s="87">
+        <v>47</v>
+      </c>
+      <c r="F21" s="105">
+        <v>5.0659999999999998</v>
+      </c>
+      <c r="G21" s="102">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="67"/>
+      <c r="B22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="99">
+        <v>81</v>
+      </c>
+      <c r="D22" s="87">
+        <v>10</v>
+      </c>
+      <c r="E22" s="87">
+        <v>21</v>
+      </c>
+      <c r="F22" s="105">
+        <v>7.6749999999999998</v>
+      </c>
+      <c r="G22" s="102">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="67"/>
+      <c r="B23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="99">
+        <v>29</v>
+      </c>
+      <c r="D23" s="87">
+        <v>11</v>
+      </c>
+      <c r="E23" s="87">
+        <v>71</v>
+      </c>
+      <c r="F23" s="105">
+        <v>2.7770000000000001</v>
+      </c>
+      <c r="G23" s="102">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="I23" s="10"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="103"/>
+      <c r="I24" s="10"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="67" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="99">
+        <v>71</v>
+      </c>
+      <c r="D25" s="87">
+        <v>10</v>
+      </c>
+      <c r="E25" s="87">
+        <v>31</v>
+      </c>
+      <c r="F25" s="105">
+        <v>6.8680000000000003</v>
+      </c>
+      <c r="G25" s="102">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="67"/>
+      <c r="B26" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="99">
+        <v>69</v>
+      </c>
+      <c r="D26" s="87">
+        <v>10</v>
+      </c>
+      <c r="E26" s="87">
+        <v>33</v>
+      </c>
+      <c r="F26" s="105">
+        <v>6.423</v>
+      </c>
+      <c r="G26" s="102">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="67"/>
+      <c r="B27" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" s="99">
+        <v>60</v>
+      </c>
+      <c r="D27" s="87">
+        <v>21</v>
+      </c>
+      <c r="E27" s="87">
+        <v>31</v>
+      </c>
+      <c r="F27" s="105">
+        <v>4.452</v>
+      </c>
+      <c r="G27" s="102">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="67"/>
+      <c r="B28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="99">
+        <v>57</v>
+      </c>
+      <c r="D28" s="87">
+        <v>14</v>
+      </c>
+      <c r="E28" s="87">
+        <v>41</v>
+      </c>
+      <c r="F28" s="105">
+        <v>5.3719999999999999</v>
+      </c>
+      <c r="G28" s="102">
+        <v>0</v>
+      </c>
+      <c r="I28" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A12:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="37.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="74" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+    </row>
+    <row r="3" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="59"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="92" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="93"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="96" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" s="96" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="98" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="95" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="95" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="97"/>
+      <c r="G4" s="97"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="67" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="76"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="87"/>
+      <c r="E6" s="87"/>
+      <c r="F6" s="87"/>
+      <c r="G6" s="87"/>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="76"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+    </row>
+    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="76"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="99"/>
+      <c r="D8" s="87"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="87"/>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="76"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="87"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="87"/>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="76"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="89"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="99"/>
+      <c r="D12" s="87"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="87"/>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="68"/>
+      <c r="B13" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="99"/>
+      <c r="D13" s="87"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="87"/>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="89"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="88"/>
+      <c r="G14" s="89"/>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="91"/>
+      <c r="I15" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1651,34 +3019,34 @@
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
+    <row r="2" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="80" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="59" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="82" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="82"/>
+      <c r="D3" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="83"/>
+      <c r="G3" s="83"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
+      <c r="A4" s="75"/>
       <c r="B4" s="21"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1688,104 +3056,152 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="62" t="s">
+      <c r="A5" s="49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="E5" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="63" t="s">
-        <v>40</v>
+      <c r="G5" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="51" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7">
         <v>1</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="52"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="52"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="51"/>
+      <c r="B6" s="40">
+        <v>91.74</v>
+      </c>
+      <c r="C6" s="41">
+        <v>13.99</v>
+      </c>
+      <c r="D6" s="42">
+        <v>96.87</v>
+      </c>
+      <c r="E6" s="43">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F6" s="42">
+        <v>5.13</v>
+      </c>
+      <c r="G6" s="108">
+        <v>3.7008999999999999</v>
+      </c>
+      <c r="H6" s="41"/>
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>3</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="51"/>
+      <c r="B7" s="34">
+        <v>59.21</v>
+      </c>
+      <c r="C7" s="35">
+        <v>23.89</v>
+      </c>
+      <c r="D7" s="110">
+        <v>77.92</v>
+      </c>
+      <c r="E7" s="35">
+        <v>17.66</v>
+      </c>
+      <c r="F7" s="110">
+        <v>18.7</v>
+      </c>
+      <c r="G7" s="108">
+        <v>8.6056000000000008</v>
+      </c>
+      <c r="H7" s="41"/>
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>4</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="51"/>
+      <c r="B8" s="34">
+        <v>79.91</v>
+      </c>
+      <c r="C8" s="35">
+        <v>15.68</v>
+      </c>
+      <c r="D8" s="110">
+        <v>87.5</v>
+      </c>
+      <c r="E8" s="35">
+        <v>12.99</v>
+      </c>
+      <c r="F8" s="42">
+        <v>7.58</v>
+      </c>
+      <c r="G8" s="108">
+        <v>4.8022999999999998</v>
+      </c>
+      <c r="H8" s="41"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>17</v>
       </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="52"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="51"/>
+      <c r="B9" s="34">
+        <v>39.28</v>
+      </c>
+      <c r="C9" s="35">
+        <v>22.93</v>
+      </c>
+      <c r="D9" s="110">
+        <v>65.84</v>
+      </c>
+      <c r="E9" s="35">
+        <v>23.72</v>
+      </c>
+      <c r="F9" s="110">
+        <v>26.56</v>
+      </c>
+      <c r="G9" s="108">
+        <v>11.1661</v>
+      </c>
+      <c r="H9" s="41"/>
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="52"/>
-      <c r="G10" s="53"/>
-      <c r="H10" s="51"/>
+        <v>38</v>
+      </c>
+      <c r="B10" s="40"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="108"/>
+      <c r="H10" s="41"/>
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="55"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="56"/>
-      <c r="G11" s="57"/>
-      <c r="H11" s="55"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="109"/>
+      <c r="H11" s="45"/>
       <c r="J11" s="10"/>
     </row>
   </sheetData>
@@ -1801,12 +3217,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1815,62 +3231,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="84" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="86"/>
     </row>
     <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32" t="s">
+      <c r="B3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="34">
+        <v>91.74</v>
+      </c>
+      <c r="D3" s="35">
+        <v>13.99</v>
+      </c>
+      <c r="F3" s="10"/>
+    </row>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="76"/>
+      <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="C4" s="34">
+        <v>96.87</v>
+      </c>
+      <c r="D4" s="35">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="76"/>
+      <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="44">
-        <v>91.74</v>
-      </c>
-      <c r="D3" s="45">
-        <v>13.99</v>
-      </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
-      <c r="B4" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="44">
-        <v>96.87</v>
-      </c>
-      <c r="D4" s="45">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
-      <c r="B5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="44">
+      <c r="C5" s="34">
         <v>5.13</v>
       </c>
-      <c r="D5" s="45">
+      <c r="D5" s="35">
         <v>14.68</v>
       </c>
       <c r="F5" s="10"/>
@@ -1878,46 +3294,46 @@
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="37"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>29</v>
+      <c r="A7" s="67" t="s">
+        <v>28</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="34">
+        <v>59.21</v>
+      </c>
+      <c r="D7" s="35">
+        <v>23.89</v>
+      </c>
+      <c r="F7" s="10"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="76"/>
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="34">
+        <v>77.92</v>
+      </c>
+      <c r="D8" s="35">
+        <v>17.66</v>
+      </c>
+      <c r="F8" s="10"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="76"/>
+      <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="44">
-        <v>59.21</v>
-      </c>
-      <c r="D7" s="45">
-        <v>23.89</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
-      <c r="B8" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="44">
-        <v>77.92</v>
-      </c>
-      <c r="D8" s="45">
-        <v>17.66</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
-      <c r="B9" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="44">
+      <c r="C9" s="34">
         <v>18.7</v>
       </c>
-      <c r="D9" s="45">
+      <c r="D9" s="35">
         <v>14.39</v>
       </c>
       <c r="F9" s="10"/>
@@ -1925,97 +3341,97 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="37"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
-        <v>30</v>
+      <c r="A11" s="67" t="s">
+        <v>29</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="34">
+        <v>79.91</v>
+      </c>
+      <c r="D11" s="35">
+        <v>15.68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="76"/>
+      <c r="B12" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="34">
+        <v>87.5</v>
+      </c>
+      <c r="D12" s="35">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="76"/>
+      <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="44">
-        <v>79.91</v>
-      </c>
-      <c r="D11" s="45">
-        <v>15.68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="44">
-        <v>87.5</v>
-      </c>
-      <c r="D12" s="45">
-        <v>12.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="44">
+      <c r="C13" s="34">
         <v>7.58</v>
       </c>
-      <c r="D13" s="45">
+      <c r="D13" s="35">
         <v>16.72</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="46"/>
-      <c r="D14" s="47"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="37"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
-        <v>31</v>
+      <c r="A15" s="67" t="s">
+        <v>30</v>
       </c>
       <c r="B15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="34">
+        <v>39.28</v>
+      </c>
+      <c r="D15" s="35">
+        <v>22.93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="76"/>
+      <c r="B16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="34">
+        <v>65.84</v>
+      </c>
+      <c r="D16" s="35">
+        <v>23.72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="76"/>
+      <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="44">
-        <v>39.28</v>
-      </c>
-      <c r="D15" s="45">
-        <v>22.93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
-      <c r="B16" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" s="44">
-        <v>65.84</v>
-      </c>
-      <c r="D16" s="45">
-        <v>23.72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
-      <c r="B17" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="44">
+      <c r="C17" s="34">
         <v>26.56</v>
       </c>
-      <c r="D17" s="45">
+      <c r="D17" s="35">
         <v>25.17</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="9"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/output/chips_analysis_tables.xlsx
+++ b/output/chips_analysis_tables.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ronald Munjoma\Documents\chips-analysis\output\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronald\Documents\GitHub\chips-analysis\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10605" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10610" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Respondent Charact Gender" sheetId="1" r:id="rId1"/>
     <sheet name="Respondent Characteristics" sheetId="6" r:id="rId2"/>
-    <sheet name="Wilcox Ranked Test - Module" sheetId="8" r:id="rId3"/>
+    <sheet name="Perceived Comfort Level" sheetId="11" r:id="rId3"/>
     <sheet name="Wilcox Ranked Test Competency" sheetId="9" r:id="rId4"/>
-    <sheet name="Wilcox Ranked Test" sheetId="7" r:id="rId5"/>
-    <sheet name="Pretest Posttest" sheetId="5" r:id="rId6"/>
+    <sheet name="Wilcox Ranked Test - Module" sheetId="8" r:id="rId5"/>
+    <sheet name="Ttest Pretest Posttest" sheetId="5" r:id="rId6"/>
     <sheet name="Increase in learning" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="94">
   <si>
     <t>%</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>Pretest-Posttest Means, standard Deviations, and Differences (N=112)</t>
-  </si>
-  <si>
-    <t>Module 2</t>
   </si>
   <si>
     <t>Module 1 - Multiple Choice</t>
@@ -246,9 +243,6 @@
     <t>Identifying periods during and after pregnancy that are high risk for HIV acquisition</t>
   </si>
   <si>
-    <t>Identifying strate-gies for prevention of mother-to-child transmission of HIV in a mother present-ing late in pregnan-cy with a high viral load</t>
-  </si>
-  <si>
     <t>Recognizing the importance of early infant diagnosis</t>
   </si>
   <si>
@@ -271,6 +265,54 @@
   </si>
   <si>
     <t>Summary Pre/Post Change in self reported competency (N=112)</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Respondent Comfort  Leve (N=112)</t>
+  </si>
+  <si>
+    <t>comfortable</t>
+  </si>
+  <si>
+    <t>very comfortable</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
+    <t>Somewhat comfortable</t>
+  </si>
+  <si>
+    <t>Identifying strategies for prevention of mother-to-child transmission of HIV in a mother present-ing late in pregnancy with a high viral load</t>
+  </si>
+  <si>
+    <t>Caring for a child with HIV as part of an interprofessional team.</t>
+  </si>
+  <si>
+    <t>Mean Score+-SD</t>
+  </si>
+  <si>
+    <t>Median Score</t>
+  </si>
+  <si>
+    <t>Providing contraception options for women with HIV</t>
+  </si>
+  <si>
+    <t>Recognizing the roles of different health care providers in caring for the unique needs of mothers and new-borns related to HIV</t>
+  </si>
+  <si>
+    <t>Identifying strate-gies for prevention of mother-to-child transmission of HIV in a mother presenting late in pregnan-cy with a high viral load</t>
+  </si>
+  <si>
+    <t>Identifying appropriate ART regimens during pregnancy to prevent moth-er-to-children transmission of HIV</t>
+  </si>
+  <si>
+    <t>Modules 1, 3, 4 &amp; 17 - Multiple Choice</t>
   </si>
 </sst>
 </file>
@@ -319,7 +361,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -531,11 +573,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -734,6 +798,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
@@ -769,6 +893,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -787,77 +926,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1147,52 +1268,52 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="37.85546875" customWidth="1"/>
-    <col min="10" max="10" width="9.140625" style="48"/>
+    <col min="1" max="2" width="37.81640625" customWidth="1"/>
+    <col min="10" max="10" width="9.1796875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
-      <c r="I1" s="74"/>
-      <c r="J1" s="74"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="70" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="94"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="94"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="95"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="71"/>
-      <c r="E3" s="72" t="s">
+      <c r="D3" s="91"/>
+      <c r="E3" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="73"/>
-      <c r="G3" s="72" t="s">
+      <c r="F3" s="93"/>
+      <c r="G3" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="71" t="s">
+      <c r="H3" s="93"/>
+      <c r="I3" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="73"/>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="69"/>
+      <c r="J3" s="93"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="95"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="21"/>
       <c r="D4" s="1"/>
       <c r="E4" s="17"/>
@@ -1202,7 +1323,7 @@
       <c r="I4" s="1"/>
       <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -1230,8 +1351,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="87" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1265,8 +1386,8 @@
       </c>
       <c r="L6" s="10"/>
     </row>
-    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
+    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="96"/>
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1298,8 +1419,8 @@
       </c>
       <c r="L7" s="10"/>
     </row>
-    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
+    <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="96"/>
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
@@ -1330,8 +1451,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+    <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="96"/>
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
@@ -1363,8 +1484,8 @@
       </c>
       <c r="L9" s="10"/>
     </row>
-    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
+    <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="96"/>
       <c r="B10" s="7" t="s">
         <v>10</v>
       </c>
@@ -1396,8 +1517,8 @@
       </c>
       <c r="L10" s="10"/>
     </row>
-    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
+    <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="96"/>
       <c r="B11" s="7" t="s">
         <v>42</v>
       </c>
@@ -1429,7 +1550,7 @@
       </c>
       <c r="L11" s="10"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="19"/>
@@ -1441,8 +1562,8 @@
       <c r="I12" s="11"/>
       <c r="J12" s="13"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="67" t="s">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="87" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1476,8 +1597,8 @@
       </c>
       <c r="L13" s="10"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="88"/>
       <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
@@ -1509,7 +1630,7 @@
       </c>
       <c r="L14" s="10"/>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="19"/>
@@ -1522,8 +1643,8 @@
       <c r="J15" s="13"/>
       <c r="L15" s="10"/>
     </row>
-    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="87" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1557,8 +1678,8 @@
       </c>
       <c r="L16" s="10"/>
     </row>
-    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
+    <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="88"/>
       <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
@@ -1589,8 +1710,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68"/>
+    <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="88"/>
       <c r="B18" s="7" t="s">
         <v>14</v>
       </c>
@@ -1622,8 +1743,8 @@
       </c>
       <c r="L18" s="10"/>
     </row>
-    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
+    <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="88"/>
       <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
@@ -1655,8 +1776,8 @@
       </c>
       <c r="L19" s="10"/>
     </row>
-    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
+    <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="88"/>
       <c r="B20" s="7" t="s">
         <v>15</v>
       </c>
@@ -1687,7 +1808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="9"/>
       <c r="B21" s="9"/>
       <c r="C21" s="20"/>
@@ -1722,45 +1843,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="37.85546875" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="48"/>
+    <col min="1" max="2" width="37.81640625" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="94" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="78"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="98"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="54"/>
       <c r="B2" s="55"/>
       <c r="C2" s="55"/>
       <c r="D2" s="56"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="69"/>
-      <c r="C3" s="71" t="s">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="95"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="91" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="73"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
-      <c r="B4" s="69"/>
+      <c r="D3" s="93"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="95"/>
+      <c r="B4" s="89"/>
       <c r="C4" s="1"/>
       <c r="D4" s="18"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="3" t="s">
@@ -1770,8 +1891,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="87" t="s">
         <v>43</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1784,8 +1905,8 @@
         <v>0.36609999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="68"/>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="88"/>
       <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
@@ -1796,8 +1917,8 @@
         <v>0.51790000000000003</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="79"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="99"/>
       <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1808,8 +1929,8 @@
         <v>0.11609999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="79"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="99"/>
       <c r="B9" s="29"/>
       <c r="C9" s="60">
         <f>SUM(C6:C8)</f>
@@ -1820,14 +1941,14 @@
         <v>1.0001</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="65"/>
       <c r="D10" s="64"/>
     </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="87" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1841,8 +1962,8 @@
       </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="96"/>
       <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
@@ -1854,8 +1975,8 @@
       </c>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="96"/>
       <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
@@ -1866,8 +1987,8 @@
         <v>8.0399999999999999E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
+    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="96"/>
       <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
@@ -1879,8 +2000,8 @@
       </c>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
+    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="96"/>
       <c r="B15" s="7" t="s">
         <v>10</v>
       </c>
@@ -1892,8 +2013,8 @@
       </c>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
+    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="96"/>
       <c r="B16" s="8" t="s">
         <v>11</v>
       </c>
@@ -1905,7 +2026,7 @@
       </c>
       <c r="F16" s="10"/>
     </row>
-    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="30"/>
       <c r="B17" s="8"/>
       <c r="C17" s="60">
@@ -1918,14 +2039,14 @@
       </c>
       <c r="F17" s="10"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="19"/>
       <c r="D18" s="33"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="67" t="s">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="87" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1939,8 +2060,8 @@
       </c>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="68"/>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="88"/>
       <c r="B20" s="7" t="s">
         <v>20</v>
       </c>
@@ -1952,7 +2073,7 @@
       </c>
       <c r="F20" s="10"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="31"/>
       <c r="B21" s="7"/>
       <c r="C21" s="60">
@@ -1965,15 +2086,15 @@
       </c>
       <c r="F21" s="10"/>
     </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="19"/>
       <c r="D22" s="33"/>
       <c r="F22" s="10"/>
     </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="67" t="s">
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="87" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1987,8 +2108,8 @@
       </c>
       <c r="F23" s="10"/>
     </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="68"/>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="88"/>
       <c r="B24" s="7" t="s">
         <v>13</v>
       </c>
@@ -2000,8 +2121,8 @@
       </c>
       <c r="F24" s="10"/>
     </row>
-    <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="68"/>
+    <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="88"/>
       <c r="B25" s="7" t="s">
         <v>14</v>
       </c>
@@ -2013,8 +2134,8 @@
       </c>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="68"/>
+    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="88"/>
       <c r="B26" s="7" t="s">
         <v>16</v>
       </c>
@@ -2026,8 +2147,8 @@
       </c>
       <c r="F26" s="10"/>
     </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="68"/>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="88"/>
       <c r="B27" s="7" t="s">
         <v>15</v>
       </c>
@@ -2038,7 +2159,7 @@
         <v>7.1400000000000005E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="61">
@@ -2069,179 +2190,524 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="15.36328125" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="11.90625" customWidth="1"/>
+    <col min="10" max="10" width="13.1796875" customWidth="1"/>
+    <col min="11" max="11" width="12.90625" customWidth="1"/>
+    <col min="13" max="13" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-    </row>
-    <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
-      <c r="B3" s="92" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="93"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="96" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="96" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
-      <c r="B4" s="98" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="95" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="95" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="97"/>
-      <c r="F4" s="97"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="B5" s="99">
-        <v>27</v>
-      </c>
-      <c r="C5" s="87">
-        <v>7</v>
-      </c>
-      <c r="D5" s="87">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="94" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="105">
-        <v>3.4630000000000001</v>
-      </c>
-      <c r="F5" s="102">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="H5" s="10"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
-      <c r="B6" s="100"/>
-      <c r="C6" s="89"/>
-      <c r="D6" s="88"/>
-      <c r="E6" s="106"/>
-      <c r="F6" s="103"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B7" s="99">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="129"/>
+      <c r="I1" s="129"/>
+      <c r="J1" s="129"/>
+      <c r="K1" s="129"/>
+      <c r="L1" s="129"/>
+      <c r="M1" s="129"/>
+      <c r="N1" s="129"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="68"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C3" s="124" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="126"/>
+      <c r="H3" s="127" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="124"/>
+      <c r="J3" s="124"/>
+      <c r="K3" s="124"/>
+      <c r="L3" s="124"/>
+    </row>
+    <row r="4" spans="1:14" s="112" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="E4" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="F4" s="113" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="113" t="s">
+        <v>83</v>
+      </c>
+      <c r="I4" s="113" t="s">
+        <v>84</v>
+      </c>
+      <c r="J4" s="113" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="113" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="113" t="s">
+        <v>82</v>
+      </c>
+      <c r="M4" s="128" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4" s="128" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="87" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="118"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="118"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="120"/>
+    </row>
+    <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="96"/>
+      <c r="B6" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="114"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="114"/>
+      <c r="I6" s="86"/>
+      <c r="J6" s="86"/>
+      <c r="K6" s="86"/>
+      <c r="L6" s="35"/>
+    </row>
+    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="96"/>
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="114"/>
+      <c r="D7" s="86"/>
+      <c r="E7" s="86"/>
+      <c r="F7" s="86"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="114"/>
+      <c r="I7" s="86"/>
+      <c r="J7" s="86"/>
+      <c r="K7" s="86"/>
+      <c r="L7" s="35"/>
+    </row>
+    <row r="8" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="96"/>
+      <c r="B8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="114"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="114"/>
+      <c r="I8" s="86"/>
+      <c r="J8" s="86"/>
+      <c r="K8" s="86"/>
+      <c r="L8" s="35"/>
+    </row>
+    <row r="9" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="96"/>
+      <c r="B9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="114"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="86"/>
+      <c r="L9" s="35"/>
+    </row>
+    <row r="10" spans="1:14" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="96"/>
+      <c r="B10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="114"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="35"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="86"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="86"/>
+      <c r="L10" s="35"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="37"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A12" s="87" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="114"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="35"/>
+      <c r="H12" s="114"/>
+      <c r="I12" s="86"/>
+      <c r="J12" s="86"/>
+      <c r="K12" s="86"/>
+      <c r="L12" s="35"/>
+    </row>
+    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="87"/>
+      <c r="B13" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="114"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="35"/>
+      <c r="H13" s="114"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+      <c r="K13" s="86"/>
+      <c r="L13" s="35"/>
+    </row>
+    <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="87"/>
+      <c r="B14" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="114"/>
+      <c r="D14" s="86"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="114"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="35"/>
+    </row>
+    <row r="15" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="87"/>
+      <c r="B15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="114"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="114"/>
+      <c r="I15" s="86"/>
+      <c r="J15" s="86"/>
+      <c r="K15" s="86"/>
+      <c r="L15" s="35"/>
+    </row>
+    <row r="16" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="87"/>
+      <c r="B16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="114"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="35"/>
+      <c r="H16" s="114"/>
+      <c r="I16" s="86"/>
+      <c r="J16" s="86"/>
+      <c r="K16" s="86"/>
+      <c r="L16" s="35"/>
+    </row>
+    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="116"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="116"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="37"/>
+    </row>
+    <row r="18" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="114"/>
+      <c r="D18" s="86"/>
+      <c r="E18" s="86"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="35"/>
+      <c r="H18" s="114"/>
+      <c r="I18" s="86"/>
+      <c r="J18" s="86"/>
+      <c r="K18" s="86"/>
+      <c r="L18" s="35"/>
+    </row>
+    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="88"/>
+      <c r="B19" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="114"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="114"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="86"/>
+      <c r="L19" s="35"/>
+    </row>
+    <row r="20" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="88"/>
+      <c r="B20" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="114"/>
+      <c r="D20" s="86"/>
+      <c r="E20" s="86"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="114"/>
+      <c r="I20" s="86"/>
+      <c r="J20" s="86"/>
+      <c r="K20" s="86"/>
+      <c r="L20" s="35"/>
+    </row>
+    <row r="21" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="88"/>
+      <c r="B21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="114"/>
+      <c r="D21" s="86"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="114"/>
+      <c r="I21" s="86"/>
+      <c r="J21" s="86"/>
+      <c r="K21" s="86"/>
+      <c r="L21" s="35"/>
+    </row>
+    <row r="22" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="88"/>
+      <c r="B22" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="114"/>
+      <c r="D22" s="86"/>
+      <c r="E22" s="86"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="114"/>
+      <c r="I22" s="86"/>
+      <c r="J22" s="86"/>
+      <c r="K22" s="86"/>
+      <c r="L22" s="35"/>
+    </row>
+    <row r="23" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="88"/>
+      <c r="B23" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="114"/>
+      <c r="D23" s="86"/>
+      <c r="E23" s="86"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="114"/>
+      <c r="I23" s="86"/>
+      <c r="J23" s="86"/>
+      <c r="K23" s="86"/>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="116"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="116"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="37"/>
+    </row>
+    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="121" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="114"/>
+      <c r="D25" s="86"/>
+      <c r="E25" s="86"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="86"/>
+      <c r="J25" s="86"/>
+      <c r="K25" s="86"/>
+      <c r="L25" s="35"/>
+    </row>
+    <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="122"/>
+      <c r="B26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="87">
-        <v>13</v>
-      </c>
-      <c r="D7" s="87">
-        <v>25</v>
-      </c>
-      <c r="E7" s="105">
-        <v>6.9089999999999998</v>
-      </c>
-      <c r="F7" s="102">
-        <v>0</v>
-      </c>
-      <c r="H7" s="10"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="100"/>
-      <c r="C8" s="89"/>
-      <c r="D8" s="88"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="103"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B9" s="99">
-        <v>41</v>
-      </c>
-      <c r="C9" s="87">
-        <v>10</v>
-      </c>
-      <c r="D9" s="87">
-        <v>61</v>
-      </c>
-      <c r="E9" s="105">
-        <v>4.3789999999999996</v>
-      </c>
-      <c r="F9" s="102">
-        <v>0</v>
-      </c>
-      <c r="H9" s="10"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="103"/>
-      <c r="H10" s="10"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="99">
-        <v>79</v>
-      </c>
-      <c r="C11" s="87">
-        <v>6</v>
-      </c>
-      <c r="D11" s="87">
-        <v>27</v>
-      </c>
-      <c r="E11" s="105">
-        <v>7.8230000000000004</v>
-      </c>
-      <c r="F11" s="102">
-        <v>0</v>
-      </c>
-      <c r="H11" s="10"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
-      <c r="B12" s="101"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="90"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="104"/>
-      <c r="H12" s="10"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="86"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="86"/>
+      <c r="J26" s="86"/>
+      <c r="K26" s="86"/>
+      <c r="L26" s="35"/>
+    </row>
+    <row r="27" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="122"/>
+      <c r="B27" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="114"/>
+      <c r="D27" s="86"/>
+      <c r="E27" s="86"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="114"/>
+      <c r="I27" s="86"/>
+      <c r="J27" s="86"/>
+      <c r="K27" s="86"/>
+      <c r="L27" s="35"/>
+    </row>
+    <row r="28" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="122"/>
+      <c r="B28" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C28" s="114"/>
+      <c r="D28" s="86"/>
+      <c r="E28" s="86"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="114"/>
+      <c r="I28" s="86"/>
+      <c r="J28" s="86"/>
+      <c r="K28" s="86"/>
+      <c r="L28" s="35"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A29" s="123"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="117"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="39"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
+  <mergeCells count="7">
+    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A5:A10"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A18:A23"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="C3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2252,553 +2718,553 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="73.5703125" customWidth="1"/>
+    <col min="2" max="2" width="73.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-    </row>
-    <row r="3" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A1" s="94" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+    </row>
+    <row r="3" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="59"/>
       <c r="B3" s="58"/>
-      <c r="C3" s="92" t="s">
+      <c r="C3" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="96" t="s">
+      <c r="D3" s="101"/>
+      <c r="E3" s="102"/>
+      <c r="F3" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="96" t="s">
+      <c r="G3" s="103" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
       <c r="B4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="98" t="s">
+      <c r="C4" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="D4" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="E4" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
+      <c r="F4" s="104"/>
+      <c r="G4" s="104"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="87" t="s">
         <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="75">
+        <v>60</v>
+      </c>
+      <c r="D5" s="69">
+        <v>16</v>
+      </c>
+      <c r="E5" s="69">
+        <v>36</v>
+      </c>
+      <c r="F5" s="81">
+        <v>5.2750000000000004</v>
+      </c>
+      <c r="G5" s="78">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="96"/>
+      <c r="B6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="75">
+        <v>72</v>
+      </c>
+      <c r="D6" s="69">
+        <v>9</v>
+      </c>
+      <c r="E6" s="69">
+        <v>31</v>
+      </c>
+      <c r="F6" s="81">
+        <v>7.1660000000000004</v>
+      </c>
+      <c r="G6" s="78">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="96"/>
+      <c r="B7" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="75">
+        <v>52</v>
+      </c>
+      <c r="D7" s="69">
+        <v>12</v>
+      </c>
+      <c r="E7" s="69">
+        <v>48</v>
+      </c>
+      <c r="F7" s="81">
+        <v>5.0090000000000003</v>
+      </c>
+      <c r="G7" s="78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="96"/>
+      <c r="B8" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="75">
+        <v>60</v>
+      </c>
+      <c r="D8" s="69">
+        <v>10</v>
+      </c>
+      <c r="E8" s="69">
+        <v>42</v>
+      </c>
+      <c r="F8" s="81">
+        <v>5.7110000000000003</v>
+      </c>
+      <c r="G8" s="78">
+        <v>0</v>
+      </c>
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="96"/>
+      <c r="B9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="75">
         <v>58</v>
       </c>
-      <c r="C5" s="99">
+      <c r="D9" s="69">
+        <v>14</v>
+      </c>
+      <c r="E9" s="69">
+        <v>40</v>
+      </c>
+      <c r="F9" s="81">
+        <v>5.2430000000000003</v>
+      </c>
+      <c r="G9" s="78">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="96"/>
+      <c r="B10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="75">
+        <v>39</v>
+      </c>
+      <c r="D10" s="69">
+        <v>13</v>
+      </c>
+      <c r="E10" s="69">
         <v>60</v>
       </c>
-      <c r="D5" s="87">
-        <v>16</v>
-      </c>
-      <c r="E5" s="87">
-        <v>36</v>
-      </c>
-      <c r="F5" s="105">
-        <v>5.2750000000000004</v>
-      </c>
-      <c r="G5" s="102">
-        <v>0</v>
-      </c>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="99">
-        <v>72</v>
-      </c>
-      <c r="D6" s="87">
-        <v>9</v>
-      </c>
-      <c r="E6" s="87">
-        <v>31</v>
-      </c>
-      <c r="F6" s="105">
-        <v>7.1660000000000004</v>
-      </c>
-      <c r="G6" s="102">
-        <v>0</v>
-      </c>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
-      <c r="B7" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C7" s="99">
-        <v>52</v>
-      </c>
-      <c r="D7" s="87">
-        <v>12</v>
-      </c>
-      <c r="E7" s="87">
-        <v>48</v>
-      </c>
-      <c r="F7" s="105">
-        <v>5.0090000000000003</v>
-      </c>
-      <c r="G7" s="102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
-      <c r="B8" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="99">
-        <v>60</v>
-      </c>
-      <c r="D8" s="87">
-        <v>10</v>
-      </c>
-      <c r="E8" s="87">
-        <v>42</v>
-      </c>
-      <c r="F8" s="105">
-        <v>5.7110000000000003</v>
-      </c>
-      <c r="G8" s="102">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
-      <c r="B9" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="99">
-        <v>58</v>
-      </c>
-      <c r="D9" s="87">
-        <v>14</v>
-      </c>
-      <c r="E9" s="87">
-        <v>40</v>
-      </c>
-      <c r="F9" s="105">
-        <v>5.2430000000000003</v>
-      </c>
-      <c r="G9" s="102">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" s="99">
-        <v>39</v>
-      </c>
-      <c r="D10" s="87">
-        <v>13</v>
-      </c>
-      <c r="E10" s="87">
-        <v>60</v>
-      </c>
-      <c r="F10" s="105">
+      <c r="F10" s="81">
         <v>3.3239999999999998</v>
       </c>
-      <c r="G10" s="102">
+      <c r="G10" s="78">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="I10" s="10"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="103"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+      <c r="C11" s="76"/>
+      <c r="D11" s="71"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="79"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12" s="87" t="s">
         <v>28</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="75">
+        <v>68</v>
+      </c>
+      <c r="D12" s="69">
+        <v>5</v>
+      </c>
+      <c r="E12" s="69">
+        <v>39</v>
+      </c>
+      <c r="F12" s="81">
+        <v>7.2619999999999996</v>
+      </c>
+      <c r="G12" s="78">
+        <v>0</v>
+      </c>
+      <c r="I12" s="10"/>
+    </row>
+    <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="87"/>
+      <c r="B13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="99">
-        <v>68</v>
-      </c>
-      <c r="D12" s="87">
-        <v>5</v>
-      </c>
-      <c r="E12" s="87">
-        <v>39</v>
-      </c>
-      <c r="F12" s="105">
-        <v>7.2619999999999996</v>
-      </c>
-      <c r="G12" s="102">
-        <v>0</v>
-      </c>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="67"/>
-      <c r="B13" s="7" t="s">
+      <c r="C13" s="75">
+        <v>79</v>
+      </c>
+      <c r="D13" s="69">
+        <v>6</v>
+      </c>
+      <c r="E13" s="69">
+        <v>27</v>
+      </c>
+      <c r="F13" s="81">
+        <v>7.8490000000000002</v>
+      </c>
+      <c r="G13" s="78">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14" s="87"/>
+      <c r="B14" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="C13" s="99">
-        <v>79</v>
-      </c>
-      <c r="D13" s="87">
+      <c r="C14" s="75">
+        <v>72</v>
+      </c>
+      <c r="D14" s="69">
+        <v>8</v>
+      </c>
+      <c r="E14" s="69">
+        <v>32</v>
+      </c>
+      <c r="F14" s="81">
+        <v>7.0839999999999996</v>
+      </c>
+      <c r="G14" s="78">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10"/>
+    </row>
+    <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="87"/>
+      <c r="B15" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="75">
+        <v>61</v>
+      </c>
+      <c r="D15" s="69">
         <v>6</v>
       </c>
-      <c r="E13" s="87">
-        <v>27</v>
-      </c>
-      <c r="F13" s="105">
-        <v>7.8490000000000002</v>
-      </c>
-      <c r="G13" s="102">
-        <v>0</v>
-      </c>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="67"/>
-      <c r="B14" s="7" t="s">
+      <c r="E15" s="69">
+        <v>45</v>
+      </c>
+      <c r="F15" s="81">
+        <v>6.5030000000000001</v>
+      </c>
+      <c r="G15" s="78">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="87"/>
+      <c r="B16" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="75">
+        <v>34</v>
+      </c>
+      <c r="D16" s="69">
+        <v>11</v>
+      </c>
+      <c r="E16" s="69">
         <v>66</v>
       </c>
-      <c r="C14" s="99">
-        <v>72</v>
-      </c>
-      <c r="D14" s="87">
-        <v>8</v>
-      </c>
-      <c r="E14" s="87">
-        <v>32</v>
-      </c>
-      <c r="F14" s="105">
-        <v>7.0839999999999996</v>
-      </c>
-      <c r="G14" s="102">
-        <v>0</v>
-      </c>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="67"/>
-      <c r="B15" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="99">
-        <v>61</v>
-      </c>
-      <c r="D15" s="87">
-        <v>6</v>
-      </c>
-      <c r="E15" s="87">
-        <v>45</v>
-      </c>
-      <c r="F15" s="105">
-        <v>6.5030000000000001</v>
-      </c>
-      <c r="G15" s="102">
-        <v>0</v>
-      </c>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="67"/>
-      <c r="B16" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="99">
-        <v>34</v>
-      </c>
-      <c r="D16" s="87">
-        <v>11</v>
-      </c>
-      <c r="E16" s="87">
-        <v>66</v>
-      </c>
-      <c r="F16" s="105">
+      <c r="F16" s="81">
         <v>3.234</v>
       </c>
-      <c r="G16" s="102">
+      <c r="G16" s="78">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="I16" s="10"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="89"/>
-      <c r="E17" s="88"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="103"/>
+      <c r="C17" s="76"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="79"/>
       <c r="I17" s="10"/>
     </row>
-    <row r="18" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="67" t="s">
+    <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="87" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="75">
+        <v>63</v>
+      </c>
+      <c r="D18" s="69">
+        <v>9</v>
+      </c>
+      <c r="E18" s="69">
+        <v>40</v>
+      </c>
+      <c r="F18" s="81">
+        <v>6.407</v>
+      </c>
+      <c r="G18" s="78">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="87"/>
+      <c r="B19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="75">
+        <v>62</v>
+      </c>
+      <c r="D19" s="69">
+        <v>9</v>
+      </c>
+      <c r="E19" s="69">
+        <v>41</v>
+      </c>
+      <c r="F19" s="81">
+        <v>6.2409999999999997</v>
+      </c>
+      <c r="G19" s="78">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="87"/>
+      <c r="B20" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="75">
+        <v>66</v>
+      </c>
+      <c r="D20" s="69">
+        <v>10</v>
+      </c>
+      <c r="E20" s="69">
+        <v>36</v>
+      </c>
+      <c r="F20" s="81">
+        <v>6.4619999999999997</v>
+      </c>
+      <c r="G20" s="78">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="87"/>
+      <c r="B21" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="99">
-        <v>63</v>
-      </c>
-      <c r="D18" s="87">
-        <v>9</v>
-      </c>
-      <c r="E18" s="87">
-        <v>40</v>
-      </c>
-      <c r="F18" s="105">
-        <v>6.407</v>
-      </c>
-      <c r="G18" s="102">
-        <v>0</v>
-      </c>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="67"/>
-      <c r="B19" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C19" s="99">
-        <v>62</v>
-      </c>
-      <c r="D19" s="87">
-        <v>9</v>
-      </c>
-      <c r="E19" s="87">
-        <v>41</v>
-      </c>
-      <c r="F19" s="105">
-        <v>6.2409999999999997</v>
-      </c>
-      <c r="G19" s="102">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="67"/>
-      <c r="B20" s="7" t="s">
+      <c r="C21" s="75">
+        <v>54</v>
+      </c>
+      <c r="D21" s="69">
+        <v>11</v>
+      </c>
+      <c r="E21" s="69">
+        <v>47</v>
+      </c>
+      <c r="F21" s="81">
+        <v>5.0659999999999998</v>
+      </c>
+      <c r="G21" s="78">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="87"/>
+      <c r="B22" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="C20" s="99">
-        <v>66</v>
-      </c>
-      <c r="D20" s="87">
+      <c r="C22" s="75">
+        <v>81</v>
+      </c>
+      <c r="D22" s="69">
         <v>10</v>
       </c>
-      <c r="E20" s="87">
-        <v>36</v>
-      </c>
-      <c r="F20" s="105">
-        <v>6.4619999999999997</v>
-      </c>
-      <c r="G20" s="102">
-        <v>0</v>
-      </c>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
-      <c r="B21" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C21" s="99">
-        <v>54</v>
-      </c>
-      <c r="D21" s="87">
+      <c r="E22" s="69">
+        <v>21</v>
+      </c>
+      <c r="F22" s="81">
+        <v>7.6749999999999998</v>
+      </c>
+      <c r="G22" s="78">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="87"/>
+      <c r="B23" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="C23" s="75">
+        <v>29</v>
+      </c>
+      <c r="D23" s="69">
         <v>11</v>
       </c>
-      <c r="E21" s="87">
-        <v>47</v>
-      </c>
-      <c r="F21" s="105">
-        <v>5.0659999999999998</v>
-      </c>
-      <c r="G21" s="102">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="67"/>
-      <c r="B22" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C22" s="99">
-        <v>81</v>
-      </c>
-      <c r="D22" s="87">
-        <v>10</v>
-      </c>
-      <c r="E22" s="87">
-        <v>21</v>
-      </c>
-      <c r="F22" s="105">
-        <v>7.6749999999999998</v>
-      </c>
-      <c r="G22" s="102">
-        <v>0</v>
-      </c>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="67"/>
-      <c r="B23" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C23" s="99">
-        <v>29</v>
-      </c>
-      <c r="D23" s="87">
-        <v>11</v>
-      </c>
-      <c r="E23" s="87">
+      <c r="E23" s="69">
         <v>71</v>
       </c>
-      <c r="F23" s="105">
+      <c r="F23" s="81">
         <v>2.7770000000000001</v>
       </c>
-      <c r="G23" s="102">
+      <c r="G23" s="78">
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="I23" s="10"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="89"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="103"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="71"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="82"/>
+      <c r="G24" s="79"/>
       <c r="I24" s="10"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="67" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A25" s="87" t="s">
         <v>30</v>
       </c>
       <c r="B25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="75">
+        <v>71</v>
+      </c>
+      <c r="D25" s="69">
+        <v>10</v>
+      </c>
+      <c r="E25" s="69">
+        <v>31</v>
+      </c>
+      <c r="F25" s="81">
+        <v>6.8680000000000003</v>
+      </c>
+      <c r="G25" s="78">
+        <v>0</v>
+      </c>
+      <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A26" s="87"/>
+      <c r="B26" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" s="75">
+        <v>69</v>
+      </c>
+      <c r="D26" s="69">
+        <v>10</v>
+      </c>
+      <c r="E26" s="69">
+        <v>33</v>
+      </c>
+      <c r="F26" s="81">
+        <v>6.423</v>
+      </c>
+      <c r="G26" s="78">
+        <v>0</v>
+      </c>
+      <c r="I26" s="10"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A27" s="87"/>
+      <c r="B27" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="99">
-        <v>71</v>
-      </c>
-      <c r="D25" s="87">
-        <v>10</v>
-      </c>
-      <c r="E25" s="87">
+      <c r="C27" s="75">
+        <v>60</v>
+      </c>
+      <c r="D27" s="69">
+        <v>21</v>
+      </c>
+      <c r="E27" s="69">
         <v>31</v>
       </c>
-      <c r="F25" s="105">
-        <v>6.8680000000000003</v>
-      </c>
-      <c r="G25" s="102">
-        <v>0</v>
-      </c>
-      <c r="I25" s="10"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="67"/>
-      <c r="B26" s="7" t="s">
+      <c r="F27" s="81">
+        <v>4.452</v>
+      </c>
+      <c r="G27" s="78">
+        <v>0</v>
+      </c>
+      <c r="I27" s="10"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A28" s="87"/>
+      <c r="B28" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="C26" s="99">
-        <v>69</v>
-      </c>
-      <c r="D26" s="87">
-        <v>10</v>
-      </c>
-      <c r="E26" s="87">
-        <v>33</v>
-      </c>
-      <c r="F26" s="105">
-        <v>6.423</v>
-      </c>
-      <c r="G26" s="102">
-        <v>0</v>
-      </c>
-      <c r="I26" s="10"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="67"/>
-      <c r="B27" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C27" s="99">
-        <v>60</v>
-      </c>
-      <c r="D27" s="87">
-        <v>21</v>
-      </c>
-      <c r="E27" s="87">
-        <v>31</v>
-      </c>
-      <c r="F27" s="105">
-        <v>4.452</v>
-      </c>
-      <c r="G27" s="102">
-        <v>0</v>
-      </c>
-      <c r="I27" s="10"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="67"/>
-      <c r="B28" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="99">
+      <c r="C28" s="75">
         <v>57</v>
       </c>
-      <c r="D28" s="87">
+      <c r="D28" s="69">
         <v>14</v>
       </c>
-      <c r="E28" s="87">
+      <c r="E28" s="69">
         <v>41</v>
       </c>
-      <c r="F28" s="105">
+      <c r="F28" s="81">
         <v>5.3719999999999999</v>
       </c>
-      <c r="G28" s="102">
+      <c r="G28" s="78">
         <v>0</v>
       </c>
       <c r="I28" s="10"/>
@@ -2821,184 +3287,199 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B10"/>
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="37.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="74" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-    </row>
-    <row r="3" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+    </row>
+    <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="59"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="92" t="s">
+      <c r="B3" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="96" t="s">
+      <c r="C3" s="101"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="103" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="96" t="s">
+      <c r="F3" s="103" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="98" t="s">
+      <c r="B4" s="74" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="95" t="s">
+      <c r="C4" s="73" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="95" t="s">
+      <c r="D4" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="97"/>
-      <c r="G4" s="97"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="87"/>
-      <c r="E6" s="87"/>
-      <c r="F6" s="87"/>
-      <c r="G6" s="87"/>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
-      <c r="F7" s="87"/>
-      <c r="G7" s="87"/>
-    </row>
-    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="87"/>
-      <c r="E8" s="87"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="87"/>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="87"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="87"/>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="87"/>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="89"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="67" t="s">
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="87"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="87"/>
-      <c r="I12" s="10"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
-      <c r="B13" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="I13" s="10"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="89"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="88"/>
-      <c r="G14" s="89"/>
-      <c r="I14" s="10"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="9"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="90"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="91"/>
-      <c r="I15" s="10"/>
+      <c r="B5" s="75">
+        <v>27</v>
+      </c>
+      <c r="C5" s="69">
+        <v>7</v>
+      </c>
+      <c r="D5" s="69">
+        <v>79</v>
+      </c>
+      <c r="E5" s="81">
+        <v>3.4630000000000001</v>
+      </c>
+      <c r="F5" s="78">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="76"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="79"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="75">
+        <v>74</v>
+      </c>
+      <c r="C7" s="69">
+        <v>13</v>
+      </c>
+      <c r="D7" s="69">
+        <v>25</v>
+      </c>
+      <c r="E7" s="81">
+        <v>6.9089999999999998</v>
+      </c>
+      <c r="F7" s="78">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="70"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="79"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="75">
+        <v>41</v>
+      </c>
+      <c r="C9" s="69">
+        <v>10</v>
+      </c>
+      <c r="D9" s="69">
+        <v>61</v>
+      </c>
+      <c r="E9" s="81">
+        <v>4.3789999999999996</v>
+      </c>
+      <c r="F9" s="78">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="76"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="79"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="75">
+        <v>79</v>
+      </c>
+      <c r="C11" s="69">
+        <v>6</v>
+      </c>
+      <c r="D11" s="69">
+        <v>27</v>
+      </c>
+      <c r="E11" s="81">
+        <v>7.8230000000000004</v>
+      </c>
+      <c r="F11" s="78">
+        <v>0</v>
+      </c>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="76"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="70"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="79"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="75"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="78"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="9"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="80"/>
+      <c r="H14" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C3:E3"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="E3:E4"/>
     <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3009,44 +3490,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.85546875" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37.81640625" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+    <row r="2" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="105" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="82" t="s">
+      <c r="B2" s="106"/>
+      <c r="C2" s="106"/>
+      <c r="D2" s="106"/>
+      <c r="E2" s="106"/>
+      <c r="F2" s="106"/>
+      <c r="G2" s="106"/>
+      <c r="H2" s="106"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="95"/>
+      <c r="B3" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="82"/>
-      <c r="D3" s="82" t="s">
+      <c r="C3" s="107"/>
+      <c r="D3" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="82"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
+      <c r="E3" s="107"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
       <c r="H3" s="1"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="95"/>
       <c r="B4" s="21"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3055,7 +3536,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="49" t="s">
         <v>37</v>
       </c>
@@ -3081,7 +3562,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>1</v>
       </c>
@@ -3100,13 +3581,13 @@
       <c r="F6" s="42">
         <v>5.13</v>
       </c>
-      <c r="G6" s="108">
+      <c r="G6" s="84">
         <v>3.7008999999999999</v>
       </c>
       <c r="H6" s="41"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>3</v>
       </c>
@@ -3116,22 +3597,22 @@
       <c r="C7" s="35">
         <v>23.89</v>
       </c>
-      <c r="D7" s="110">
+      <c r="D7" s="86">
         <v>77.92</v>
       </c>
       <c r="E7" s="35">
         <v>17.66</v>
       </c>
-      <c r="F7" s="110">
+      <c r="F7" s="86">
         <v>18.7</v>
       </c>
-      <c r="G7" s="108">
+      <c r="G7" s="84">
         <v>8.6056000000000008</v>
       </c>
       <c r="H7" s="41"/>
       <c r="J7" s="10"/>
     </row>
-    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>4</v>
       </c>
@@ -3141,7 +3622,7 @@
       <c r="C8" s="35">
         <v>15.68</v>
       </c>
-      <c r="D8" s="110">
+      <c r="D8" s="86">
         <v>87.5</v>
       </c>
       <c r="E8" s="35">
@@ -3150,12 +3631,12 @@
       <c r="F8" s="42">
         <v>7.58</v>
       </c>
-      <c r="G8" s="108">
+      <c r="G8" s="84">
         <v>4.8022999999999998</v>
       </c>
       <c r="H8" s="41"/>
     </row>
-    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>17</v>
       </c>
@@ -3165,22 +3646,22 @@
       <c r="C9" s="35">
         <v>22.93</v>
       </c>
-      <c r="D9" s="110">
+      <c r="D9" s="86">
         <v>65.84</v>
       </c>
       <c r="E9" s="35">
         <v>23.72</v>
       </c>
-      <c r="F9" s="110">
+      <c r="F9" s="86">
         <v>26.56</v>
       </c>
-      <c r="G9" s="108">
+      <c r="G9" s="84">
         <v>11.1661</v>
       </c>
       <c r="H9" s="41"/>
       <c r="J9" s="10"/>
     </row>
-    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
         <v>38</v>
       </c>
@@ -3189,18 +3670,18 @@
       <c r="D10" s="42"/>
       <c r="E10" s="43"/>
       <c r="F10" s="42"/>
-      <c r="G10" s="108"/>
+      <c r="G10" s="84"/>
       <c r="H10" s="41"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
       <c r="B11" s="44"/>
       <c r="C11" s="45"/>
       <c r="D11" s="46"/>
       <c r="E11" s="47"/>
       <c r="F11" s="46"/>
-      <c r="G11" s="109"/>
+      <c r="G11" s="85"/>
       <c r="H11" s="45"/>
       <c r="J11" s="10"/>
     </row>
@@ -3222,23 +3703,23 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="37.85546875" customWidth="1"/>
+    <col min="1" max="2" width="37.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="109" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="86"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="110"/>
+      <c r="C1" s="110"/>
+      <c r="D1" s="111"/>
+    </row>
+    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2"/>
       <c r="B2" s="28" t="s">
         <v>21</v>
@@ -3250,8 +3731,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="67" t="s">
+    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="87" t="s">
         <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -3265,8 +3746,8 @@
       </c>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
+    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="96"/>
       <c r="B4" s="7" t="s">
         <v>23</v>
       </c>
@@ -3278,8 +3759,8 @@
       </c>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="96"/>
       <c r="B5" s="7" t="s">
         <v>25</v>
       </c>
@@ -3291,14 +3772,14 @@
       </c>
       <c r="F5" s="10"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="36"/>
       <c r="D6" s="37"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="67" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="87" t="s">
         <v>28</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -3312,8 +3793,8 @@
       </c>
       <c r="F7" s="10"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="96"/>
       <c r="B8" s="7" t="s">
         <v>23</v>
       </c>
@@ -3325,8 +3806,8 @@
       </c>
       <c r="F8" s="10"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="96"/>
       <c r="B9" s="7" t="s">
         <v>25</v>
       </c>
@@ -3338,15 +3819,15 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="36"/>
       <c r="D10" s="37"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="67" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11" s="87" t="s">
         <v>29</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -3359,8 +3840,8 @@
         <v>15.68</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12" s="96"/>
       <c r="B12" s="7" t="s">
         <v>23</v>
       </c>
@@ -3371,8 +3852,8 @@
         <v>12.99</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="96"/>
       <c r="B13" s="7" t="s">
         <v>25</v>
       </c>
@@ -3383,14 +3864,14 @@
         <v>16.72</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="36"/>
       <c r="D14" s="37"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="67" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="87" t="s">
         <v>30</v>
       </c>
       <c r="B15" s="7" t="s">
@@ -3403,8 +3884,8 @@
         <v>22.93</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="96"/>
       <c r="B16" s="7" t="s">
         <v>23</v>
       </c>
@@ -3415,8 +3896,8 @@
         <v>23.72</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="96"/>
       <c r="B17" s="7" t="s">
         <v>25</v>
       </c>
@@ -3427,7 +3908,7 @@
         <v>25.17</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="9"/>
       <c r="B18" s="32"/>
       <c r="C18" s="38"/>

--- a/output/chips_analysis_tables.xlsx
+++ b/output/chips_analysis_tables.xlsx
@@ -9,16 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10610" firstSheet="3" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10610" firstSheet="8" activeTab="10"/>
   </bookViews>
   <sheets>
-    <sheet name="Respondent Charact Gender" sheetId="1" r:id="rId1"/>
-    <sheet name="Respondent Characteristics" sheetId="6" r:id="rId2"/>
+    <sheet name="Respondent Characteristics" sheetId="6" r:id="rId1"/>
+    <sheet name="Respondent Charact Gender" sheetId="1" r:id="rId2"/>
     <sheet name="Perceived Comfort Level" sheetId="11" r:id="rId3"/>
     <sheet name="Wilcox Ranked Test Competency" sheetId="9" r:id="rId4"/>
     <sheet name="Wilcox Ranked Test - Module" sheetId="8" r:id="rId5"/>
     <sheet name="Ttest Pretest Posttest" sheetId="5" r:id="rId6"/>
-    <sheet name="Increase in learning" sheetId="4" r:id="rId7"/>
+    <sheet name="Learner evaluation of module" sheetId="12" r:id="rId7"/>
+    <sheet name="Learner evaluation - effective " sheetId="13" r:id="rId8"/>
+    <sheet name="Learner evaluation - facilitato" sheetId="18" r:id="rId9"/>
+    <sheet name="Learner evaluation - knowledge" sheetId="19" r:id="rId10"/>
+    <sheet name="Encouragement of IPC and QI" sheetId="20" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="220">
   <si>
     <t>%</t>
   </si>
@@ -95,24 +99,9 @@
     <t>Pre service student</t>
   </si>
   <si>
-    <t>Characteristic</t>
-  </si>
-  <si>
     <t>Module 1</t>
   </si>
   <si>
-    <t>Post Test</t>
-  </si>
-  <si>
-    <t>Pre Test</t>
-  </si>
-  <si>
-    <t>Improvement</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>SD</t>
   </si>
   <si>
@@ -125,9 +114,6 @@
     <t>Module 17</t>
   </si>
   <si>
-    <t>Module Means and Standard Deviations (N=112)</t>
-  </si>
-  <si>
     <t>t</t>
   </si>
   <si>
@@ -144,9 +130,6 @@
   </si>
   <si>
     <t>Module</t>
-  </si>
-  <si>
-    <t>1, 3, 4, 17</t>
   </si>
   <si>
     <t>df</t>
@@ -270,9 +253,6 @@
     <t>Variable</t>
   </si>
   <si>
-    <t>Respondent Comfort  Leve (N=112)</t>
-  </si>
-  <si>
     <t>comfortable</t>
   </si>
   <si>
@@ -294,12 +274,6 @@
     <t>Caring for a child with HIV as part of an interprofessional team.</t>
   </si>
   <si>
-    <t>Mean Score+-SD</t>
-  </si>
-  <si>
-    <t>Median Score</t>
-  </si>
-  <si>
     <t>Providing contraception options for women with HIV</t>
   </si>
   <si>
@@ -313,6 +287,414 @@
   </si>
   <si>
     <t>Modules 1, 3, 4 &amp; 17 - Multiple Choice</t>
+  </si>
+  <si>
+    <t>1 - Multiple choice</t>
+  </si>
+  <si>
+    <t>3 - Multiple choice</t>
+  </si>
+  <si>
+    <t>4 - Multiple choice</t>
+  </si>
+  <si>
+    <t>17 - Multiple choice</t>
+  </si>
+  <si>
+    <t>1, 3, 4, 17 - Multiple choice</t>
+  </si>
+  <si>
+    <t>8 (7.14)</t>
+  </si>
+  <si>
+    <t>22 (19.64)</t>
+  </si>
+  <si>
+    <t>50 (44.64)</t>
+  </si>
+  <si>
+    <t>26 (23.21)</t>
+  </si>
+  <si>
+    <t>6 (5.36)</t>
+  </si>
+  <si>
+    <t>5 (4.46)</t>
+  </si>
+  <si>
+    <t>20 (17.86)</t>
+  </si>
+  <si>
+    <t>43 (38.39)</t>
+  </si>
+  <si>
+    <t>39 (34.82)</t>
+  </si>
+  <si>
+    <t>1 (0.89)</t>
+  </si>
+  <si>
+    <t>29 (25.89)</t>
+  </si>
+  <si>
+    <t>38 (33.93)</t>
+  </si>
+  <si>
+    <t>41 (36.61)</t>
+  </si>
+  <si>
+    <t>3 (2.68)</t>
+  </si>
+  <si>
+    <t>17 (15.18)</t>
+  </si>
+  <si>
+    <t>59 (52.68)</t>
+  </si>
+  <si>
+    <t>4 (3.57)</t>
+  </si>
+  <si>
+    <t>10 (8.93)</t>
+  </si>
+  <si>
+    <t>40 (35.71)</t>
+  </si>
+  <si>
+    <t>27 (24.11)</t>
+  </si>
+  <si>
+    <t>34 (30.36)</t>
+  </si>
+  <si>
+    <t>31 (27.68)</t>
+  </si>
+  <si>
+    <t>8 (7.21)</t>
+  </si>
+  <si>
+    <t>28 (25.23)</t>
+  </si>
+  <si>
+    <t>11 (9.91)</t>
+  </si>
+  <si>
+    <t>64 (57.66)</t>
+  </si>
+  <si>
+    <t>13 (11.61)</t>
+  </si>
+  <si>
+    <t>30 (26.79)</t>
+  </si>
+  <si>
+    <t>48 (42.86)</t>
+  </si>
+  <si>
+    <t>19 (16.96)</t>
+  </si>
+  <si>
+    <t>2 (1.79)</t>
+  </si>
+  <si>
+    <t>14 (12.50)</t>
+  </si>
+  <si>
+    <t>33 (29.46)</t>
+  </si>
+  <si>
+    <t>12 (10.71)</t>
+  </si>
+  <si>
+    <t>32 (28.57)</t>
+  </si>
+  <si>
+    <t>46 (41.07)</t>
+  </si>
+  <si>
+    <t>18 (16.07)</t>
+  </si>
+  <si>
+    <t>7 (6.25)</t>
+  </si>
+  <si>
+    <t>28 (25.00)</t>
+  </si>
+  <si>
+    <t>2 (1.80)</t>
+  </si>
+  <si>
+    <t>20 (18.02)</t>
+  </si>
+  <si>
+    <t>36 (32.43)</t>
+  </si>
+  <si>
+    <t>17 (15.32)</t>
+  </si>
+  <si>
+    <t>45 (40.18)</t>
+  </si>
+  <si>
+    <t>9 (8.04)</t>
+  </si>
+  <si>
+    <t>49 (43.75)</t>
+  </si>
+  <si>
+    <t>24 (21.43)</t>
+  </si>
+  <si>
+    <t>15 (13.51)</t>
+  </si>
+  <si>
+    <t>42 (37.84)</t>
+  </si>
+  <si>
+    <t>16 (14.41)</t>
+  </si>
+  <si>
+    <t>36 (32.14)</t>
+  </si>
+  <si>
+    <t>39 (32.84)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30 (26.79) </t>
+  </si>
+  <si>
+    <t>11 (9.82)</t>
+  </si>
+  <si>
+    <t>25 (22.32)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 (5.36)    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  1 (0.89)</t>
+  </si>
+  <si>
+    <t>70 (62.50)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 (1.79)</t>
+  </si>
+  <si>
+    <t>69 (61.61)</t>
+  </si>
+  <si>
+    <t>71 (63.39)</t>
+  </si>
+  <si>
+    <t>9 (8.04 )</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 32 (28.570</t>
+  </si>
+  <si>
+    <t>2 (1.79 )</t>
+  </si>
+  <si>
+    <t>67 (59.82)</t>
+  </si>
+  <si>
+    <t>3 (2.68 )</t>
+  </si>
+  <si>
+    <t>24 (21.43 )</t>
+  </si>
+  <si>
+    <t>55 (49.11)</t>
+  </si>
+  <si>
+    <t>29 (26.13)</t>
+  </si>
+  <si>
+    <t>16  (14.41 )</t>
+  </si>
+  <si>
+    <t>66 (59.46)</t>
+  </si>
+  <si>
+    <t>63 (56.25 )</t>
+  </si>
+  <si>
+    <t>1 (0.89 )</t>
+  </si>
+  <si>
+    <t>35 (31.25 )</t>
+  </si>
+  <si>
+    <t>65 (58.04 )</t>
+  </si>
+  <si>
+    <t>72 (64.29)</t>
+  </si>
+  <si>
+    <t>35 (31.25)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 67 (59.82)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 3 (2.68)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2 (1.80)</t>
+  </si>
+  <si>
+    <t>1 (0.90)</t>
+  </si>
+  <si>
+    <t>41 (36.94 )</t>
+  </si>
+  <si>
+    <t>37 (33.33 )</t>
+  </si>
+  <si>
+    <t>30 (27.03)</t>
+  </si>
+  <si>
+    <t>29 (25.89 )</t>
+  </si>
+  <si>
+    <t>43 (38.74)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82 (73.21)  </t>
+  </si>
+  <si>
+    <t>73 (65.18 )</t>
+  </si>
+  <si>
+    <t>74 (66.07)</t>
+  </si>
+  <si>
+    <t>84 (75.00)</t>
+  </si>
+  <si>
+    <t>35 (31.53)</t>
+  </si>
+  <si>
+    <t>1  (0.89 )</t>
+  </si>
+  <si>
+    <t>31 (27.93)</t>
+  </si>
+  <si>
+    <t>Respondent  Self Reported Perceived Comfort  Level (N=112)</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2 (1.79  )</t>
+  </si>
+  <si>
+    <t>8 (7.14 )</t>
+  </si>
+  <si>
+    <t>37 (33.04 )</t>
+  </si>
+  <si>
+    <t>31 (27.68 )</t>
+  </si>
+  <si>
+    <t>54 (48.21)</t>
+  </si>
+  <si>
+    <t>66 (58.93)</t>
+  </si>
+  <si>
+    <t>Extremely dissatisfied</t>
+  </si>
+  <si>
+    <t>Dissastified</t>
+  </si>
+  <si>
+    <t>Neither</t>
+  </si>
+  <si>
+    <t>Extremely satisfied</t>
+  </si>
+  <si>
+    <t>How satisfied or dissatisfied were you with this module?</t>
+  </si>
+  <si>
+    <t>In general, how effective were the “discussion” activities in this module?</t>
+  </si>
+  <si>
+    <t>Learner evaluation of module satisfication (N=112)</t>
+  </si>
+  <si>
+    <t>Slightly satisfied</t>
+  </si>
+  <si>
+    <t>In general, how effective were the “writing” activities in this module?</t>
+  </si>
+  <si>
+    <t>In general, how effective were the “role play” activities in this module?</t>
+  </si>
+  <si>
+    <t>not effective at all</t>
+  </si>
+  <si>
+    <t>slightly effective</t>
+  </si>
+  <si>
+    <t>moderately effective</t>
+  </si>
+  <si>
+    <t>very effective</t>
+  </si>
+  <si>
+    <t>Learner evaluation of module effectiveness (N=112)</t>
+  </si>
+  <si>
+    <t>extremely effective</t>
+  </si>
+  <si>
+    <t>Learner evaluation of facilitator effectiveness (N=112)</t>
+  </si>
+  <si>
+    <t>Learner evaluation of facilitator knowledge (N=112)</t>
+  </si>
+  <si>
+    <t>not knowledgeable at all</t>
+  </si>
+  <si>
+    <t>slightly knowledgeable</t>
+  </si>
+  <si>
+    <t>moderately knowledgeable</t>
+  </si>
+  <si>
+    <t>very knowledgeable</t>
+  </si>
+  <si>
+    <t>extremely knowledgeable</t>
+  </si>
+  <si>
+    <t>How knowledgeable was the facilitator(s) about the material presented in this module?</t>
+  </si>
+  <si>
+    <t>How effective was the facilitator(s) in guiding your group through the content of this module?</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>Encouragement of IPC and QI (N=112)</t>
+  </si>
+  <si>
+    <t>During the module, did the facilitator encourage interprofessional collaboration between trainees?</t>
+  </si>
+  <si>
+    <t>Did the facilitator emphasize the importance of quality improvement in your practice?</t>
   </si>
 </sst>
 </file>
@@ -341,7 +723,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -357,6 +739,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,30 +914,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="double">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -595,11 +965,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="150">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -680,9 +1074,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -692,9 +1083,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="10" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -703,9 +1091,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -744,18 +1129,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -801,49 +1174,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -858,6 +1231,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
@@ -894,6 +1309,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -903,10 +1342,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -917,68 +1356,83 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1265,55 +1719,728 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.08984375" customWidth="1"/>
+    <col min="2" max="2" width="29.54296875" customWidth="1"/>
+    <col min="4" max="4" width="9.1796875" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="101" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
+      <c r="D1" s="105"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="49"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3" s="102"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="98" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="100"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4" s="102"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" s="94" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="22">
+        <v>41</v>
+      </c>
+      <c r="D6" s="26">
+        <v>0.36609999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="95"/>
+      <c r="B7" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="22">
+        <v>58</v>
+      </c>
+      <c r="D7" s="26">
+        <v>0.51790000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" s="106"/>
+      <c r="B8" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="59">
+        <v>13</v>
+      </c>
+      <c r="D8" s="26">
+        <v>0.11609999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="106"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="53">
+        <f>SUM(C6:C8)</f>
+        <v>112</v>
+      </c>
+      <c r="D9" s="55">
+        <f>SUM(D6:D8)</f>
+        <v>1.0001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="57"/>
+    </row>
+    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="94" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="22">
+        <v>21</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0.1875</v>
+      </c>
+      <c r="F11" s="10"/>
+    </row>
+    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="103"/>
+      <c r="B12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="22">
+        <v>11</v>
+      </c>
+      <c r="D12" s="26">
+        <v>9.8199999999999996E-2</v>
+      </c>
+      <c r="F12" s="10"/>
+    </row>
+    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="103"/>
+      <c r="B13" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="22">
+        <v>9</v>
+      </c>
+      <c r="D13" s="26">
+        <v>8.0399999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="103"/>
+      <c r="B14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="22">
+        <v>7</v>
+      </c>
+      <c r="D14" s="26">
+        <v>6.25E-2</v>
+      </c>
+      <c r="F14" s="10"/>
+    </row>
+    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="103"/>
+      <c r="B15" s="137" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="138">
+        <v>62</v>
+      </c>
+      <c r="D15" s="139">
+        <v>0.55359999999999998</v>
+      </c>
+      <c r="F15" s="10"/>
+    </row>
+    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="103"/>
+      <c r="B16" s="131" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="135">
+        <v>2</v>
+      </c>
+      <c r="D16" s="136">
+        <v>1.7899999999999999E-2</v>
+      </c>
+      <c r="F16" s="10"/>
+    </row>
+    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="29"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="53">
+        <f>SUM(C11:C16)</f>
+        <v>112</v>
+      </c>
+      <c r="D17" s="55">
+        <f>SUM(D11:D16)</f>
+        <v>1.0001</v>
+      </c>
+      <c r="F17" s="10"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="31"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19" s="94" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="22">
+        <v>1</v>
+      </c>
+      <c r="D19" s="26">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="F19" s="10"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20" s="95"/>
+      <c r="B20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="22">
+        <v>111</v>
+      </c>
+      <c r="D20" s="26">
+        <v>0.99109999999999998</v>
+      </c>
+      <c r="F20" s="10"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21" s="30"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="53">
+        <f>SUM(C19:C20)</f>
+        <v>112</v>
+      </c>
+      <c r="D21" s="55">
+        <f>SUM(D19:D20)</f>
+        <v>1</v>
+      </c>
+      <c r="F21" s="10"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="31"/>
+      <c r="F22" s="10"/>
+    </row>
+    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="22">
+        <v>6</v>
+      </c>
+      <c r="D23" s="26">
+        <v>5.3600000000000002E-2</v>
+      </c>
+      <c r="F23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="95"/>
+      <c r="B24" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="22">
+        <v>41</v>
+      </c>
+      <c r="D24" s="26">
+        <v>0.36609999999999998</v>
+      </c>
+      <c r="F24" s="10"/>
+    </row>
+    <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="95"/>
+      <c r="B25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="22">
+        <v>54</v>
+      </c>
+      <c r="D25" s="26">
+        <v>0.48209999999999997</v>
+      </c>
+      <c r="F25" s="10"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="95"/>
+      <c r="B26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="22">
+        <v>3</v>
+      </c>
+      <c r="D26" s="26">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="F26" s="10"/>
+    </row>
+    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="95"/>
+      <c r="B27" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="22">
+        <v>8</v>
+      </c>
+      <c r="D27" s="26">
+        <v>7.1400000000000005E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28" s="9"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="54">
+        <f>SUM(C23:C27)</f>
+        <v>112</v>
+      </c>
+      <c r="D28" s="56">
+        <f>SUM(D23:D27)</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A11:A16"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A6:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.08984375" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.08984375" customWidth="1"/>
+    <col min="7" max="7" width="14.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="101" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C3" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+    </row>
+    <row r="4" spans="1:7" s="93" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="80" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+    </row>
+    <row r="7" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="80" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C7" s="85"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+    </row>
+    <row r="9" spans="1:7" ht="29.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+    </row>
+    <row r="11" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="85"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="112"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A11:A12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.08984375" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="11.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="101" t="s">
+        <v>217</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C3" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="108"/>
+    </row>
+    <row r="4" spans="1:4" s="93" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="130" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" s="130" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="91"/>
+    </row>
+    <row r="6" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="103"/>
+      <c r="B6" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="85"/>
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="34"/>
+    </row>
+    <row r="8" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C8" s="85"/>
+      <c r="D8" s="33"/>
+    </row>
+    <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="94"/>
+      <c r="B9" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="33"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="34"/>
+    </row>
+    <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="85"/>
+      <c r="D11" s="33"/>
+    </row>
+    <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="95"/>
+      <c r="B12" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="85"/>
+      <c r="D12" s="33"/>
+    </row>
+    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="34"/>
+    </row>
+    <row r="14" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="33"/>
+    </row>
+    <row r="15" spans="1:4" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="111"/>
+      <c r="B15" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="C15" s="85"/>
+      <c r="D15" s="33"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="112"/>
+      <c r="B16" s="92"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="36"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A14:A16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="2" width="37.81640625" customWidth="1"/>
-    <col min="10" max="10" width="9.1796875" style="48"/>
+    <col min="10" max="10" width="9.1796875" style="45"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
+      <c r="A1" s="101" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="101"/>
+      <c r="I1" s="101"/>
+      <c r="J1" s="101"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="95"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="90" t="s">
+      <c r="A3" s="102"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="92" t="s">
+      <c r="D3" s="98"/>
+      <c r="E3" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="92" t="s">
+      <c r="F3" s="100"/>
+      <c r="G3" s="99" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="93"/>
-      <c r="I3" s="91" t="s">
+      <c r="H3" s="100"/>
+      <c r="I3" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="93"/>
+      <c r="J3" s="100"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="95"/>
-      <c r="B4" s="89"/>
+      <c r="A4" s="102"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="21"/>
       <c r="D4" s="1"/>
       <c r="E4" s="17"/>
@@ -1352,7 +2479,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="94" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1387,7 +2514,7 @@
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="96"/>
+      <c r="A7" s="103"/>
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
@@ -1420,7 +2547,7 @@
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="96"/>
+      <c r="A8" s="103"/>
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
@@ -1452,7 +2579,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="96"/>
+      <c r="A9" s="103"/>
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
@@ -1485,66 +2612,66 @@
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="96"/>
-      <c r="B10" s="7" t="s">
+      <c r="A10" s="103"/>
+      <c r="B10" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="138">
         <v>27</v>
       </c>
-      <c r="D10" s="25">
+      <c r="D10" s="140">
         <v>0.4355</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="141">
         <v>22</v>
       </c>
-      <c r="F10" s="26">
+      <c r="F10" s="139">
         <v>0.3548</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="141">
         <v>13</v>
       </c>
-      <c r="H10" s="26">
+      <c r="H10" s="139">
         <v>0.2097</v>
       </c>
-      <c r="I10" s="23">
+      <c r="I10" s="142">
         <f t="shared" ref="I10" si="2">C10+E10+G10</f>
         <v>62</v>
       </c>
-      <c r="J10" s="27">
+      <c r="J10" s="143">
         <f t="shared" ref="J10" si="3">D10+F10+H10</f>
         <v>1</v>
       </c>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="96"/>
-      <c r="B11" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" s="22">
+      <c r="A11" s="103"/>
+      <c r="B11" s="131" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="135">
         <v>2</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="144">
         <v>1</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="145">
         <v>0</v>
       </c>
-      <c r="F11" s="26">
+      <c r="F11" s="136">
         <v>0</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="145">
         <v>0</v>
       </c>
-      <c r="H11" s="26">
+      <c r="H11" s="136">
         <v>0</v>
       </c>
-      <c r="I11" s="23">
+      <c r="I11" s="146">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J11" s="27">
+      <c r="J11" s="147">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -1563,7 +2690,7 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="87" t="s">
+      <c r="A13" s="94" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1598,7 +2725,7 @@
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="88"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
@@ -1644,7 +2771,7 @@
       <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="87" t="s">
+      <c r="A16" s="94" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -1679,7 +2806,7 @@
       <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="88"/>
+      <c r="A17" s="95"/>
       <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
@@ -1711,7 +2838,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="88"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="7" t="s">
         <v>14</v>
       </c>
@@ -1744,7 +2871,7 @@
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="88"/>
+      <c r="A19" s="95"/>
       <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
@@ -1777,7 +2904,7 @@
       <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="88"/>
+      <c r="A20" s="95"/>
       <c r="B20" s="7" t="s">
         <v>15</v>
       </c>
@@ -1839,366 +2966,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="37.81640625" customWidth="1"/>
-    <col min="4" max="4" width="9.1796875" style="48"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="98"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="56"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="95"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="93"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="95"/>
-      <c r="B4" s="89"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="87" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C6" s="22">
-        <v>41</v>
-      </c>
-      <c r="D6" s="26">
-        <v>0.36609999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="88"/>
-      <c r="B7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C7" s="22">
-        <v>58</v>
-      </c>
-      <c r="D7" s="26">
-        <v>0.51790000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="99"/>
-      <c r="B8" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="66">
-        <v>13</v>
-      </c>
-      <c r="D8" s="26">
-        <v>0.11609999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="99"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="60">
-        <f>SUM(C6:C8)</f>
-        <v>112</v>
-      </c>
-      <c r="D9" s="62">
-        <f>SUM(D6:D8)</f>
-        <v>1.0001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="64"/>
-    </row>
-    <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="87" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="22">
-        <v>21</v>
-      </c>
-      <c r="D11" s="26">
-        <v>0.1875</v>
-      </c>
-      <c r="F11" s="10"/>
-    </row>
-    <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="96"/>
-      <c r="B12" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" s="22">
-        <v>11</v>
-      </c>
-      <c r="D12" s="26">
-        <v>9.8199999999999996E-2</v>
-      </c>
-      <c r="F12" s="10"/>
-    </row>
-    <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="96"/>
-      <c r="B13" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="22">
-        <v>9</v>
-      </c>
-      <c r="D13" s="26">
-        <v>8.0399999999999999E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="96"/>
-      <c r="B14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" s="22">
-        <v>7</v>
-      </c>
-      <c r="D14" s="26">
-        <v>6.25E-2</v>
-      </c>
-      <c r="F14" s="10"/>
-    </row>
-    <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="96"/>
-      <c r="B15" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="22">
-        <v>62</v>
-      </c>
-      <c r="D15" s="26">
-        <v>0.55359999999999998</v>
-      </c>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="96"/>
-      <c r="B16" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="22">
-        <v>2</v>
-      </c>
-      <c r="D16" s="26">
-        <v>1.7899999999999999E-2</v>
-      </c>
-      <c r="F16" s="10"/>
-    </row>
-    <row r="17" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="30"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="60">
-        <f>SUM(C11:C16)</f>
-        <v>112</v>
-      </c>
-      <c r="D17" s="62">
-        <f>SUM(D11:D16)</f>
-        <v>1.0001</v>
-      </c>
-      <c r="F17" s="10"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="33"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="87" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="22">
-        <v>1</v>
-      </c>
-      <c r="D19" s="26">
-        <v>8.8999999999999999E-3</v>
-      </c>
-      <c r="F19" s="10"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="88"/>
-      <c r="B20" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="22">
-        <v>111</v>
-      </c>
-      <c r="D20" s="26">
-        <v>0.99109999999999998</v>
-      </c>
-      <c r="F20" s="10"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="31"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="60">
-        <f>SUM(C19:C20)</f>
-        <v>112</v>
-      </c>
-      <c r="D21" s="62">
-        <f>SUM(D19:D20)</f>
-        <v>1</v>
-      </c>
-      <c r="F21" s="10"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="33"/>
-      <c r="F22" s="10"/>
-    </row>
-    <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="87" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C23" s="22">
-        <v>6</v>
-      </c>
-      <c r="D23" s="26">
-        <v>5.3600000000000002E-2</v>
-      </c>
-      <c r="F23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="88"/>
-      <c r="B24" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C24" s="22">
-        <v>41</v>
-      </c>
-      <c r="D24" s="26">
-        <v>0.36609999999999998</v>
-      </c>
-      <c r="F24" s="10"/>
-    </row>
-    <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="88"/>
-      <c r="B25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25" s="22">
-        <v>54</v>
-      </c>
-      <c r="D25" s="26">
-        <v>0.48209999999999997</v>
-      </c>
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="88"/>
-      <c r="B26" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="22">
-        <v>3</v>
-      </c>
-      <c r="D26" s="26">
-        <v>2.6800000000000001E-2</v>
-      </c>
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="88"/>
-      <c r="B27" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C27" s="22">
-        <v>8</v>
-      </c>
-      <c r="D27" s="26">
-        <v>7.1400000000000005E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="61">
-        <f>SUM(C23:C27)</f>
-        <v>112</v>
-      </c>
-      <c r="D28" s="63">
-        <f>SUM(D23:D27)</f>
-        <v>1</v>
-      </c>
-      <c r="F28" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A11:A16"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A6:A9"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="19.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.08984375" customWidth="1"/>
     <col min="2" max="2" width="57.54296875" customWidth="1"/>
     <col min="3" max="3" width="14.81640625" customWidth="1"/>
     <col min="4" max="4" width="15.36328125" customWidth="1"/>
@@ -2209,505 +2987,944 @@
     <col min="9" max="9" width="11.90625" customWidth="1"/>
     <col min="10" max="10" width="13.1796875" customWidth="1"/>
     <col min="11" max="11" width="12.90625" customWidth="1"/>
-    <col min="13" max="13" width="11.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
-        <v>79</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="129"/>
-      <c r="I1" s="129"/>
-      <c r="J1" s="129"/>
-      <c r="K1" s="129"/>
-      <c r="L1" s="129"/>
-      <c r="M1" s="129"/>
-      <c r="N1" s="129"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A2" s="68"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="C3" s="124" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="126"/>
-      <c r="H3" s="127" t="s">
-        <v>34</v>
-      </c>
-      <c r="I3" s="124"/>
-      <c r="J3" s="124"/>
-      <c r="K3" s="124"/>
-      <c r="L3" s="124"/>
-    </row>
-    <row r="4" spans="1:14" s="112" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="101" t="s">
+        <v>182</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
+      <c r="H1" s="109"/>
+      <c r="I1" s="109"/>
+      <c r="J1" s="109"/>
+      <c r="K1" s="109"/>
+      <c r="L1" s="109"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C3" s="108" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="114"/>
+      <c r="H3" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" s="108"/>
+      <c r="J3" s="108"/>
+      <c r="K3" s="108"/>
+      <c r="L3" s="108"/>
+    </row>
+    <row r="4" spans="1:12" s="83" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="D4" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="E4" s="113" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="113" t="s">
-        <v>81</v>
-      </c>
-      <c r="G4" s="113" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="113" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" s="113" t="s">
-        <v>84</v>
-      </c>
-      <c r="J4" s="113" t="s">
-        <v>80</v>
-      </c>
-      <c r="K4" s="113" t="s">
-        <v>81</v>
-      </c>
-      <c r="L4" s="113" t="s">
-        <v>82</v>
-      </c>
-      <c r="M4" s="128" t="s">
-        <v>87</v>
-      </c>
-      <c r="N4" s="128" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="87" t="s">
-        <v>22</v>
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="84" t="s">
+        <v>75</v>
+      </c>
+      <c r="I4" s="84" t="s">
+        <v>76</v>
+      </c>
+      <c r="J4" s="84" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="84" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="84" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="94" t="s">
+        <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="118"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="119"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="118"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="120"/>
-    </row>
-    <row r="6" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="96"/>
+        <v>50</v>
+      </c>
+      <c r="C5" s="89" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="90" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="90" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="90" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="91" t="s">
+        <v>93</v>
+      </c>
+      <c r="H5" s="89" t="s">
+        <v>145</v>
+      </c>
+      <c r="I5" s="90" t="s">
+        <v>126</v>
+      </c>
+      <c r="J5" s="90" t="s">
+        <v>123</v>
+      </c>
+      <c r="K5" s="90" t="s">
+        <v>146</v>
+      </c>
+      <c r="L5" s="91" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="103"/>
       <c r="B6" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="114"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="114"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-      <c r="K6" s="86"/>
-      <c r="L6" s="35"/>
-    </row>
-    <row r="7" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="96"/>
+        <v>51</v>
+      </c>
+      <c r="C6" s="85" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="H6" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="I6" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="J6" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="K6" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="L6" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="103"/>
       <c r="B7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="114"/>
-      <c r="D7" s="86"/>
-      <c r="E7" s="86"/>
-      <c r="F7" s="86"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="114"/>
-      <c r="I7" s="86"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="86"/>
-      <c r="L7" s="35"/>
-    </row>
-    <row r="8" spans="1:14" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="96"/>
+        <v>52</v>
+      </c>
+      <c r="C7" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="J7" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="L7" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="103"/>
       <c r="B8" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="114"/>
-      <c r="D8" s="86"/>
-      <c r="E8" s="86"/>
-      <c r="F8" s="86"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="114"/>
-      <c r="I8" s="86"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="86"/>
-      <c r="L8" s="35"/>
-    </row>
-    <row r="9" spans="1:14" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="96"/>
+        <v>53</v>
+      </c>
+      <c r="C8" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="79" t="s">
+        <v>104</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="H8" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="L8" s="33" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="103"/>
       <c r="B9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="86"/>
-      <c r="L9" s="35"/>
-    </row>
-    <row r="10" spans="1:14" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="96"/>
+        <v>54</v>
+      </c>
+      <c r="C9" s="85" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="79" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="H9" s="85" t="s">
+        <v>105</v>
+      </c>
+      <c r="I9" s="79" t="s">
+        <v>150</v>
+      </c>
+      <c r="J9" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="79" t="s">
+        <v>153</v>
+      </c>
+      <c r="L9" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="103"/>
       <c r="B10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="114"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="114"/>
-      <c r="I10" s="86"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="86"/>
-      <c r="L10" s="35"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="37"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A12" s="87" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="114"/>
+        <v>55</v>
+      </c>
+      <c r="C10" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="D10" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="79" t="s">
+        <v>109</v>
+      </c>
+      <c r="F10" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="79" t="s">
+        <v>154</v>
+      </c>
+      <c r="J10" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="K10" s="79" t="s">
+        <v>156</v>
+      </c>
+      <c r="L10" s="33" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="82"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="132"/>
+      <c r="D11" s="132" t="s">
+        <v>111</v>
+      </c>
+      <c r="E11" s="133" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="133" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="133" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="132"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="133" t="s">
+        <v>157</v>
+      </c>
+      <c r="K11" s="133" t="s">
+        <v>158</v>
+      </c>
+      <c r="L11" s="134" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="87"/>
       <c r="D12" s="86"/>
       <c r="E12" s="86"/>
       <c r="F12" s="86"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="114"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="87"/>
       <c r="I12" s="86"/>
       <c r="J12" s="86"/>
       <c r="K12" s="86"/>
-      <c r="L12" s="35"/>
-    </row>
-    <row r="13" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="87"/>
+      <c r="L12" s="34"/>
+    </row>
+    <row r="13" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="94" t="s">
+        <v>23</v>
+      </c>
       <c r="B13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="114"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
-      <c r="K13" s="86"/>
-      <c r="L13" s="35"/>
-    </row>
-    <row r="14" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="87"/>
+        <v>56</v>
+      </c>
+      <c r="C13" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="E13" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="J13" s="79" t="s">
+        <v>97</v>
+      </c>
+      <c r="K13" s="79" t="s">
+        <v>160</v>
+      </c>
+      <c r="L13" s="33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="94"/>
       <c r="B14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="114"/>
-      <c r="D14" s="86"/>
-      <c r="E14" s="86"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="114"/>
-      <c r="I14" s="86"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="86"/>
-      <c r="L14" s="35"/>
-    </row>
-    <row r="15" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="87"/>
+        <v>57</v>
+      </c>
+      <c r="C14" s="85" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="E14" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="F14" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="H14" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" s="79" t="s">
+        <v>162</v>
+      </c>
+      <c r="K14" s="79" t="s">
+        <v>163</v>
+      </c>
+      <c r="L14" s="33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="94"/>
       <c r="B15" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="114"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="114"/>
-      <c r="I15" s="86"/>
-      <c r="J15" s="86"/>
-      <c r="K15" s="86"/>
-      <c r="L15" s="35"/>
-    </row>
-    <row r="16" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="87"/>
+        <v>58</v>
+      </c>
+      <c r="C15" s="85" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="79" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="F15" s="79" t="s">
+        <v>125</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="H15" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="J15" s="79" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="79" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" s="33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="94"/>
       <c r="B16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="114"/>
-      <c r="D16" s="86"/>
-      <c r="E16" s="86"/>
-      <c r="F16" s="86"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="86"/>
-      <c r="J16" s="86"/>
-      <c r="K16" s="86"/>
-      <c r="L16" s="35"/>
-    </row>
-    <row r="17" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="116"/>
-      <c r="D17" s="115"/>
-      <c r="E17" s="115"/>
-      <c r="F17" s="115"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="116"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="115"/>
-      <c r="K17" s="115"/>
-      <c r="L17" s="37"/>
-    </row>
-    <row r="18" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="87" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="114"/>
+        <v>59</v>
+      </c>
+      <c r="C16" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="D16" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="E16" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="F16" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="H16" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="I16" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="J16" s="79" t="s">
+        <v>165</v>
+      </c>
+      <c r="K16" s="79" t="s">
+        <v>166</v>
+      </c>
+      <c r="L16" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="94"/>
+      <c r="B17" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" s="79" t="s">
+        <v>129</v>
+      </c>
+      <c r="E17" s="79" t="s">
+        <v>130</v>
+      </c>
+      <c r="F17" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H17" s="85" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" s="79" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" s="79" t="s">
+        <v>170</v>
+      </c>
+      <c r="K17" s="79" t="s">
+        <v>171</v>
+      </c>
+      <c r="L17" s="33" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="86"/>
       <c r="E18" s="86"/>
       <c r="F18" s="86"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="114"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="87"/>
       <c r="I18" s="86"/>
       <c r="J18" s="86"/>
       <c r="K18" s="86"/>
-      <c r="L18" s="35"/>
-    </row>
-    <row r="19" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="88"/>
+      <c r="L18" s="34"/>
+    </row>
+    <row r="19" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="94" t="s">
+        <v>24</v>
+      </c>
       <c r="B19" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="114"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="86"/>
-      <c r="L19" s="35"/>
-    </row>
-    <row r="20" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="88"/>
+        <v>62</v>
+      </c>
+      <c r="C19" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="D19" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="79" t="s">
+        <v>132</v>
+      </c>
+      <c r="F19" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="H19" s="85" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="79" t="s">
+        <v>119</v>
+      </c>
+      <c r="J19" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="95"/>
       <c r="B20" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="86"/>
-      <c r="E20" s="86"/>
-      <c r="F20" s="86"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="86"/>
-      <c r="J20" s="86"/>
-      <c r="K20" s="86"/>
-      <c r="L20" s="35"/>
-    </row>
-    <row r="21" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="88"/>
+        <v>61</v>
+      </c>
+      <c r="C20" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="79" t="s">
+        <v>92</v>
+      </c>
+      <c r="E20" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="H20" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="I20" s="79" t="s">
+        <v>93</v>
+      </c>
+      <c r="J20" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="79" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="95"/>
       <c r="B21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="114"/>
-      <c r="D21" s="86"/>
-      <c r="E21" s="86"/>
-      <c r="F21" s="86"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="114"/>
-      <c r="I21" s="86"/>
-      <c r="J21" s="86"/>
-      <c r="K21" s="86"/>
-      <c r="L21" s="35"/>
-    </row>
-    <row r="22" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="88"/>
+        <v>77</v>
+      </c>
+      <c r="C21" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="H21" s="85" t="s">
+        <v>161</v>
+      </c>
+      <c r="I21" s="79" t="s">
+        <v>126</v>
+      </c>
+      <c r="J21" s="79" t="s">
+        <v>173</v>
+      </c>
+      <c r="K21" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="95"/>
       <c r="B22" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="114"/>
-      <c r="D22" s="86"/>
-      <c r="E22" s="86"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="86"/>
-      <c r="J22" s="86"/>
-      <c r="K22" s="86"/>
-      <c r="L22" s="35"/>
-    </row>
-    <row r="23" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="88"/>
+        <v>63</v>
+      </c>
+      <c r="C22" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="D22" s="79" t="s">
+        <v>120</v>
+      </c>
+      <c r="E22" s="79" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="79" t="s">
+        <v>124</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="I22" s="79" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="79" t="s">
+        <v>90</v>
+      </c>
+      <c r="K22" s="79" t="s">
+        <v>178</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="95"/>
       <c r="B23" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="114"/>
-      <c r="D23" s="86"/>
-      <c r="E23" s="86"/>
-      <c r="F23" s="86"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="114"/>
-      <c r="I23" s="86"/>
-      <c r="J23" s="86"/>
-      <c r="K23" s="86"/>
-      <c r="L23" s="35"/>
-    </row>
-    <row r="24" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="116"/>
-      <c r="D24" s="115"/>
-      <c r="E24" s="115"/>
-      <c r="F24" s="115"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="116"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="115"/>
-      <c r="K24" s="115"/>
-      <c r="L24" s="37"/>
-    </row>
-    <row r="25" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="121" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="114"/>
+        <v>64</v>
+      </c>
+      <c r="C23" s="85" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="E23" s="79" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="85" t="s">
+        <v>98</v>
+      </c>
+      <c r="I23" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="J23" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="95"/>
+      <c r="B24" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="D24" s="79" t="s">
+        <v>136</v>
+      </c>
+      <c r="E24" s="79" t="s">
+        <v>137</v>
+      </c>
+      <c r="F24" s="79" t="s">
+        <v>138</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="H24" s="148" t="s">
+        <v>183</v>
+      </c>
+      <c r="I24" s="85" t="s">
+        <v>128</v>
+      </c>
+      <c r="J24" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="K24" s="79" t="s">
+        <v>179</v>
+      </c>
+      <c r="L24" s="79" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="87"/>
       <c r="D25" s="86"/>
       <c r="E25" s="86"/>
       <c r="F25" s="86"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="114"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="87"/>
       <c r="I25" s="86"/>
       <c r="J25" s="86"/>
       <c r="K25" s="86"/>
-      <c r="L25" s="35"/>
+      <c r="L25" s="34"/>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="122"/>
+      <c r="A26" s="110" t="s">
+        <v>25</v>
+      </c>
       <c r="B26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="114"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="114"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="35"/>
-    </row>
-    <row r="27" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="122"/>
+        <v>66</v>
+      </c>
+      <c r="C26" s="85" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="E26" s="79" t="s">
+        <v>140</v>
+      </c>
+      <c r="F26" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="H26" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="I26" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="J26" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="K26" s="79" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" s="33" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="111"/>
       <c r="B27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="114"/>
-      <c r="D27" s="86"/>
-      <c r="E27" s="86"/>
-      <c r="F27" s="86"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="114"/>
-      <c r="I27" s="86"/>
-      <c r="J27" s="86"/>
-      <c r="K27" s="86"/>
-      <c r="L27" s="35"/>
-    </row>
-    <row r="28" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="122"/>
+        <v>67</v>
+      </c>
+      <c r="C27" s="85" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="79" t="s">
+        <v>103</v>
+      </c>
+      <c r="G27" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="H27" s="85" t="s">
+        <v>184</v>
+      </c>
+      <c r="I27" s="79" t="s">
+        <v>115</v>
+      </c>
+      <c r="J27" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="K27" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="L27" s="33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="111"/>
       <c r="B28" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" s="114"/>
-      <c r="D28" s="86"/>
-      <c r="E28" s="86"/>
-      <c r="F28" s="86"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="114"/>
-      <c r="I28" s="86"/>
-      <c r="J28" s="86"/>
-      <c r="K28" s="86"/>
-      <c r="L28" s="35"/>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A29" s="123"/>
-      <c r="B29" s="9"/>
-      <c r="C29" s="117"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="117"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="39"/>
+        <v>68</v>
+      </c>
+      <c r="C28" s="85" t="s">
+        <v>142</v>
+      </c>
+      <c r="D28" s="79" t="s">
+        <v>143</v>
+      </c>
+      <c r="E28" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="F28" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>133</v>
+      </c>
+      <c r="H28" s="85" t="s">
+        <v>119</v>
+      </c>
+      <c r="I28" s="79" t="s">
+        <v>106</v>
+      </c>
+      <c r="J28" s="79" t="s">
+        <v>116</v>
+      </c>
+      <c r="K28" s="79" t="s">
+        <v>189</v>
+      </c>
+      <c r="L28" s="33" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="111"/>
+      <c r="B29" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="85" t="s">
+        <v>89</v>
+      </c>
+      <c r="D29" s="79" t="s">
+        <v>135</v>
+      </c>
+      <c r="E29" s="79" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="H29" s="85" t="s">
+        <v>152</v>
+      </c>
+      <c r="I29" s="79" t="s">
+        <v>152</v>
+      </c>
+      <c r="J29" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="K29" s="79" t="s">
+        <v>177</v>
+      </c>
+      <c r="L29" s="33" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A30" s="112"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="35"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="88"/>
+      <c r="I30" s="35"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="35"/>
+      <c r="L30" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="7">
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="C3:G3"/>
     <mergeCell ref="H3:L3"/>
-    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="A1:L1"/>
     <mergeCell ref="A5:A10"/>
-    <mergeCell ref="A12:A16"/>
-    <mergeCell ref="A18:A23"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A13:A17"/>
+    <mergeCell ref="A19:A24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2719,7 +3936,7 @@
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2729,177 +3946,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
+      <c r="A1" s="101" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
+      <c r="G1" s="101"/>
     </row>
     <row r="3" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="59"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="101"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="103" t="s">
-        <v>50</v>
+      <c r="A3" s="52"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="116"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="118" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="73" t="s">
+      <c r="B4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="119"/>
+      <c r="G4" s="119"/>
+    </row>
+    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="94" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="68">
+        <v>60</v>
+      </c>
+      <c r="D5" s="62">
+        <v>16</v>
+      </c>
+      <c r="E5" s="62">
+        <v>36</v>
+      </c>
+      <c r="F5" s="74">
+        <v>5.2750000000000004</v>
+      </c>
+      <c r="G5" s="71">
+        <v>0</v>
+      </c>
+      <c r="I5" s="10"/>
+    </row>
+    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="103"/>
+      <c r="B6" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="68">
+        <v>72</v>
+      </c>
+      <c r="D6" s="62">
+        <v>9</v>
+      </c>
+      <c r="E6" s="62">
+        <v>31</v>
+      </c>
+      <c r="F6" s="74">
+        <v>7.1660000000000004</v>
+      </c>
+      <c r="G6" s="71">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10"/>
+    </row>
+    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="103"/>
+      <c r="B7" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="68">
+        <v>52</v>
+      </c>
+      <c r="D7" s="62">
+        <v>12</v>
+      </c>
+      <c r="E7" s="62">
         <v>48</v>
       </c>
-      <c r="F4" s="104"/>
-      <c r="G4" s="104"/>
-    </row>
-    <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" s="75">
+      <c r="F7" s="74">
+        <v>5.0090000000000003</v>
+      </c>
+      <c r="G7" s="71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="103"/>
+      <c r="B8" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="68">
         <v>60</v>
       </c>
-      <c r="D5" s="69">
-        <v>16</v>
-      </c>
-      <c r="E5" s="69">
-        <v>36</v>
-      </c>
-      <c r="F5" s="81">
-        <v>5.2750000000000004</v>
-      </c>
-      <c r="G5" s="78">
+      <c r="D8" s="62">
+        <v>10</v>
+      </c>
+      <c r="E8" s="62">
+        <v>42</v>
+      </c>
+      <c r="F8" s="74">
+        <v>5.7110000000000003</v>
+      </c>
+      <c r="G8" s="71">
         <v>0</v>
       </c>
-      <c r="I5" s="10"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="96"/>
-      <c r="B6" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="75">
-        <v>72</v>
-      </c>
-      <c r="D6" s="69">
-        <v>9</v>
-      </c>
-      <c r="E6" s="69">
-        <v>31</v>
-      </c>
-      <c r="F6" s="81">
-        <v>7.1660000000000004</v>
-      </c>
-      <c r="G6" s="78">
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="103"/>
+      <c r="B9" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="68">
+        <v>58</v>
+      </c>
+      <c r="D9" s="62">
+        <v>14</v>
+      </c>
+      <c r="E9" s="62">
+        <v>40</v>
+      </c>
+      <c r="F9" s="74">
+        <v>5.2430000000000003</v>
+      </c>
+      <c r="G9" s="71">
         <v>0</v>
       </c>
-      <c r="I6" s="10"/>
-    </row>
-    <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="96"/>
-      <c r="B7" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="75">
-        <v>52</v>
-      </c>
-      <c r="D7" s="69">
-        <v>12</v>
-      </c>
-      <c r="E7" s="69">
-        <v>48</v>
-      </c>
-      <c r="F7" s="81">
-        <v>5.0090000000000003</v>
-      </c>
-      <c r="G7" s="78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="96"/>
-      <c r="B8" s="7" t="s">
+      <c r="I9" s="10"/>
+    </row>
+    <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="103"/>
+      <c r="B10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="68">
+        <v>39</v>
+      </c>
+      <c r="D10" s="62">
+        <v>13</v>
+      </c>
+      <c r="E10" s="62">
         <v>60</v>
       </c>
-      <c r="C8" s="75">
-        <v>60</v>
-      </c>
-      <c r="D8" s="69">
-        <v>10</v>
-      </c>
-      <c r="E8" s="69">
-        <v>42</v>
-      </c>
-      <c r="F8" s="81">
-        <v>5.7110000000000003</v>
-      </c>
-      <c r="G8" s="78">
-        <v>0</v>
-      </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="96"/>
-      <c r="B9" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="75">
-        <v>58</v>
-      </c>
-      <c r="D9" s="69">
-        <v>14</v>
-      </c>
-      <c r="E9" s="69">
-        <v>40</v>
-      </c>
-      <c r="F9" s="81">
-        <v>5.2430000000000003</v>
-      </c>
-      <c r="G9" s="78">
-        <v>0</v>
-      </c>
-      <c r="I9" s="10"/>
-    </row>
-    <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="96"/>
-      <c r="B10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C10" s="75">
-        <v>39</v>
-      </c>
-      <c r="D10" s="69">
-        <v>13</v>
-      </c>
-      <c r="E10" s="69">
-        <v>60</v>
-      </c>
-      <c r="F10" s="81">
+      <c r="F10" s="74">
         <v>3.3239999999999998</v>
       </c>
-      <c r="G10" s="78">
+      <c r="G10" s="71">
         <v>8.9999999999999998E-4</v>
       </c>
       <c r="I10" s="10"/>
@@ -2907,120 +4124,120 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="71"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="79"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="64"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="72"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="87" t="s">
-        <v>28</v>
+      <c r="A12" s="94" t="s">
+        <v>23</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="75">
+        <v>56</v>
+      </c>
+      <c r="C12" s="68">
         <v>68</v>
       </c>
-      <c r="D12" s="69">
+      <c r="D12" s="62">
         <v>5</v>
       </c>
-      <c r="E12" s="69">
+      <c r="E12" s="62">
         <v>39</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="74">
         <v>7.2619999999999996</v>
       </c>
-      <c r="G12" s="78">
+      <c r="G12" s="71">
         <v>0</v>
       </c>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="87"/>
+      <c r="A13" s="94"/>
       <c r="B13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="75">
+        <v>57</v>
+      </c>
+      <c r="C13" s="68">
         <v>79</v>
       </c>
-      <c r="D13" s="69">
+      <c r="D13" s="62">
         <v>6</v>
       </c>
-      <c r="E13" s="69">
+      <c r="E13" s="62">
         <v>27</v>
       </c>
-      <c r="F13" s="81">
+      <c r="F13" s="74">
         <v>7.8490000000000002</v>
       </c>
-      <c r="G13" s="78">
+      <c r="G13" s="71">
         <v>0</v>
       </c>
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="87"/>
+      <c r="A14" s="94"/>
       <c r="B14" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C14" s="75">
+        <v>58</v>
+      </c>
+      <c r="C14" s="68">
         <v>72</v>
       </c>
-      <c r="D14" s="69">
+      <c r="D14" s="62">
         <v>8</v>
       </c>
-      <c r="E14" s="69">
+      <c r="E14" s="62">
         <v>32</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="74">
         <v>7.0839999999999996</v>
       </c>
-      <c r="G14" s="78">
+      <c r="G14" s="71">
         <v>0</v>
       </c>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="87"/>
+      <c r="A15" s="94"/>
       <c r="B15" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="68">
+        <v>61</v>
+      </c>
+      <c r="D15" s="62">
+        <v>6</v>
+      </c>
+      <c r="E15" s="62">
+        <v>45</v>
+      </c>
+      <c r="F15" s="74">
+        <v>6.5030000000000001</v>
+      </c>
+      <c r="G15" s="71">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10"/>
+    </row>
+    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="94"/>
+      <c r="B16" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="68">
+        <v>34</v>
+      </c>
+      <c r="D16" s="62">
+        <v>11</v>
+      </c>
+      <c r="E16" s="62">
         <v>66</v>
       </c>
-      <c r="C15" s="75">
-        <v>61</v>
-      </c>
-      <c r="D15" s="69">
-        <v>6</v>
-      </c>
-      <c r="E15" s="69">
-        <v>45</v>
-      </c>
-      <c r="F15" s="81">
-        <v>6.5030000000000001</v>
-      </c>
-      <c r="G15" s="78">
-        <v>0</v>
-      </c>
-      <c r="I15" s="10"/>
-    </row>
-    <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="87"/>
-      <c r="B16" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="75">
-        <v>34</v>
-      </c>
-      <c r="D16" s="69">
-        <v>11</v>
-      </c>
-      <c r="E16" s="69">
-        <v>66</v>
-      </c>
-      <c r="F16" s="81">
+      <c r="F16" s="74">
         <v>3.234</v>
       </c>
-      <c r="G16" s="78">
+      <c r="G16" s="71">
         <v>1.1999999999999999E-3</v>
       </c>
       <c r="I16" s="10"/>
@@ -3028,143 +4245,143 @@
     <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="79"/>
+      <c r="C17" s="69"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="63"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="72"/>
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="87" t="s">
+      <c r="A18" s="94" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C18" s="68">
+        <v>63</v>
+      </c>
+      <c r="D18" s="62">
+        <v>9</v>
+      </c>
+      <c r="E18" s="62">
+        <v>40</v>
+      </c>
+      <c r="F18" s="74">
+        <v>6.407</v>
+      </c>
+      <c r="G18" s="71">
+        <v>0</v>
+      </c>
+      <c r="I18" s="10"/>
+    </row>
+    <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="94"/>
+      <c r="B19" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="C19" s="68">
+        <v>62</v>
+      </c>
+      <c r="D19" s="62">
+        <v>9</v>
+      </c>
+      <c r="E19" s="62">
+        <v>41</v>
+      </c>
+      <c r="F19" s="74">
+        <v>6.2409999999999997</v>
+      </c>
+      <c r="G19" s="71">
+        <v>0</v>
+      </c>
+      <c r="I19" s="10"/>
+    </row>
+    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A20" s="94"/>
+      <c r="B20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C20" s="68">
+        <v>66</v>
+      </c>
+      <c r="D20" s="62">
+        <v>10</v>
+      </c>
+      <c r="E20" s="62">
+        <v>36</v>
+      </c>
+      <c r="F20" s="74">
+        <v>6.4619999999999997</v>
+      </c>
+      <c r="G20" s="71">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A21" s="94"/>
+      <c r="B21" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="68">
+        <v>54</v>
+      </c>
+      <c r="D21" s="62">
+        <v>11</v>
+      </c>
+      <c r="E21" s="62">
+        <v>47</v>
+      </c>
+      <c r="F21" s="74">
+        <v>5.0659999999999998</v>
+      </c>
+      <c r="G21" s="71">
+        <v>0</v>
+      </c>
+      <c r="I21" s="10"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A22" s="94"/>
+      <c r="B22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="68">
+        <v>81</v>
+      </c>
+      <c r="D22" s="62">
+        <v>10</v>
+      </c>
+      <c r="E22" s="62">
+        <v>21</v>
+      </c>
+      <c r="F22" s="74">
+        <v>7.6749999999999998</v>
+      </c>
+      <c r="G22" s="71">
+        <v>0</v>
+      </c>
+      <c r="I22" s="10"/>
+    </row>
+    <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="A23" s="94"/>
+      <c r="B23" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="68">
         <v>29</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="75">
-        <v>63</v>
-      </c>
-      <c r="D18" s="69">
-        <v>9</v>
-      </c>
-      <c r="E18" s="69">
-        <v>40</v>
-      </c>
-      <c r="F18" s="81">
-        <v>6.407</v>
-      </c>
-      <c r="G18" s="78">
-        <v>0</v>
-      </c>
-      <c r="I18" s="10"/>
-    </row>
-    <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="87"/>
-      <c r="B19" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C19" s="75">
-        <v>62</v>
-      </c>
-      <c r="D19" s="69">
-        <v>9</v>
-      </c>
-      <c r="E19" s="69">
-        <v>41</v>
-      </c>
-      <c r="F19" s="81">
-        <v>6.2409999999999997</v>
-      </c>
-      <c r="G19" s="78">
-        <v>0</v>
-      </c>
-      <c r="I19" s="10"/>
-    </row>
-    <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="87"/>
-      <c r="B20" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C20" s="75">
-        <v>66</v>
-      </c>
-      <c r="D20" s="69">
-        <v>10</v>
-      </c>
-      <c r="E20" s="69">
-        <v>36</v>
-      </c>
-      <c r="F20" s="81">
-        <v>6.4619999999999997</v>
-      </c>
-      <c r="G20" s="78">
-        <v>0</v>
-      </c>
-      <c r="I20" s="10"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="87"/>
-      <c r="B21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="75">
-        <v>54</v>
-      </c>
-      <c r="D21" s="69">
+      <c r="D23" s="62">
         <v>11</v>
       </c>
-      <c r="E21" s="69">
-        <v>47</v>
-      </c>
-      <c r="F21" s="81">
-        <v>5.0659999999999998</v>
-      </c>
-      <c r="G21" s="78">
-        <v>0</v>
-      </c>
-      <c r="I21" s="10"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="87"/>
-      <c r="B22" s="7" t="s">
+      <c r="E23" s="62">
         <v>71</v>
       </c>
-      <c r="C22" s="75">
-        <v>81</v>
-      </c>
-      <c r="D22" s="69">
-        <v>10</v>
-      </c>
-      <c r="E22" s="69">
-        <v>21</v>
-      </c>
-      <c r="F22" s="81">
-        <v>7.6749999999999998</v>
-      </c>
-      <c r="G22" s="78">
-        <v>0</v>
-      </c>
-      <c r="I22" s="10"/>
-    </row>
-    <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="87"/>
-      <c r="B23" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="C23" s="75">
-        <v>29</v>
-      </c>
-      <c r="D23" s="69">
-        <v>11</v>
-      </c>
-      <c r="E23" s="69">
-        <v>71</v>
-      </c>
-      <c r="F23" s="81">
+      <c r="F23" s="74">
         <v>2.7770000000000001</v>
       </c>
-      <c r="G23" s="78">
+      <c r="G23" s="71">
         <v>5.4999999999999997E-3</v>
       </c>
       <c r="I23" s="10"/>
@@ -3172,99 +4389,99 @@
     <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="71"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="79"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="64"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="75"/>
+      <c r="G24" s="72"/>
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="87" t="s">
-        <v>30</v>
+      <c r="A25" s="94" t="s">
+        <v>25</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="75">
+        <v>66</v>
+      </c>
+      <c r="C25" s="68">
         <v>71</v>
       </c>
-      <c r="D25" s="69">
+      <c r="D25" s="62">
         <v>10</v>
       </c>
-      <c r="E25" s="69">
+      <c r="E25" s="62">
         <v>31</v>
       </c>
-      <c r="F25" s="81">
+      <c r="F25" s="74">
         <v>6.8680000000000003</v>
       </c>
-      <c r="G25" s="78">
+      <c r="G25" s="71">
         <v>0</v>
       </c>
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="87"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="75">
+        <v>67</v>
+      </c>
+      <c r="C26" s="68">
         <v>69</v>
       </c>
-      <c r="D26" s="69">
+      <c r="D26" s="62">
         <v>10</v>
       </c>
-      <c r="E26" s="69">
+      <c r="E26" s="62">
         <v>33</v>
       </c>
-      <c r="F26" s="81">
+      <c r="F26" s="74">
         <v>6.423</v>
       </c>
-      <c r="G26" s="78">
+      <c r="G26" s="71">
         <v>0</v>
       </c>
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="87"/>
+      <c r="A27" s="94"/>
       <c r="B27" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="75">
+        <v>68</v>
+      </c>
+      <c r="C27" s="68">
         <v>60</v>
       </c>
-      <c r="D27" s="69">
+      <c r="D27" s="62">
         <v>21</v>
       </c>
-      <c r="E27" s="69">
+      <c r="E27" s="62">
         <v>31</v>
       </c>
-      <c r="F27" s="81">
+      <c r="F27" s="74">
         <v>4.452</v>
       </c>
-      <c r="G27" s="78">
+      <c r="G27" s="71">
         <v>0</v>
       </c>
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="87"/>
+      <c r="A28" s="94"/>
       <c r="B28" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C28" s="75">
+        <v>69</v>
+      </c>
+      <c r="C28" s="68">
         <v>57</v>
       </c>
-      <c r="D28" s="69">
+      <c r="D28" s="62">
         <v>14</v>
       </c>
-      <c r="E28" s="69">
+      <c r="E28" s="62">
         <v>41</v>
       </c>
-      <c r="F28" s="81">
+      <c r="F28" s="74">
         <v>5.3719999999999999</v>
       </c>
-      <c r="G28" s="78">
+      <c r="G28" s="71">
         <v>0</v>
       </c>
       <c r="I28" s="10"/>
@@ -3299,179 +4516,179 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
+      <c r="A1" s="101" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="101"/>
+      <c r="D1" s="101"/>
+      <c r="E1" s="101"/>
+      <c r="F1" s="101"/>
     </row>
     <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="59"/>
-      <c r="B3" s="100" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="101"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="103" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="103" t="s">
-        <v>50</v>
+      <c r="A3" s="52"/>
+      <c r="B3" s="115" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="116"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="118" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="118" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2"/>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="119"/>
+      <c r="F4" s="119"/>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="73" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="73" t="s">
-        <v>48</v>
-      </c>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-    </row>
-    <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="57" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="75">
+      <c r="B5" s="68">
         <v>27</v>
       </c>
-      <c r="C5" s="69">
+      <c r="C5" s="62">
         <v>7</v>
       </c>
-      <c r="D5" s="69">
+      <c r="D5" s="62">
         <v>79</v>
       </c>
-      <c r="E5" s="81">
+      <c r="E5" s="74">
         <v>3.4630000000000001</v>
       </c>
-      <c r="F5" s="78">
+      <c r="F5" s="71">
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="H5" s="10"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
-      <c r="B6" s="76"/>
-      <c r="C6" s="71"/>
-      <c r="D6" s="70"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="79"/>
+      <c r="B6" s="69"/>
+      <c r="C6" s="64"/>
+      <c r="D6" s="63"/>
+      <c r="E6" s="75"/>
+      <c r="F6" s="72"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="57" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="75">
+      <c r="A7" s="50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="68">
         <v>74</v>
       </c>
-      <c r="C7" s="69">
+      <c r="C7" s="62">
         <v>13</v>
       </c>
-      <c r="D7" s="69">
+      <c r="D7" s="62">
         <v>25</v>
       </c>
-      <c r="E7" s="81">
+      <c r="E7" s="74">
         <v>6.9089999999999998</v>
       </c>
-      <c r="F7" s="78">
+      <c r="F7" s="71">
         <v>0</v>
       </c>
       <c r="H7" s="10"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="79"/>
+      <c r="B8" s="69"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="63"/>
+      <c r="E8" s="75"/>
+      <c r="F8" s="72"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B9" s="75">
+      <c r="A9" s="50" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="68">
         <v>41</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="62">
         <v>10</v>
       </c>
-      <c r="D9" s="69">
+      <c r="D9" s="62">
         <v>61</v>
       </c>
-      <c r="E9" s="81">
+      <c r="E9" s="74">
         <v>4.3789999999999996</v>
       </c>
-      <c r="F9" s="78">
+      <c r="F9" s="71">
         <v>0</v>
       </c>
       <c r="H9" s="10"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="71"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="72"/>
       <c r="H10" s="10"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="75">
+      <c r="A11" s="50" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="68">
         <v>79</v>
       </c>
-      <c r="C11" s="69">
+      <c r="C11" s="62">
         <v>6</v>
       </c>
-      <c r="D11" s="69">
+      <c r="D11" s="62">
         <v>27</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E11" s="74">
         <v>7.8230000000000004</v>
       </c>
-      <c r="F11" s="78">
+      <c r="F11" s="71">
         <v>0</v>
       </c>
       <c r="H11" s="10"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="71"/>
-      <c r="D12" s="70"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="79"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="72"/>
       <c r="H12" s="10"/>
     </row>
     <row r="13" spans="1:8" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="67" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="78"/>
+      <c r="A13" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="68"/>
+      <c r="C13" s="62"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="74"/>
+      <c r="F13" s="71"/>
       <c r="H13" s="10"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="9"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="80"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="76"/>
+      <c r="F14" s="73"/>
       <c r="H14" s="10"/>
     </row>
   </sheetData>
@@ -3490,44 +4707,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="37.81640625" customWidth="1"/>
+    <col min="1" max="1" width="29.54296875" customWidth="1"/>
     <col min="6" max="6" width="10.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="105" t="s">
-        <v>52</v>
-      </c>
-      <c r="B2" s="106"/>
-      <c r="C2" s="106"/>
-      <c r="D2" s="106"/>
-      <c r="E2" s="106"/>
-      <c r="F2" s="106"/>
-      <c r="G2" s="106"/>
-      <c r="H2" s="106"/>
+    <row r="2" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="120" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="95"/>
-      <c r="B3" s="107" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="107" t="s">
-        <v>34</v>
-      </c>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="122" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="122"/>
+      <c r="D3" s="122" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="122"/>
+      <c r="F3" s="123"/>
+      <c r="G3" s="123"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="95"/>
+      <c r="A4" s="102"/>
       <c r="B4" s="21"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -3537,152 +4754,152 @@
       <c r="H4" s="1"/>
     </row>
     <row r="5" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="53" t="s">
+      <c r="A5" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="126" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="127" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="128" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="129" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="128" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" s="129" t="s">
+        <v>26</v>
+      </c>
+      <c r="H5" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="51" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
-        <v>1</v>
-      </c>
-      <c r="B6" s="40">
+      <c r="A6" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B6" s="37">
         <v>91.74</v>
       </c>
-      <c r="C6" s="41">
+      <c r="C6" s="38">
         <v>13.99</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="39">
         <v>96.87</v>
       </c>
-      <c r="E6" s="43">
+      <c r="E6" s="40">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="39">
         <v>5.13</v>
       </c>
-      <c r="G6" s="84">
+      <c r="G6" s="77">
         <v>3.7008999999999999</v>
       </c>
-      <c r="H6" s="41"/>
+      <c r="H6" s="124"/>
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
-        <v>3</v>
-      </c>
-      <c r="B7" s="34">
+      <c r="A7" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="32">
         <v>59.21</v>
       </c>
-      <c r="C7" s="35">
+      <c r="C7" s="33">
         <v>23.89</v>
       </c>
-      <c r="D7" s="86">
+      <c r="D7" s="79">
         <v>77.92</v>
       </c>
-      <c r="E7" s="35">
+      <c r="E7" s="33">
         <v>17.66</v>
       </c>
-      <c r="F7" s="86">
+      <c r="F7" s="79">
         <v>18.7</v>
       </c>
-      <c r="G7" s="84">
+      <c r="G7" s="77">
         <v>8.6056000000000008</v>
       </c>
-      <c r="H7" s="41"/>
+      <c r="H7" s="124"/>
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
-        <v>4</v>
-      </c>
-      <c r="B8" s="34">
+      <c r="A8" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="32">
         <v>79.91</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="33">
         <v>15.68</v>
       </c>
-      <c r="D8" s="86">
+      <c r="D8" s="79">
         <v>87.5</v>
       </c>
-      <c r="E8" s="35">
+      <c r="E8" s="33">
         <v>12.99</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="39">
         <v>7.58</v>
       </c>
-      <c r="G8" s="84">
+      <c r="G8" s="77">
         <v>4.8022999999999998</v>
       </c>
-      <c r="H8" s="41"/>
+      <c r="H8" s="124"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
-        <v>17</v>
-      </c>
-      <c r="B9" s="34">
+      <c r="A9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="32">
         <v>39.28</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="33">
         <v>22.93</v>
       </c>
-      <c r="D9" s="86">
+      <c r="D9" s="79">
         <v>65.84</v>
       </c>
-      <c r="E9" s="35">
+      <c r="E9" s="33">
         <v>23.72</v>
       </c>
-      <c r="F9" s="86">
+      <c r="F9" s="79">
         <v>26.56</v>
       </c>
-      <c r="G9" s="84">
+      <c r="G9" s="77">
         <v>11.1661</v>
       </c>
-      <c r="H9" s="41"/>
+      <c r="H9" s="124"/>
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="41"/>
+        <v>88</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="77"/>
+      <c r="H10" s="124"/>
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="9"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="45"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="43"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="125"/>
       <c r="J11" s="10"/>
     </row>
   </sheetData>
@@ -3700,227 +4917,581 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="37.81640625" customWidth="1"/>
+    <col min="1" max="1" width="14.08984375" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="5" width="11.90625" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="109" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="101" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C3" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+    </row>
+    <row r="4" spans="1:7" s="93" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="111"/>
-    </row>
-    <row r="2" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="28" t="s">
+      <c r="B4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>190</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>192</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>197</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="87" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="34">
-        <v>91.74</v>
-      </c>
-      <c r="D3" s="35">
-        <v>13.99</v>
-      </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="96"/>
-      <c r="B4" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="34">
-        <v>96.87</v>
-      </c>
-      <c r="D4" s="35">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="96"/>
       <c r="B5" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="34">
-        <v>5.13</v>
-      </c>
-      <c r="D5" s="35">
-        <v>14.68</v>
-      </c>
-      <c r="F5" s="10"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="37"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="87" t="s">
-        <v>28</v>
+      <c r="C6" s="87"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+    </row>
+    <row r="7" spans="1:7" ht="23" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="80" t="s">
+        <v>23</v>
       </c>
       <c r="B7" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="85"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+    </row>
+    <row r="9" spans="1:7" ht="22" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="80" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="34">
-        <v>59.21</v>
-      </c>
-      <c r="D7" s="35">
-        <v>23.89</v>
-      </c>
-      <c r="F7" s="10"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="96"/>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="34">
-        <v>77.92</v>
-      </c>
-      <c r="D8" s="35">
-        <v>17.66</v>
-      </c>
-      <c r="F8" s="10"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="96"/>
       <c r="B9" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="34">
-        <v>18.7</v>
-      </c>
-      <c r="D9" s="35">
-        <v>14.39</v>
-      </c>
-      <c r="F9" s="10"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+        <v>194</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A11" s="87" t="s">
-        <v>29</v>
+      <c r="C10" s="87"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+    </row>
+    <row r="11" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="110" t="s">
+        <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="85"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="112"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.08984375" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="5" width="11.90625" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="101" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C3" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+    </row>
+    <row r="4" spans="1:7" s="93" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="103" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+    </row>
+    <row r="6" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="103"/>
+      <c r="B6" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C6" s="85"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+    </row>
+    <row r="7" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="103"/>
+      <c r="B7" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C7" s="85"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+    </row>
+    <row r="9" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+    </row>
+    <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="94"/>
+      <c r="B10" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C10" s="85"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
+    </row>
+    <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="94"/>
+      <c r="B11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C11" s="85"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="87"/>
+      <c r="D12" s="86"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="86"/>
+    </row>
+    <row r="13" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="94" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="34">
-        <v>79.91</v>
-      </c>
-      <c r="D11" s="35">
-        <v>15.68</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A12" s="96"/>
-      <c r="B12" s="7" t="s">
+      <c r="B13" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C13" s="85"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="79"/>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="95"/>
+      <c r="B14" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C14" s="85"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="79"/>
+    </row>
+    <row r="15" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="95"/>
+      <c r="B15" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C15" s="85"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="79"/>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="86"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="86"/>
+    </row>
+    <row r="17" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="110" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" s="85"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+    </row>
+    <row r="18" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="111"/>
+      <c r="B18" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="C18" s="85"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="79"/>
+    </row>
+    <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="111"/>
+      <c r="B19" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="C19" s="85"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="112"/>
+      <c r="B20" s="92"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="35"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A17:A20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.08984375" customWidth="1"/>
+    <col min="2" max="2" width="57.54296875" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="5" width="11.90625" customWidth="1"/>
+    <col min="6" max="6" width="13.1796875" customWidth="1"/>
+    <col min="7" max="7" width="12.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="101" t="s">
+        <v>206</v>
+      </c>
+      <c r="B1" s="101"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="109"/>
+      <c r="G1" s="109"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="81"/>
+      <c r="B2" s="81"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="C3" s="107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="108"/>
+      <c r="E3" s="108"/>
+      <c r="F3" s="108"/>
+      <c r="G3" s="108"/>
+    </row>
+    <row r="4" spans="1:7" s="93" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="84" t="s">
+        <v>200</v>
+      </c>
+      <c r="D4" s="84" t="s">
+        <v>201</v>
+      </c>
+      <c r="E4" s="84" t="s">
+        <v>202</v>
+      </c>
+      <c r="F4" s="84" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="84" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C5" s="85"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="87"/>
+      <c r="D6" s="86"/>
+      <c r="E6" s="86"/>
+      <c r="F6" s="86"/>
+      <c r="G6" s="86"/>
+    </row>
+    <row r="7" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="34">
-        <v>87.5</v>
-      </c>
-      <c r="D12" s="35">
-        <v>12.99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A13" s="96"/>
-      <c r="B13" s="7" t="s">
+      <c r="B7" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="85"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="86"/>
+      <c r="E8" s="86"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+    </row>
+    <row r="9" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="80" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C9" s="85"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="87"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+    </row>
+    <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="123" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="34">
-        <v>7.58</v>
-      </c>
-      <c r="D13" s="35">
-        <v>16.72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="37"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A15" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" s="34">
-        <v>39.28</v>
-      </c>
-      <c r="D15" s="35">
-        <v>22.93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A16" s="96"/>
-      <c r="B16" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="34">
-        <v>65.84</v>
-      </c>
-      <c r="D16" s="35">
-        <v>23.72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="96"/>
-      <c r="B17" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" s="34">
-        <v>26.56</v>
-      </c>
-      <c r="D17" s="35">
-        <v>25.17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="9"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="39"/>
+      <c r="B11" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="C11" s="85"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="79"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="149"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A11:A13"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="A11:A12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/output/chips_analysis_tables.xlsx
+++ b/output/chips_analysis_tables.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10610" firstSheet="8" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10610" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Respondent Characteristics" sheetId="6" r:id="rId1"/>
@@ -1270,68 +1270,143 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1355,81 +1430,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="4"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1733,12 +1733,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="105"/>
+      <c r="B1" s="123"/>
+      <c r="C1" s="123"/>
+      <c r="D1" s="124"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="47"/>
@@ -1747,16 +1747,16 @@
       <c r="D2" s="49"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A3" s="102"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="98" t="s">
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="100"/>
+      <c r="D3" s="128"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A4" s="102"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="1"/>
       <c r="D4" s="18"/>
     </row>
@@ -1771,7 +1771,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="119" t="s">
         <v>36</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -1785,7 +1785,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A7" s="95"/>
+      <c r="A7" s="121"/>
       <c r="B7" s="7" t="s">
         <v>1</v>
       </c>
@@ -1797,7 +1797,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="106"/>
+      <c r="A8" s="129"/>
       <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
@@ -1809,7 +1809,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A9" s="106"/>
+      <c r="A9" s="129"/>
       <c r="B9" s="28"/>
       <c r="C9" s="53">
         <f>SUM(C6:C8)</f>
@@ -1827,7 +1827,7 @@
       <c r="D10" s="57"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="119" t="s">
         <v>9</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1842,7 +1842,7 @@
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="103"/>
+      <c r="A12" s="120"/>
       <c r="B12" s="7" t="s">
         <v>6</v>
       </c>
@@ -1855,7 +1855,7 @@
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="103"/>
+      <c r="A13" s="120"/>
       <c r="B13" s="7" t="s">
         <v>7</v>
       </c>
@@ -1867,7 +1867,7 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="103"/>
+      <c r="A14" s="120"/>
       <c r="B14" s="7" t="s">
         <v>8</v>
       </c>
@@ -1880,27 +1880,27 @@
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="103"/>
-      <c r="B15" s="137" t="s">
+      <c r="A15" s="120"/>
+      <c r="B15" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="138">
+      <c r="C15" s="108">
         <v>62</v>
       </c>
-      <c r="D15" s="139">
+      <c r="D15" s="109">
         <v>0.55359999999999998</v>
       </c>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="103"/>
-      <c r="B16" s="131" t="s">
+      <c r="A16" s="120"/>
+      <c r="B16" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="135">
+      <c r="C16" s="105">
         <v>2</v>
       </c>
-      <c r="D16" s="136">
+      <c r="D16" s="106">
         <v>1.7899999999999999E-2</v>
       </c>
       <c r="F16" s="10"/>
@@ -1925,7 +1925,7 @@
       <c r="D18" s="31"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="119" t="s">
         <v>18</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -1940,7 +1940,7 @@
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="95"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="7" t="s">
         <v>20</v>
       </c>
@@ -1973,7 +1973,7 @@
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="119" t="s">
         <v>17</v>
       </c>
       <c r="B23" s="7" t="s">
@@ -1988,7 +1988,7 @@
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="95"/>
+      <c r="A24" s="121"/>
       <c r="B24" s="7" t="s">
         <v>13</v>
       </c>
@@ -2001,7 +2001,7 @@
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="95"/>
+      <c r="A25" s="121"/>
       <c r="B25" s="7" t="s">
         <v>14</v>
       </c>
@@ -2014,7 +2014,7 @@
       <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="95"/>
+      <c r="A26" s="121"/>
       <c r="B26" s="7" t="s">
         <v>16</v>
       </c>
@@ -2027,7 +2027,7 @@
       <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="95"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="7" t="s">
         <v>15</v>
       </c>
@@ -2072,7 +2072,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2087,28 +2087,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="122" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="81"/>
       <c r="B2" s="81"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
     </row>
     <row r="4" spans="1:7" s="93" customFormat="1" ht="43" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -2142,9 +2142,15 @@
       </c>
       <c r="C5" s="89"/>
       <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
+      <c r="E5" s="90">
+        <v>1</v>
+      </c>
+      <c r="F5" s="90">
+        <v>48</v>
+      </c>
+      <c r="G5" s="90">
+        <v>55</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
@@ -2162,11 +2168,19 @@
       <c r="B7" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="C7" s="85"/>
+      <c r="C7" s="85">
+        <v>1</v>
+      </c>
       <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
+      <c r="E7" s="79">
+        <v>5</v>
+      </c>
+      <c r="F7" s="79">
+        <v>47</v>
+      </c>
+      <c r="G7" s="79">
+        <v>54</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -2186,9 +2200,15 @@
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
+      <c r="E9" s="79">
+        <v>1</v>
+      </c>
+      <c r="F9" s="79">
+        <v>47</v>
+      </c>
+      <c r="G9" s="79">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
@@ -2200,7 +2220,7 @@
       <c r="G10" s="86"/>
     </row>
     <row r="11" spans="1:7" ht="30.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="132" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2208,12 +2228,18 @@
       </c>
       <c r="C11" s="85"/>
       <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
+      <c r="E11" s="79">
+        <v>2</v>
+      </c>
+      <c r="F11" s="79">
+        <v>49</v>
+      </c>
+      <c r="G11" s="79">
+        <v>57</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="112"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="92"/>
       <c r="C12" s="88"/>
       <c r="D12" s="35"/>
@@ -2236,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2249,22 +2275,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="122" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="81"/>
       <c r="B2" s="81"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="108"/>
+      <c r="D3" s="135"/>
     </row>
     <row r="4" spans="1:4" s="93" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -2273,29 +2299,33 @@
       <c r="B4" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="130" t="s">
+      <c r="C4" s="100" t="s">
         <v>215</v>
       </c>
-      <c r="D4" s="130" t="s">
+      <c r="D4" s="100" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="120" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C5" s="85"/>
+      <c r="C5" s="85">
+        <v>106</v>
+      </c>
       <c r="D5" s="91"/>
     </row>
     <row r="6" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="103"/>
+      <c r="A6" s="120"/>
       <c r="B6" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="85">
+        <v>106</v>
+      </c>
       <c r="D6" s="33"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -2305,21 +2335,25 @@
       <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="94" t="s">
+      <c r="A8" s="119" t="s">
         <v>23</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C8" s="85"/>
+      <c r="C8" s="85">
+        <v>106</v>
+      </c>
       <c r="D8" s="33"/>
     </row>
     <row r="9" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="94"/>
+      <c r="A9" s="119"/>
       <c r="B9" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C9" s="85"/>
+      <c r="C9" s="85">
+        <v>106</v>
+      </c>
       <c r="D9" s="33"/>
     </row>
     <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2329,21 +2363,25 @@
       <c r="D10" s="34"/>
     </row>
     <row r="11" spans="1:4" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="94" t="s">
+      <c r="A11" s="119" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C11" s="85"/>
+      <c r="C11" s="85">
+        <v>101</v>
+      </c>
       <c r="D11" s="33"/>
     </row>
     <row r="12" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="95"/>
+      <c r="A12" s="121"/>
       <c r="B12" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C12" s="85"/>
+      <c r="C12" s="85">
+        <v>102</v>
+      </c>
       <c r="D12" s="33"/>
     </row>
     <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
@@ -2353,37 +2391,41 @@
       <c r="D13" s="34"/>
     </row>
     <row r="14" spans="1:4" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="110" t="s">
+      <c r="A14" s="132" t="s">
         <v>25</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C14" s="85"/>
+      <c r="C14" s="85">
+        <v>107</v>
+      </c>
       <c r="D14" s="33"/>
     </row>
     <row r="15" spans="1:4" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="111"/>
+      <c r="A15" s="133"/>
       <c r="B15" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="C15" s="85"/>
+      <c r="C15" s="85">
+        <v>108</v>
+      </c>
       <c r="D15" s="33"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="112"/>
+      <c r="A16" s="134"/>
       <c r="B16" s="92"/>
       <c r="C16" s="88"/>
       <c r="D16" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A14:A16"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A14:A16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2405,42 +2447,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="122" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A3" s="102"/>
-      <c r="B3" s="96"/>
-      <c r="C3" s="97" t="s">
+      <c r="A3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="98"/>
-      <c r="E3" s="99" t="s">
+      <c r="D3" s="127"/>
+      <c r="E3" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="100"/>
-      <c r="G3" s="99" t="s">
+      <c r="F3" s="128"/>
+      <c r="G3" s="131" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="100"/>
-      <c r="I3" s="98" t="s">
+      <c r="H3" s="128"/>
+      <c r="I3" s="127" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="100"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A4" s="102"/>
-      <c r="B4" s="96"/>
+      <c r="A4" s="125"/>
+      <c r="B4" s="126"/>
       <c r="C4" s="21"/>
       <c r="D4" s="1"/>
       <c r="E4" s="17"/>
@@ -2479,7 +2521,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="119" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="7" t="s">
@@ -2514,7 +2556,7 @@
       <c r="L6" s="10"/>
     </row>
     <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="103"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="7" t="s">
         <v>6</v>
       </c>
@@ -2547,7 +2589,7 @@
       <c r="L7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="103"/>
+      <c r="A8" s="120"/>
       <c r="B8" s="7" t="s">
         <v>7</v>
       </c>
@@ -2579,7 +2621,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="103"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="7" t="s">
         <v>8</v>
       </c>
@@ -2612,66 +2654,66 @@
       <c r="L9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="103"/>
-      <c r="B10" s="137" t="s">
+      <c r="A10" s="120"/>
+      <c r="B10" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="138">
+      <c r="C10" s="108">
         <v>27</v>
       </c>
-      <c r="D10" s="140">
+      <c r="D10" s="110">
         <v>0.4355</v>
       </c>
-      <c r="E10" s="141">
+      <c r="E10" s="111">
         <v>22</v>
       </c>
-      <c r="F10" s="139">
+      <c r="F10" s="109">
         <v>0.3548</v>
       </c>
-      <c r="G10" s="141">
+      <c r="G10" s="111">
         <v>13</v>
       </c>
-      <c r="H10" s="139">
+      <c r="H10" s="109">
         <v>0.2097</v>
       </c>
-      <c r="I10" s="142">
+      <c r="I10" s="112">
         <f t="shared" ref="I10" si="2">C10+E10+G10</f>
         <v>62</v>
       </c>
-      <c r="J10" s="143">
+      <c r="J10" s="113">
         <f t="shared" ref="J10" si="3">D10+F10+H10</f>
         <v>1</v>
       </c>
       <c r="L10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="103"/>
-      <c r="B11" s="131" t="s">
+      <c r="A11" s="120"/>
+      <c r="B11" s="101" t="s">
         <v>35</v>
       </c>
-      <c r="C11" s="135">
+      <c r="C11" s="105">
         <v>2</v>
       </c>
-      <c r="D11" s="144">
+      <c r="D11" s="114">
         <v>1</v>
       </c>
-      <c r="E11" s="145">
+      <c r="E11" s="115">
         <v>0</v>
       </c>
-      <c r="F11" s="136">
+      <c r="F11" s="106">
         <v>0</v>
       </c>
-      <c r="G11" s="145">
+      <c r="G11" s="115">
         <v>0</v>
       </c>
-      <c r="H11" s="136">
+      <c r="H11" s="106">
         <v>0</v>
       </c>
-      <c r="I11" s="146">
+      <c r="I11" s="116">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="J11" s="147">
+      <c r="J11" s="117">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -2690,7 +2732,7 @@
       <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="119" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2725,7 +2767,7 @@
       <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="95"/>
+      <c r="A14" s="121"/>
       <c r="B14" s="7" t="s">
         <v>20</v>
       </c>
@@ -2771,7 +2813,7 @@
       <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="94" t="s">
+      <c r="A16" s="119" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="7" t="s">
@@ -2806,7 +2848,7 @@
       <c r="L16" s="10"/>
     </row>
     <row r="17" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="95"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="7" t="s">
         <v>13</v>
       </c>
@@ -2838,7 +2880,7 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="95"/>
+      <c r="A18" s="121"/>
       <c r="B18" s="7" t="s">
         <v>14</v>
       </c>
@@ -2871,7 +2913,7 @@
       <c r="L18" s="10"/>
     </row>
     <row r="19" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="95"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="7" t="s">
         <v>16</v>
       </c>
@@ -2904,7 +2946,7 @@
       <c r="L19" s="10"/>
     </row>
     <row r="20" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="95"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="7" t="s">
         <v>15</v>
       </c>
@@ -2971,17 +3013,17 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.08984375" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
     <col min="2" max="2" width="57.54296875" customWidth="1"/>
     <col min="3" max="3" width="14.81640625" customWidth="1"/>
     <col min="4" max="4" width="15.36328125" customWidth="1"/>
     <col min="5" max="5" width="11.81640625" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" customWidth="1"/>
+    <col min="6" max="6" width="13.08984375" customWidth="1"/>
     <col min="7" max="7" width="12.36328125" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
     <col min="9" max="9" width="11.90625" customWidth="1"/>
@@ -2990,20 +3032,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="122" t="s">
         <v>182</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="109"/>
-      <c r="I1" s="109"/>
-      <c r="J1" s="109"/>
-      <c r="K1" s="109"/>
-      <c r="L1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="139"/>
+      <c r="I1" s="139"/>
+      <c r="J1" s="139"/>
+      <c r="K1" s="139"/>
+      <c r="L1" s="139"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="61"/>
@@ -3015,20 +3057,20 @@
       <c r="G2" s="61"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="135" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="113"/>
-      <c r="E3" s="113"/>
-      <c r="F3" s="113"/>
-      <c r="G3" s="114"/>
-      <c r="H3" s="107" t="s">
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="108"/>
-      <c r="J3" s="108"/>
-      <c r="K3" s="108"/>
-      <c r="L3" s="108"/>
+      <c r="I3" s="135"/>
+      <c r="J3" s="135"/>
+      <c r="K3" s="135"/>
+      <c r="L3" s="135"/>
     </row>
     <row r="4" spans="1:12" s="83" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -3069,7 +3111,7 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="119" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -3107,7 +3149,7 @@
       </c>
     </row>
     <row r="6" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="103"/>
+      <c r="A6" s="120"/>
       <c r="B6" s="7" t="s">
         <v>51</v>
       </c>
@@ -3143,7 +3185,7 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="103"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="7" t="s">
         <v>52</v>
       </c>
@@ -3179,7 +3221,7 @@
       </c>
     </row>
     <row r="8" spans="1:12" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="103"/>
+      <c r="A8" s="120"/>
       <c r="B8" s="7" t="s">
         <v>53</v>
       </c>
@@ -3215,7 +3257,7 @@
       </c>
     </row>
     <row r="9" spans="1:12" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="103"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="7" t="s">
         <v>54</v>
       </c>
@@ -3251,7 +3293,7 @@
       </c>
     </row>
     <row r="10" spans="1:12" ht="35.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="103"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="7" t="s">
         <v>55</v>
       </c>
@@ -3288,29 +3330,29 @@
     </row>
     <row r="11" spans="1:12" ht="24.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="82"/>
-      <c r="B11" s="131"/>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132" t="s">
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="102" t="s">
         <v>111</v>
       </c>
-      <c r="E11" s="133" t="s">
+      <c r="E11" s="103" t="s">
         <v>112</v>
       </c>
-      <c r="F11" s="133" t="s">
+      <c r="F11" s="103" t="s">
         <v>113</v>
       </c>
-      <c r="G11" s="133" t="s">
+      <c r="G11" s="103" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="132"/>
-      <c r="I11" s="133"/>
-      <c r="J11" s="133" t="s">
+      <c r="H11" s="102"/>
+      <c r="I11" s="103"/>
+      <c r="J11" s="103" t="s">
         <v>157</v>
       </c>
-      <c r="K11" s="133" t="s">
+      <c r="K11" s="103" t="s">
         <v>158</v>
       </c>
-      <c r="L11" s="134" t="s">
+      <c r="L11" s="104" t="s">
         <v>159</v>
       </c>
     </row>
@@ -3329,7 +3371,7 @@
       <c r="L12" s="34"/>
     </row>
     <row r="13" spans="1:12" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="119" t="s">
         <v>23</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -3367,7 +3409,7 @@
       </c>
     </row>
     <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="94"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="7" t="s">
         <v>57</v>
       </c>
@@ -3403,7 +3445,7 @@
       </c>
     </row>
     <row r="15" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="94"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="7" t="s">
         <v>58</v>
       </c>
@@ -3439,7 +3481,7 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="94"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="7" t="s">
         <v>59</v>
       </c>
@@ -3475,7 +3517,7 @@
       </c>
     </row>
     <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
-      <c r="A17" s="94"/>
+      <c r="A17" s="119"/>
       <c r="B17" s="7" t="s">
         <v>60</v>
       </c>
@@ -3525,7 +3567,7 @@
       <c r="L18" s="34"/>
     </row>
     <row r="19" spans="1:12" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="94" t="s">
+      <c r="A19" s="119" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="7" t="s">
@@ -3563,7 +3605,7 @@
       </c>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="95"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="7" t="s">
         <v>61</v>
       </c>
@@ -3599,7 +3641,7 @@
       </c>
     </row>
     <row r="21" spans="1:12" ht="47" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="95"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="7" t="s">
         <v>77</v>
       </c>
@@ -3635,7 +3677,7 @@
       </c>
     </row>
     <row r="22" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="95"/>
+      <c r="A22" s="121"/>
       <c r="B22" s="7" t="s">
         <v>63</v>
       </c>
@@ -3671,7 +3713,7 @@
       </c>
     </row>
     <row r="23" spans="1:12" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="95"/>
+      <c r="A23" s="121"/>
       <c r="B23" s="7" t="s">
         <v>64</v>
       </c>
@@ -3707,7 +3749,7 @@
       </c>
     </row>
     <row r="24" spans="1:12" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="95"/>
+      <c r="A24" s="121"/>
       <c r="B24" s="7" t="s">
         <v>65</v>
       </c>
@@ -3726,7 +3768,7 @@
       <c r="G24" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="H24" s="148" t="s">
+      <c r="H24" s="118" t="s">
         <v>183</v>
       </c>
       <c r="I24" s="85" t="s">
@@ -3757,7 +3799,7 @@
       <c r="L25" s="34"/>
     </row>
     <row r="26" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="132" t="s">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
@@ -3795,7 +3837,7 @@
       </c>
     </row>
     <row r="27" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="111"/>
+      <c r="A27" s="133"/>
       <c r="B27" s="7" t="s">
         <v>67</v>
       </c>
@@ -3831,7 +3873,7 @@
       </c>
     </row>
     <row r="28" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="111"/>
+      <c r="A28" s="133"/>
       <c r="B28" s="7" t="s">
         <v>68</v>
       </c>
@@ -3867,7 +3909,7 @@
       </c>
     </row>
     <row r="29" spans="1:12" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="111"/>
+      <c r="A29" s="133"/>
       <c r="B29" s="7" t="s">
         <v>78</v>
       </c>
@@ -3903,7 +3945,7 @@
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A30" s="112"/>
+      <c r="A30" s="134"/>
       <c r="B30" s="9"/>
       <c r="C30" s="88"/>
       <c r="D30" s="35"/>
@@ -3946,28 +3988,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="122" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
     </row>
     <row r="3" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="52"/>
       <c r="B3" s="51"/>
-      <c r="C3" s="115" t="s">
+      <c r="C3" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="116"/>
-      <c r="E3" s="117"/>
-      <c r="F3" s="118" t="s">
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="118" t="s">
+      <c r="G3" s="143" t="s">
         <v>43</v>
       </c>
     </row>
@@ -3985,11 +4027,11 @@
       <c r="E4" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
+      <c r="F4" s="144"/>
+      <c r="G4" s="144"/>
     </row>
     <row r="5" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="119" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -4013,7 +4055,7 @@
       <c r="I5" s="10"/>
     </row>
     <row r="6" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="103"/>
+      <c r="A6" s="120"/>
       <c r="B6" s="7" t="s">
         <v>79</v>
       </c>
@@ -4035,7 +4077,7 @@
       <c r="I6" s="10"/>
     </row>
     <row r="7" spans="1:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="103"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="7" t="s">
         <v>52</v>
       </c>
@@ -4056,7 +4098,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="103"/>
+      <c r="A8" s="120"/>
       <c r="B8" s="7" t="s">
         <v>53</v>
       </c>
@@ -4078,7 +4120,7 @@
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="103"/>
+      <c r="A9" s="120"/>
       <c r="B9" s="7" t="s">
         <v>54</v>
       </c>
@@ -4100,7 +4142,7 @@
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="103"/>
+      <c r="A10" s="120"/>
       <c r="B10" s="7" t="s">
         <v>55</v>
       </c>
@@ -4131,7 +4173,7 @@
       <c r="G11" s="72"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="94" t="s">
+      <c r="A12" s="119" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="7" t="s">
@@ -4155,7 +4197,7 @@
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="94"/>
+      <c r="A13" s="119"/>
       <c r="B13" s="7" t="s">
         <v>57</v>
       </c>
@@ -4177,7 +4219,7 @@
       <c r="I13" s="10"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="94"/>
+      <c r="A14" s="119"/>
       <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
@@ -4199,7 +4241,7 @@
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A15" s="94"/>
+      <c r="A15" s="119"/>
       <c r="B15" s="7" t="s">
         <v>59</v>
       </c>
@@ -4221,7 +4263,7 @@
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="94"/>
+      <c r="A16" s="119"/>
       <c r="B16" s="7" t="s">
         <v>60</v>
       </c>
@@ -4253,7 +4295,7 @@
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="94" t="s">
+      <c r="A18" s="119" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="7" t="s">
@@ -4277,7 +4319,7 @@
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A19" s="94"/>
+      <c r="A19" s="119"/>
       <c r="B19" s="7" t="s">
         <v>82</v>
       </c>
@@ -4299,7 +4341,7 @@
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A20" s="94"/>
+      <c r="A20" s="119"/>
       <c r="B20" s="7" t="s">
         <v>81</v>
       </c>
@@ -4321,7 +4363,7 @@
       <c r="I20" s="10"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A21" s="94"/>
+      <c r="A21" s="119"/>
       <c r="B21" s="7" t="s">
         <v>63</v>
       </c>
@@ -4343,7 +4385,7 @@
       <c r="I21" s="10"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A22" s="94"/>
+      <c r="A22" s="119"/>
       <c r="B22" s="7" t="s">
         <v>64</v>
       </c>
@@ -4365,7 +4407,7 @@
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="29" x14ac:dyDescent="0.35">
-      <c r="A23" s="94"/>
+      <c r="A23" s="119"/>
       <c r="B23" s="7" t="s">
         <v>80</v>
       </c>
@@ -4397,7 +4439,7 @@
       <c r="I24" s="10"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A25" s="94" t="s">
+      <c r="A25" s="119" t="s">
         <v>25</v>
       </c>
       <c r="B25" s="7" t="s">
@@ -4421,7 +4463,7 @@
       <c r="I25" s="10"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A26" s="94"/>
+      <c r="A26" s="119"/>
       <c r="B26" s="7" t="s">
         <v>67</v>
       </c>
@@ -4443,7 +4485,7 @@
       <c r="I26" s="10"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A27" s="94"/>
+      <c r="A27" s="119"/>
       <c r="B27" s="7" t="s">
         <v>68</v>
       </c>
@@ -4465,7 +4507,7 @@
       <c r="I27" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A28" s="94"/>
+      <c r="A28" s="119"/>
       <c r="B28" s="7" t="s">
         <v>69</v>
       </c>
@@ -4507,7 +4549,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4516,26 +4558,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="122" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
     </row>
     <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="52"/>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="140" t="s">
         <v>38</v>
       </c>
-      <c r="C3" s="116"/>
-      <c r="D3" s="117"/>
-      <c r="E3" s="118" t="s">
+      <c r="C3" s="141"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="143" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="118" t="s">
+      <c r="F3" s="143" t="s">
         <v>43</v>
       </c>
     </row>
@@ -4550,8 +4592,8 @@
       <c r="D4" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="E4" s="119"/>
-      <c r="F4" s="119"/>
+      <c r="E4" s="144"/>
+      <c r="F4" s="144"/>
     </row>
     <row r="5" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
@@ -4708,7 +4750,7 @@
   <dimension ref="A2:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4718,33 +4760,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" s="45" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="145" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
+      <c r="E2" s="146"/>
+      <c r="F2" s="146"/>
+      <c r="G2" s="146"/>
+      <c r="H2" s="146"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="102"/>
-      <c r="B3" s="122" t="s">
+      <c r="A3" s="125"/>
+      <c r="B3" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122" t="s">
+      <c r="C3" s="147"/>
+      <c r="D3" s="147" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="122"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="148"/>
+      <c r="G3" s="148"/>
       <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="102"/>
+      <c r="A4" s="125"/>
       <c r="B4" s="21"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -4757,25 +4799,25 @@
       <c r="A5" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="126" t="s">
+      <c r="B5" s="96" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="127" t="s">
+      <c r="C5" s="97" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="128" t="s">
+      <c r="D5" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="99" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="128" t="s">
+      <c r="F5" s="98" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="129" t="s">
+      <c r="G5" s="99" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="130" t="s">
+      <c r="H5" s="100" t="s">
         <v>32</v>
       </c>
     </row>
@@ -4801,7 +4843,7 @@
       <c r="G6" s="77">
         <v>3.7008999999999999</v>
       </c>
-      <c r="H6" s="124"/>
+      <c r="H6" s="94"/>
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4826,7 +4868,7 @@
       <c r="G7" s="77">
         <v>8.6056000000000008</v>
       </c>
-      <c r="H7" s="124"/>
+      <c r="H7" s="94"/>
       <c r="J7" s="10"/>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -4851,7 +4893,7 @@
       <c r="G8" s="77">
         <v>4.8022999999999998</v>
       </c>
-      <c r="H8" s="124"/>
+      <c r="H8" s="94"/>
     </row>
     <row r="9" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
@@ -4875,7 +4917,7 @@
       <c r="G9" s="77">
         <v>11.1661</v>
       </c>
-      <c r="H9" s="124"/>
+      <c r="H9" s="94"/>
       <c r="J9" s="10"/>
     </row>
     <row r="10" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -4888,7 +4930,7 @@
       <c r="E10" s="40"/>
       <c r="F10" s="39"/>
       <c r="G10" s="77"/>
-      <c r="H10" s="124"/>
+      <c r="H10" s="94"/>
       <c r="J10" s="10"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
@@ -4899,7 +4941,7 @@
       <c r="E11" s="44"/>
       <c r="F11" s="43"/>
       <c r="G11" s="78"/>
-      <c r="H11" s="125"/>
+      <c r="H11" s="95"/>
       <c r="J11" s="10"/>
     </row>
   </sheetData>
@@ -4920,7 +4962,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4934,28 +4976,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="122" t="s">
         <v>196</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="81"/>
       <c r="B2" s="81"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
     </row>
     <row r="4" spans="1:7" s="93" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -4987,11 +5029,17 @@
       <c r="B5" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="89"/>
+      <c r="C5" s="89">
+        <v>2</v>
+      </c>
       <c r="D5" s="90"/>
       <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
+      <c r="F5" s="90">
+        <v>10</v>
+      </c>
+      <c r="G5" s="90">
+        <v>92</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
@@ -5012,8 +5060,12 @@
       <c r="C7" s="85"/>
       <c r="D7" s="79"/>
       <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
+      <c r="F7" s="79">
+        <v>16</v>
+      </c>
+      <c r="G7" s="79">
+        <v>91</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -5034,8 +5086,12 @@
       <c r="C9" s="85"/>
       <c r="D9" s="79"/>
       <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
+      <c r="F9" s="79">
+        <v>16</v>
+      </c>
+      <c r="G9" s="79">
+        <v>86</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
@@ -5047,7 +5103,7 @@
       <c r="G10" s="86"/>
     </row>
     <row r="11" spans="1:7" ht="19" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="132" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -5056,11 +5112,15 @@
       <c r="C11" s="85"/>
       <c r="D11" s="79"/>
       <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
+      <c r="F11" s="79">
+        <v>20</v>
+      </c>
+      <c r="G11" s="79">
+        <v>88</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A12" s="112"/>
+      <c r="A12" s="134"/>
       <c r="B12" s="92"/>
       <c r="C12" s="88"/>
       <c r="D12" s="35"/>
@@ -5083,8 +5143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5098,28 +5158,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="122" t="s">
         <v>204</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="81"/>
       <c r="B2" s="81"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
     </row>
     <row r="4" spans="1:7" s="93" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -5145,7 +5205,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="103" t="s">
+      <c r="A5" s="120" t="s">
         <v>21</v>
       </c>
       <c r="B5" s="7" t="s">
@@ -5153,31 +5213,53 @@
       </c>
       <c r="C5" s="85"/>
       <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
+      <c r="E5" s="79">
+        <v>1</v>
+      </c>
+      <c r="F5" s="79">
+        <v>52</v>
+      </c>
+      <c r="G5" s="79">
+        <v>52</v>
+      </c>
     </row>
     <row r="6" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="103"/>
+      <c r="A6" s="120"/>
       <c r="B6" s="7" t="s">
         <v>198</v>
       </c>
       <c r="C6" s="85"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="79"/>
-      <c r="G6" s="79"/>
+      <c r="D6" s="79">
+        <v>2</v>
+      </c>
+      <c r="E6" s="79">
+        <v>10</v>
+      </c>
+      <c r="F6" s="79">
+        <v>60</v>
+      </c>
+      <c r="G6" s="79">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="29" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="103"/>
+      <c r="A7" s="120"/>
       <c r="B7" s="7" t="s">
         <v>199</v>
       </c>
       <c r="C7" s="85"/>
-      <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
+      <c r="D7" s="79">
+        <v>2</v>
+      </c>
+      <c r="E7" s="79">
+        <v>8</v>
+      </c>
+      <c r="F7" s="79">
+        <v>60</v>
+      </c>
+      <c r="G7" s="79">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -5189,7 +5271,7 @@
       <c r="G8" s="86"/>
     </row>
     <row r="9" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="94" t="s">
+      <c r="A9" s="119" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="7" t="s">
@@ -5197,31 +5279,53 @@
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
+      <c r="E9" s="79">
+        <v>2</v>
+      </c>
+      <c r="F9" s="79">
+        <v>52</v>
+      </c>
+      <c r="G9" s="79">
+        <v>53</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="94"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="7" t="s">
         <v>198</v>
       </c>
       <c r="C10" s="85"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
+      <c r="D10" s="79">
+        <v>1</v>
+      </c>
+      <c r="E10" s="79">
+        <v>10</v>
+      </c>
+      <c r="F10" s="79">
+        <v>56</v>
+      </c>
+      <c r="G10" s="79">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="94"/>
+      <c r="A11" s="119"/>
       <c r="B11" s="7" t="s">
         <v>199</v>
       </c>
       <c r="C11" s="85"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
+      <c r="D11" s="79">
+        <v>2</v>
+      </c>
+      <c r="E11" s="79">
+        <v>12</v>
+      </c>
+      <c r="F11" s="79">
+        <v>53</v>
+      </c>
+      <c r="G11" s="79">
+        <v>36</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2"/>
@@ -5233,7 +5337,7 @@
       <c r="G12" s="86"/>
     </row>
     <row r="13" spans="1:7" ht="31" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="94" t="s">
+      <c r="A13" s="119" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -5241,31 +5345,51 @@
       </c>
       <c r="C13" s="85"/>
       <c r="D13" s="79"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="79"/>
+      <c r="E13" s="79">
+        <v>2</v>
+      </c>
+      <c r="F13" s="79">
+        <v>43</v>
+      </c>
+      <c r="G13" s="79">
+        <v>57</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="95"/>
+      <c r="A14" s="121"/>
       <c r="B14" s="7" t="s">
         <v>198</v>
       </c>
       <c r="C14" s="85"/>
       <c r="D14" s="79"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="79"/>
+      <c r="E14" s="79">
+        <v>5</v>
+      </c>
+      <c r="F14" s="79">
+        <v>52</v>
+      </c>
+      <c r="G14" s="79">
+        <v>44</v>
+      </c>
     </row>
     <row r="15" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="95"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="7" t="s">
         <v>199</v>
       </c>
       <c r="C15" s="85"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="79"/>
+      <c r="D15" s="79">
+        <v>2</v>
+      </c>
+      <c r="E15" s="79">
+        <v>9</v>
+      </c>
+      <c r="F15" s="79">
+        <v>49</v>
+      </c>
+      <c r="G15" s="79">
+        <v>38</v>
+      </c>
     </row>
     <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2"/>
@@ -5277,7 +5401,7 @@
       <c r="G16" s="86"/>
     </row>
     <row r="17" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="132" t="s">
         <v>25</v>
       </c>
       <c r="B17" s="7" t="s">
@@ -5285,34 +5409,56 @@
       </c>
       <c r="C17" s="85"/>
       <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
+      <c r="E17" s="79">
+        <v>1</v>
+      </c>
+      <c r="F17" s="79">
+        <v>53</v>
+      </c>
+      <c r="G17" s="79">
+        <v>54</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="32.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="111"/>
+      <c r="A18" s="133"/>
       <c r="B18" s="7" t="s">
         <v>198</v>
       </c>
       <c r="C18" s="85"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="79"/>
+      <c r="D18" s="79">
+        <v>1</v>
+      </c>
+      <c r="E18" s="79">
+        <v>6</v>
+      </c>
+      <c r="F18" s="79">
+        <v>54</v>
+      </c>
+      <c r="G18" s="79">
+        <v>45</v>
+      </c>
     </row>
     <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="111"/>
+      <c r="A19" s="133"/>
       <c r="B19" s="7" t="s">
         <v>199</v>
       </c>
       <c r="C19" s="85"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
+      <c r="D19" s="79">
+        <v>1</v>
+      </c>
+      <c r="E19" s="79">
+        <v>9</v>
+      </c>
+      <c r="F19" s="79">
+        <v>45</v>
+      </c>
+      <c r="G19" s="79">
+        <v>44</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="112"/>
+      <c r="A20" s="134"/>
       <c r="B20" s="92"/>
       <c r="C20" s="88"/>
       <c r="D20" s="35"/>
@@ -5322,12 +5468,12 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A17:A20"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="A5:A7"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A17:A20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5338,8 +5484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5353,28 +5499,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="122" t="s">
         <v>206</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="109"/>
-      <c r="G1" s="109"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="81"/>
       <c r="B2" s="81"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="108"/>
-      <c r="E3" s="108"/>
-      <c r="F3" s="108"/>
-      <c r="G3" s="108"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
+      <c r="G3" s="135"/>
     </row>
     <row r="4" spans="1:7" s="93" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -5409,8 +5555,12 @@
       <c r="C5" s="85"/>
       <c r="D5" s="79"/>
       <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
+      <c r="F5" s="79">
+        <v>63</v>
+      </c>
+      <c r="G5" s="79">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="2"/>
@@ -5430,9 +5580,15 @@
       </c>
       <c r="C7" s="85"/>
       <c r="D7" s="79"/>
-      <c r="E7" s="79"/>
-      <c r="F7" s="79"/>
-      <c r="G7" s="79"/>
+      <c r="E7" s="79">
+        <v>5</v>
+      </c>
+      <c r="F7" s="79">
+        <v>56</v>
+      </c>
+      <c r="G7" s="79">
+        <v>46</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2"/>
@@ -5452,9 +5608,15 @@
       </c>
       <c r="C9" s="85"/>
       <c r="D9" s="79"/>
-      <c r="E9" s="79"/>
-      <c r="F9" s="79"/>
-      <c r="G9" s="79"/>
+      <c r="E9" s="79">
+        <v>1</v>
+      </c>
+      <c r="F9" s="79">
+        <v>56</v>
+      </c>
+      <c r="G9" s="79">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2"/>
@@ -5466,7 +5628,7 @@
       <c r="G10" s="86"/>
     </row>
     <row r="11" spans="1:7" ht="34" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="148" t="s">
         <v>25</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -5474,9 +5636,15 @@
       </c>
       <c r="C11" s="85"/>
       <c r="D11" s="79"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="79"/>
+      <c r="E11" s="79">
+        <v>2</v>
+      </c>
+      <c r="F11" s="79">
+        <v>56</v>
+      </c>
+      <c r="G11" s="79">
+        <v>49</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="149"/>
